--- a/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Tsagarakis.xlsx
+++ b/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Tsagarakis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Konstantinos\Documents\BIOLOGY\Programs IMBR + Data Analysis\SEAwise - HORIZON BG10\WP4\T4.1\data extraction\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Werk\WMR\Projects\SEAwise\SEAwise GitHub\Systematic Reviews\Analysis Task 4.1\Data_Extraction_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B1538C1-D3FF-4B9E-BC22-648DB2543016}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2A0FD7E-9704-4080-9701-FB817773F48F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataExtraction" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Drop-down overview" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DataExtraction!$A$2:$AX$49</definedName>
     <definedName name="Benthic_epifauna">Validation!$AI$32:$AI$35</definedName>
     <definedName name="Benthos">Validation!$AN$24:$AN$25</definedName>
     <definedName name="Catch_and_bycatch">Validation!$AM$15:$AM$17</definedName>
@@ -43,7 +44,6 @@
     <definedName name="Seines">Validation!$AT$31:$AT$35</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -53,7 +53,6 @@
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -3964,6 +3963,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3985,7 +3985,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4274,93 +4273,93 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AX49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J54" sqref="J54"/>
+    <sheetView tabSelected="1" topLeftCell="AH1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AL37" sqref="AL37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="19" max="19" width="18.1796875" customWidth="1"/>
-    <col min="24" max="25" width="32.7265625" customWidth="1"/>
-    <col min="34" max="35" width="17.7265625" customWidth="1"/>
-    <col min="36" max="36" width="18.7265625" customWidth="1"/>
-    <col min="37" max="37" width="19.1796875" customWidth="1"/>
-    <col min="38" max="38" width="17.7265625" customWidth="1"/>
-    <col min="39" max="39" width="14.26953125" customWidth="1"/>
-    <col min="40" max="41" width="15.81640625" customWidth="1"/>
-    <col min="42" max="42" width="15.453125" customWidth="1"/>
-    <col min="46" max="46" width="15.1796875" customWidth="1"/>
-    <col min="47" max="47" width="18.7265625" customWidth="1"/>
+    <col min="19" max="19" width="18.21875" customWidth="1"/>
+    <col min="24" max="25" width="32.77734375" customWidth="1"/>
+    <col min="34" max="35" width="17.77734375" customWidth="1"/>
+    <col min="36" max="36" width="18.77734375" customWidth="1"/>
+    <col min="37" max="37" width="19.21875" customWidth="1"/>
+    <col min="38" max="38" width="17.77734375" customWidth="1"/>
+    <col min="39" max="39" width="14.21875" customWidth="1"/>
+    <col min="40" max="41" width="15.77734375" customWidth="1"/>
+    <col min="42" max="42" width="15.44140625" customWidth="1"/>
+    <col min="46" max="46" width="15.21875" customWidth="1"/>
+    <col min="47" max="47" width="18.77734375" customWidth="1"/>
     <col min="48" max="48" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="20" t="s">
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="S1" s="20"/>
-      <c r="T1" s="20"/>
-      <c r="U1" s="20"/>
-      <c r="V1" s="20"/>
-      <c r="W1" s="20"/>
-      <c r="X1" s="20"/>
-      <c r="Y1" s="20"/>
-      <c r="Z1" s="20"/>
-      <c r="AA1" s="20"/>
-      <c r="AB1" s="20"/>
-      <c r="AC1" s="20"/>
-      <c r="AD1" s="20"/>
-      <c r="AE1" s="20"/>
-      <c r="AF1" s="18" t="s">
+      <c r="S1" s="21"/>
+      <c r="T1" s="21"/>
+      <c r="U1" s="21"/>
+      <c r="V1" s="21"/>
+      <c r="W1" s="21"/>
+      <c r="X1" s="21"/>
+      <c r="Y1" s="21"/>
+      <c r="Z1" s="21"/>
+      <c r="AA1" s="21"/>
+      <c r="AB1" s="21"/>
+      <c r="AC1" s="21"/>
+      <c r="AD1" s="21"/>
+      <c r="AE1" s="21"/>
+      <c r="AF1" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="AG1" s="18"/>
-      <c r="AH1" s="19" t="s">
+      <c r="AG1" s="19"/>
+      <c r="AH1" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="AI1" s="19"/>
-      <c r="AJ1" s="19"/>
-      <c r="AK1" s="19"/>
-      <c r="AL1" s="19"/>
-      <c r="AM1" s="21" t="s">
+      <c r="AI1" s="20"/>
+      <c r="AJ1" s="20"/>
+      <c r="AK1" s="20"/>
+      <c r="AL1" s="20"/>
+      <c r="AM1" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="AN1" s="21"/>
-      <c r="AO1" s="21"/>
-      <c r="AP1" s="21"/>
-      <c r="AQ1" s="15" t="s">
+      <c r="AN1" s="22"/>
+      <c r="AO1" s="22"/>
+      <c r="AP1" s="22"/>
+      <c r="AQ1" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="AR1" s="15"/>
-      <c r="AS1" s="15"/>
-      <c r="AT1" s="15"/>
-      <c r="AU1" s="16" t="s">
+      <c r="AR1" s="16"/>
+      <c r="AS1" s="16"/>
+      <c r="AT1" s="16"/>
+      <c r="AU1" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="AV1" s="16"/>
-      <c r="AW1" s="16"/>
-      <c r="AX1" s="16"/>
+      <c r="AV1" s="17"/>
+      <c r="AW1" s="17"/>
+      <c r="AX1" s="17"/>
     </row>
-    <row r="2" spans="1:50" s="2" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:50" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>68</v>
       </c>
@@ -4512,7 +4511,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>242</v>
       </c>
@@ -4637,7 +4636,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="4" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
         <v>242</v>
       </c>
@@ -4759,7 +4758,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="5" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
         <v>242</v>
       </c>
@@ -4881,7 +4880,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="6" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
         <v>242</v>
       </c>
@@ -5003,7 +5002,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="7" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
         <v>242</v>
       </c>
@@ -5122,7 +5121,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="8" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
         <v>242</v>
       </c>
@@ -5245,7 +5244,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="9" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>242</v>
       </c>
@@ -5370,56 +5369,56 @@
         <v>209</v>
       </c>
     </row>
-    <row r="10" spans="1:50" s="13" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="22" t="s">
+    <row r="10" spans="1:50" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="15" t="s">
         <v>242</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="15" t="s">
         <v>243</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="15" t="s">
         <v>244</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="D10" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="E10" s="22">
+      <c r="E10" s="15">
         <v>2020</v>
       </c>
-      <c r="F10" s="22" t="s">
+      <c r="F10" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="G10" s="22" t="s">
+      <c r="G10" s="15" t="s">
         <v>247</v>
       </c>
-      <c r="H10" s="22" t="s">
+      <c r="H10" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="I10" s="22" t="s">
+      <c r="I10" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J10" s="22" t="s">
+      <c r="J10" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="K10" s="22" t="s">
+      <c r="K10" s="15" t="s">
         <v>249</v>
       </c>
-      <c r="L10" s="22" t="s">
+      <c r="L10" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="M10" s="22" t="s">
+      <c r="M10" s="15" t="s">
         <v>250</v>
       </c>
-      <c r="N10" s="22" t="s">
+      <c r="N10" s="15" t="s">
         <v>251</v>
       </c>
-      <c r="O10" s="22" t="s">
+      <c r="O10" s="15" t="s">
         <v>252</v>
       </c>
-      <c r="P10" s="22" t="s">
+      <c r="P10" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="Q10" s="22" t="s">
+      <c r="Q10" s="15" t="s">
         <v>21</v>
       </c>
       <c r="S10" s="13" t="s">
@@ -5455,7 +5454,7 @@
       <c r="AE10" s="13" t="s">
         <v>390</v>
       </c>
-      <c r="AF10" s="22" t="s">
+      <c r="AF10" s="15" t="s">
         <v>253</v>
       </c>
       <c r="AG10" s="13" t="s">
@@ -5504,7 +5503,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="11" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>254</v>
       </c>
@@ -5629,7 +5628,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="12" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
         <v>265</v>
       </c>
@@ -5762,7 +5761,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="13" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>265</v>
       </c>
@@ -5895,7 +5894,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="14" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
         <v>276</v>
       </c>
@@ -6020,7 +6019,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="15" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>276</v>
       </c>
@@ -6151,7 +6150,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="16" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
         <v>285</v>
       </c>
@@ -6276,10 +6275,10 @@
         <v>203</v>
       </c>
       <c r="AW16" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
-    <row r="17" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>285</v>
       </c>
@@ -6404,10 +6403,10 @@
         <v>203</v>
       </c>
       <c r="AW17" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
-    <row r="18" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
         <v>285</v>
       </c>
@@ -6538,7 +6537,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="19" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>285</v>
       </c>
@@ -6669,7 +6668,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="20" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
         <v>295</v>
       </c>
@@ -6800,7 +6799,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="21" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
         <v>306</v>
       </c>
@@ -6931,7 +6930,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="22" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
         <v>315</v>
       </c>
@@ -7056,7 +7055,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="23" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A23" s="12" t="s">
         <v>315</v>
       </c>
@@ -7190,7 +7189,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="24" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A24" s="12" t="s">
         <v>315</v>
       </c>
@@ -7318,7 +7317,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="25" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A25" s="12" t="s">
         <v>315</v>
       </c>
@@ -7443,7 +7442,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="26" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A26" s="12" t="s">
         <v>315</v>
       </c>
@@ -7568,7 +7567,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="27" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A27" s="12" t="s">
         <v>315</v>
       </c>
@@ -7693,7 +7692,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="28" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A28" s="12" t="s">
         <v>315</v>
       </c>
@@ -7821,7 +7820,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="29" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A29" s="12" t="s">
         <v>315</v>
       </c>
@@ -7946,7 +7945,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="30" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A30" s="11" t="s">
         <v>325</v>
       </c>
@@ -8071,7 +8070,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="31" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A31" s="12" t="s">
         <v>325</v>
       </c>
@@ -8202,7 +8201,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="32" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A32" s="12" t="s">
         <v>325</v>
       </c>
@@ -8330,7 +8329,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="33" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A33" s="11" t="s">
         <v>335</v>
       </c>
@@ -8452,7 +8451,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="34" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A34" s="12" t="s">
         <v>335</v>
       </c>
@@ -8574,7 +8573,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="35" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A35" s="12" t="s">
         <v>335</v>
       </c>
@@ -8702,7 +8701,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="36" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A36" s="12" t="s">
         <v>335</v>
       </c>
@@ -8830,7 +8829,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="37" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A37" s="11" t="s">
         <v>344</v>
       </c>
@@ -8952,7 +8951,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="38" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A38" s="11" t="s">
         <v>353</v>
       </c>
@@ -9074,7 +9073,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="39" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A39" s="12" t="s">
         <v>353</v>
       </c>
@@ -9196,7 +9195,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="40" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A40" s="12" t="s">
         <v>353</v>
       </c>
@@ -9318,7 +9317,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="41" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A41" s="12" t="s">
         <v>353</v>
       </c>
@@ -9437,7 +9436,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="42" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A42" s="11" t="s">
         <v>362</v>
       </c>
@@ -9565,7 +9564,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="43" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A43" s="12" t="s">
         <v>362</v>
       </c>
@@ -9696,7 +9695,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="44" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A44" s="11" t="s">
         <v>371</v>
       </c>
@@ -9821,7 +9820,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="45" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A45" s="12" t="s">
         <v>371</v>
       </c>
@@ -9946,7 +9945,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="46" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A46" s="12" t="s">
         <v>371</v>
       </c>
@@ -10071,7 +10070,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="47" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A47" s="12" t="s">
         <v>371</v>
       </c>
@@ -10196,7 +10195,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="48" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A48" s="12" t="s">
         <v>371</v>
       </c>
@@ -10321,7 +10320,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="49" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A49" s="12" t="s">
         <v>371</v>
       </c>
@@ -10578,75 +10577,75 @@
       <selection activeCell="AO2" sqref="AO2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="19" max="19" width="32.1796875" customWidth="1"/>
-    <col min="23" max="23" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="32.21875" customWidth="1"/>
+    <col min="23" max="23" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="25" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="25" customWidth="1"/>
-    <col min="32" max="32" width="14.7265625" customWidth="1"/>
-    <col min="33" max="33" width="26.26953125" customWidth="1"/>
+    <col min="32" max="32" width="14.77734375" customWidth="1"/>
+    <col min="33" max="33" width="26.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="20" t="s">
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="S1" s="20"/>
-      <c r="T1" s="20"/>
-      <c r="U1" s="20"/>
-      <c r="V1" s="20"/>
-      <c r="W1" s="20"/>
-      <c r="X1" s="20"/>
-      <c r="Y1" s="20"/>
-      <c r="Z1" s="20"/>
-      <c r="AA1" s="20"/>
-      <c r="AB1" s="20"/>
-      <c r="AC1" s="20"/>
-      <c r="AD1" s="20"/>
-      <c r="AE1" s="20"/>
-      <c r="AF1" s="18" t="s">
+      <c r="S1" s="21"/>
+      <c r="T1" s="21"/>
+      <c r="U1" s="21"/>
+      <c r="V1" s="21"/>
+      <c r="W1" s="21"/>
+      <c r="X1" s="21"/>
+      <c r="Y1" s="21"/>
+      <c r="Z1" s="21"/>
+      <c r="AA1" s="21"/>
+      <c r="AB1" s="21"/>
+      <c r="AC1" s="21"/>
+      <c r="AD1" s="21"/>
+      <c r="AE1" s="21"/>
+      <c r="AF1" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="AG1" s="18"/>
-      <c r="AH1" s="19" t="s">
+      <c r="AG1" s="19"/>
+      <c r="AH1" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="AI1" s="19"/>
-      <c r="AJ1" s="19"/>
-      <c r="AK1" s="19"/>
-      <c r="AL1" s="19"/>
+      <c r="AI1" s="20"/>
+      <c r="AJ1" s="20"/>
+      <c r="AK1" s="20"/>
+      <c r="AL1" s="20"/>
       <c r="AM1" s="10" t="s">
         <v>97</v>
       </c>
       <c r="AN1" s="10"/>
       <c r="AO1" s="10"/>
       <c r="AP1" s="10"/>
-      <c r="AQ1" s="15" t="s">
+      <c r="AQ1" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="AR1" s="15"/>
-      <c r="AS1" s="15"/>
-      <c r="AT1" s="15"/>
+      <c r="AR1" s="16"/>
+      <c r="AS1" s="16"/>
+      <c r="AT1" s="16"/>
       <c r="AU1" s="9" t="s">
         <v>102</v>
       </c>
@@ -10654,7 +10653,7 @@
       <c r="AW1" s="9"/>
       <c r="AX1" s="9"/>
     </row>
-    <row r="2" spans="1:50" ht="87" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:50" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>68</v>
       </c>
@@ -10806,7 +10805,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:50" x14ac:dyDescent="0.3">
       <c r="Q3" t="s">
         <v>21</v>
       </c>
@@ -10863,7 +10862,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="4" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:50" x14ac:dyDescent="0.3">
       <c r="Q4" t="s">
         <v>22</v>
       </c>
@@ -10920,7 +10919,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="5" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:50" x14ac:dyDescent="0.3">
       <c r="R5" t="s">
         <v>83</v>
       </c>
@@ -10976,7 +10975,7 @@
       </c>
       <c r="AX5" s="8"/>
     </row>
-    <row r="6" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:50" x14ac:dyDescent="0.3">
       <c r="R6" t="s">
         <v>84</v>
       </c>
@@ -11021,7 +11020,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="7" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:50" x14ac:dyDescent="0.3">
       <c r="R7" t="s">
         <v>85</v>
       </c>
@@ -11063,7 +11062,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="8" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:50" x14ac:dyDescent="0.3">
       <c r="R8" t="s">
         <v>86</v>
       </c>
@@ -11101,7 +11100,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="9" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:50" x14ac:dyDescent="0.3">
       <c r="R9" t="s">
         <v>87</v>
       </c>
@@ -11136,7 +11135,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="10" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:50" x14ac:dyDescent="0.3">
       <c r="S10" t="s">
         <v>33</v>
       </c>
@@ -11168,7 +11167,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="11" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:50" x14ac:dyDescent="0.3">
       <c r="S11" t="s">
         <v>32</v>
       </c>
@@ -11203,7 +11202,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="12" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:50" x14ac:dyDescent="0.3">
       <c r="S12" t="s">
         <v>30</v>
       </c>
@@ -11235,7 +11234,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="13" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:50" x14ac:dyDescent="0.3">
       <c r="S13" t="s">
         <v>79</v>
       </c>
@@ -11270,7 +11269,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="14" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:50" x14ac:dyDescent="0.3">
       <c r="S14" t="s">
         <v>31</v>
       </c>
@@ -11299,7 +11298,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="15" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:50" x14ac:dyDescent="0.3">
       <c r="S15" t="s">
         <v>35</v>
       </c>
@@ -11328,7 +11327,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="16" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:50" x14ac:dyDescent="0.3">
       <c r="S16" t="s">
         <v>34</v>
       </c>
@@ -11348,7 +11347,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="17" spans="34:48" x14ac:dyDescent="0.35">
+    <row r="17" spans="34:48" x14ac:dyDescent="0.3">
       <c r="AM17" t="s">
         <v>162</v>
       </c>
@@ -11356,22 +11355,22 @@
         <v>171</v>
       </c>
     </row>
-    <row r="18" spans="34:48" x14ac:dyDescent="0.35">
+    <row r="18" spans="34:48" x14ac:dyDescent="0.3">
       <c r="AQ18" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="19" spans="34:48" x14ac:dyDescent="0.35">
+    <row r="19" spans="34:48" x14ac:dyDescent="0.3">
       <c r="AQ19" s="7" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="22" spans="34:48" x14ac:dyDescent="0.35">
+    <row r="22" spans="34:48" x14ac:dyDescent="0.3">
       <c r="AH22" s="5" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="23" spans="34:48" x14ac:dyDescent="0.35">
+    <row r="23" spans="34:48" x14ac:dyDescent="0.3">
       <c r="AH23" s="6" t="s">
         <v>115</v>
       </c>
@@ -11406,7 +11405,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="24" spans="34:48" x14ac:dyDescent="0.35">
+    <row r="24" spans="34:48" x14ac:dyDescent="0.3">
       <c r="AH24" t="s">
         <v>129</v>
       </c>
@@ -11432,7 +11431,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="25" spans="34:48" x14ac:dyDescent="0.35">
+    <row r="25" spans="34:48" x14ac:dyDescent="0.3">
       <c r="AH25" t="s">
         <v>137</v>
       </c>
@@ -11455,7 +11454,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="26" spans="34:48" x14ac:dyDescent="0.35">
+    <row r="26" spans="34:48" x14ac:dyDescent="0.3">
       <c r="AJ26" t="s">
         <v>144</v>
       </c>
@@ -11466,7 +11465,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="27" spans="34:48" x14ac:dyDescent="0.35">
+    <row r="27" spans="34:48" x14ac:dyDescent="0.3">
       <c r="AJ27" t="s">
         <v>147</v>
       </c>
@@ -11477,7 +11476,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="28" spans="34:48" x14ac:dyDescent="0.35">
+    <row r="28" spans="34:48" x14ac:dyDescent="0.3">
       <c r="AJ28" t="s">
         <v>149</v>
       </c>
@@ -11485,12 +11484,12 @@
         <v>150</v>
       </c>
     </row>
-    <row r="29" spans="34:48" x14ac:dyDescent="0.35">
+    <row r="29" spans="34:48" x14ac:dyDescent="0.3">
       <c r="AQ29" s="5" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="30" spans="34:48" x14ac:dyDescent="0.35">
+    <row r="30" spans="34:48" x14ac:dyDescent="0.3">
       <c r="AH30" s="5" t="s">
         <v>151</v>
       </c>
@@ -11513,7 +11512,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="31" spans="34:48" x14ac:dyDescent="0.35">
+    <row r="31" spans="34:48" x14ac:dyDescent="0.3">
       <c r="AH31" s="6" t="s">
         <v>129</v>
       </c>
@@ -11539,7 +11538,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="32" spans="34:48" x14ac:dyDescent="0.35">
+    <row r="32" spans="34:48" x14ac:dyDescent="0.3">
       <c r="AH32" t="s">
         <v>153</v>
       </c>
@@ -11565,7 +11564,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="33" spans="34:51" x14ac:dyDescent="0.35">
+    <row r="33" spans="34:51" x14ac:dyDescent="0.3">
       <c r="AH33" t="s">
         <v>155</v>
       </c>
@@ -11585,7 +11584,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="34" spans="34:51" x14ac:dyDescent="0.35">
+    <row r="34" spans="34:51" x14ac:dyDescent="0.3">
       <c r="AI34" t="s">
         <v>157</v>
       </c>
@@ -11600,7 +11599,7 @@
       </c>
       <c r="AY34" s="7"/>
     </row>
-    <row r="35" spans="34:51" x14ac:dyDescent="0.35">
+    <row r="35" spans="34:51" x14ac:dyDescent="0.3">
       <c r="AI35" t="s">
         <v>113</v>
       </c>
@@ -11614,7 +11613,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="36" spans="34:51" x14ac:dyDescent="0.35">
+    <row r="36" spans="34:51" x14ac:dyDescent="0.3">
       <c r="AU36" t="s">
         <v>211</v>
       </c>
@@ -11622,10 +11621,10 @@
         <v>196</v>
       </c>
     </row>
-    <row r="37" spans="34:51" x14ac:dyDescent="0.35">
+    <row r="37" spans="34:51" x14ac:dyDescent="0.3">
       <c r="AL37" s="5"/>
     </row>
-    <row r="38" spans="34:51" x14ac:dyDescent="0.35">
+    <row r="38" spans="34:51" x14ac:dyDescent="0.3">
       <c r="AL38" s="6"/>
       <c r="AM38" s="6"/>
       <c r="AN38" s="6"/>
@@ -11653,85 +11652,85 @@
       <selection activeCell="X7" sqref="X7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.7265625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="35.26953125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.54296875" customWidth="1"/>
-    <col min="9" max="9" width="17.26953125" customWidth="1"/>
-    <col min="10" max="10" width="14.7265625" customWidth="1"/>
-    <col min="13" max="13" width="14.453125" customWidth="1"/>
+    <col min="1" max="1" width="25.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.5546875" customWidth="1"/>
+    <col min="9" max="9" width="17.21875" customWidth="1"/>
+    <col min="10" max="10" width="14.77734375" customWidth="1"/>
+    <col min="13" max="13" width="14.44140625" customWidth="1"/>
     <col min="15" max="15" width="25" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="26.54296875" customWidth="1"/>
-    <col min="17" max="17" width="17.453125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.81640625" customWidth="1"/>
-    <col min="19" max="19" width="17.7265625" customWidth="1"/>
-    <col min="20" max="20" width="19.26953125" customWidth="1"/>
-    <col min="21" max="21" width="17.7265625" customWidth="1"/>
-    <col min="22" max="22" width="18.7265625" customWidth="1"/>
-    <col min="26" max="26" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="26.5546875" customWidth="1"/>
+    <col min="17" max="17" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.77734375" customWidth="1"/>
+    <col min="19" max="19" width="17.77734375" customWidth="1"/>
+    <col min="20" max="20" width="19.21875" customWidth="1"/>
+    <col min="21" max="21" width="17.77734375" customWidth="1"/>
+    <col min="22" max="22" width="18.77734375" customWidth="1"/>
+    <col min="26" max="26" width="11.77734375" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="15" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="28.54296875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.453125" customWidth="1"/>
-    <col min="30" max="30" width="15.26953125" customWidth="1"/>
-    <col min="31" max="31" width="26.26953125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="14.7265625" customWidth="1"/>
-    <col min="33" max="33" width="12.54296875" customWidth="1"/>
+    <col min="28" max="28" width="28.5546875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.44140625" customWidth="1"/>
+    <col min="30" max="30" width="15.21875" customWidth="1"/>
+    <col min="31" max="31" width="26.21875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="14.77734375" customWidth="1"/>
+    <col min="33" max="33" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A1" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="18" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="19" t="s">
+      <c r="P1" s="19"/>
+      <c r="Q1" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="R1" s="19"/>
-      <c r="S1" s="19"/>
-      <c r="T1" s="19"/>
-      <c r="U1" s="19"/>
+      <c r="R1" s="20"/>
+      <c r="S1" s="20"/>
+      <c r="T1" s="20"/>
+      <c r="U1" s="20"/>
       <c r="V1" s="10" t="s">
         <v>97</v>
       </c>
       <c r="W1" s="10"/>
       <c r="X1" s="10"/>
       <c r="Y1" s="10"/>
-      <c r="Z1" s="15" t="s">
+      <c r="Z1" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="AA1" s="15"/>
-      <c r="AB1" s="15"/>
-      <c r="AC1" s="15"/>
-      <c r="AD1" s="16" t="s">
+      <c r="AA1" s="16"/>
+      <c r="AB1" s="16"/>
+      <c r="AC1" s="16"/>
+      <c r="AD1" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="AE1" s="16"/>
-      <c r="AF1" s="16"/>
-      <c r="AG1" s="16"/>
+      <c r="AE1" s="17"/>
+      <c r="AF1" s="17"/>
+      <c r="AG1" s="17"/>
     </row>
-    <row r="2" spans="1:33" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:33" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>66</v>
       </c>
@@ -11832,7 +11831,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>81</v>
       </c>
@@ -11898,7 +11897,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>82</v>
       </c>
@@ -11949,7 +11948,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>83</v>
       </c>
@@ -12003,7 +12002,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>84</v>
       </c>
@@ -12045,7 +12044,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>85</v>
       </c>
@@ -12090,7 +12089,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>86</v>
       </c>
@@ -12128,7 +12127,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>87</v>
       </c>
@@ -12166,7 +12165,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>33</v>
       </c>
@@ -12201,7 +12200,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>32</v>
       </c>
@@ -12233,7 +12232,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>30</v>
       </c>
@@ -12265,7 +12264,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>79</v>
       </c>
@@ -12294,7 +12293,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>31</v>
       </c>
@@ -12317,7 +12316,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>35</v>
       </c>
@@ -12343,7 +12342,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>34</v>
       </c>
@@ -12360,7 +12359,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="17" spans="17:28" x14ac:dyDescent="0.35">
+    <row r="17" spans="17:28" x14ac:dyDescent="0.3">
       <c r="Q17" t="s">
         <v>119</v>
       </c>
@@ -12371,7 +12370,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="18" spans="17:28" x14ac:dyDescent="0.35">
+    <row r="18" spans="17:28" x14ac:dyDescent="0.3">
       <c r="Q18" t="s">
         <v>120</v>
       </c>
@@ -12385,7 +12384,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="19" spans="17:28" x14ac:dyDescent="0.35">
+    <row r="19" spans="17:28" x14ac:dyDescent="0.3">
       <c r="R19" t="s">
         <v>152</v>
       </c>
@@ -12399,7 +12398,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="20" spans="17:28" x14ac:dyDescent="0.35">
+    <row r="20" spans="17:28" x14ac:dyDescent="0.3">
       <c r="S20" t="s">
         <v>156</v>
       </c>
@@ -12410,7 +12409,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="21" spans="17:28" x14ac:dyDescent="0.35">
+    <row r="21" spans="17:28" x14ac:dyDescent="0.3">
       <c r="S21" t="s">
         <v>228</v>
       </c>
@@ -12424,7 +12423,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="22" spans="17:28" x14ac:dyDescent="0.35">
+    <row r="22" spans="17:28" x14ac:dyDescent="0.3">
       <c r="S22" t="s">
         <v>113</v>
       </c>
@@ -12435,7 +12434,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="23" spans="17:28" x14ac:dyDescent="0.35">
+    <row r="23" spans="17:28" x14ac:dyDescent="0.3">
       <c r="Q23" t="s">
         <v>127</v>
       </c>
@@ -12446,7 +12445,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="24" spans="17:28" x14ac:dyDescent="0.35">
+    <row r="24" spans="17:28" x14ac:dyDescent="0.3">
       <c r="R24" t="s">
         <v>141</v>
       </c>
@@ -12454,7 +12453,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="25" spans="17:28" x14ac:dyDescent="0.35">
+    <row r="25" spans="17:28" x14ac:dyDescent="0.3">
       <c r="R25" t="s">
         <v>146</v>
       </c>
@@ -12462,7 +12461,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="26" spans="17:28" x14ac:dyDescent="0.35">
+    <row r="26" spans="17:28" x14ac:dyDescent="0.3">
       <c r="R26" t="s">
         <v>148</v>
       </c>
@@ -12470,7 +12469,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="27" spans="17:28" x14ac:dyDescent="0.35">
+    <row r="27" spans="17:28" x14ac:dyDescent="0.3">
       <c r="R27" t="s">
         <v>150</v>
       </c>
@@ -12484,7 +12483,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="28" spans="17:28" x14ac:dyDescent="0.35">
+    <row r="28" spans="17:28" x14ac:dyDescent="0.3">
       <c r="Q28" t="s">
         <v>122</v>
       </c>
@@ -12495,7 +12494,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="29" spans="17:28" x14ac:dyDescent="0.35">
+    <row r="29" spans="17:28" x14ac:dyDescent="0.3">
       <c r="R29" t="s">
         <v>142</v>
       </c>
@@ -12506,7 +12505,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="30" spans="17:28" x14ac:dyDescent="0.35">
+    <row r="30" spans="17:28" x14ac:dyDescent="0.3">
       <c r="Q30" t="s">
         <v>123</v>
       </c>
@@ -12517,7 +12516,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="31" spans="17:28" x14ac:dyDescent="0.35">
+    <row r="31" spans="17:28" x14ac:dyDescent="0.3">
       <c r="R31" t="s">
         <v>143</v>
       </c>
@@ -12525,7 +12524,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="32" spans="17:28" x14ac:dyDescent="0.35">
+    <row r="32" spans="17:28" x14ac:dyDescent="0.3">
       <c r="Q32" t="s">
         <v>128</v>
       </c>
@@ -12533,12 +12532,12 @@
         <v>113</v>
       </c>
     </row>
-    <row r="33" spans="26:26" x14ac:dyDescent="0.35">
+    <row r="33" spans="26:26" x14ac:dyDescent="0.3">
       <c r="Z33" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="34" spans="26:26" x14ac:dyDescent="0.35">
+    <row r="34" spans="26:26" x14ac:dyDescent="0.3">
       <c r="Z34" t="s">
         <v>150</v>
       </c>
@@ -12558,6 +12557,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006AB0F5ECCA53DA47AEBDEAEE6167985F" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="abe771af6212f3f785694fa6f4ad1686">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1b05d82d297216baf5b26c55225140df">
     <xsd:element name="properties">
@@ -12671,22 +12685,30 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D459FE-C8DA-484C-BC8E-5EB6A351EBC9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{296C6747-B437-4BFD-90D3-AF1F913D3FA0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -12700,27 +12722,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D459FE-C8DA-484C-BC8E-5EB6A351EBC9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Tsagarakis.xlsx
+++ b/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Tsagarakis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Werk\WMR\Projects\SEAwise\SEAwise GitHub\Systematic Reviews\Analysis Task 4.1\Data_Extraction_Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://share.dtu.dk/sites/SEAwise_517900/Shared Documents/WP4 Ecological effects of fisheries/Task 4.1/Data extraction/Data extraction files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2A0FD7E-9704-4080-9701-FB817773F48F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F69FD343-41D8-4306-BEB5-054058983120}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataExtraction" sheetId="1" r:id="rId1"/>
@@ -3546,9 +3546,6 @@
     <t>light</t>
   </si>
   <si>
-    <t>important role</t>
-  </si>
-  <si>
     <t>EwE</t>
   </si>
   <si>
@@ -3793,6 +3790,9 @@
   </si>
   <si>
     <t>Dicentrarchus labrax _ Solea vulgaris _ Trisopterus minutus capelanus _ Mullus barbarus _ Mullus surmuletus</t>
+  </si>
+  <si>
+    <t>The light of purse-seine plays an important role to attract, aggregate and concentrate food items which the pelagic fishes, particularly round herring E. teres aggregate to feed on.</t>
   </si>
 </sst>
 </file>
@@ -3939,7 +3939,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3953,17 +3953,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4273,93 +4268,93 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AX49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AH1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AL37" sqref="AL37"/>
+    <sheetView tabSelected="1" topLeftCell="AP1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AX20" sqref="AX20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="19" max="19" width="18.21875" customWidth="1"/>
-    <col min="24" max="25" width="32.77734375" customWidth="1"/>
-    <col min="34" max="35" width="17.77734375" customWidth="1"/>
-    <col min="36" max="36" width="18.77734375" customWidth="1"/>
-    <col min="37" max="37" width="19.21875" customWidth="1"/>
-    <col min="38" max="38" width="17.77734375" customWidth="1"/>
-    <col min="39" max="39" width="14.21875" customWidth="1"/>
-    <col min="40" max="41" width="15.77734375" customWidth="1"/>
-    <col min="42" max="42" width="15.44140625" customWidth="1"/>
-    <col min="46" max="46" width="15.21875" customWidth="1"/>
-    <col min="47" max="47" width="18.77734375" customWidth="1"/>
+    <col min="19" max="19" width="18.1796875" customWidth="1"/>
+    <col min="24" max="25" width="32.81640625" customWidth="1"/>
+    <col min="34" max="35" width="17.81640625" customWidth="1"/>
+    <col min="36" max="36" width="18.81640625" customWidth="1"/>
+    <col min="37" max="37" width="19.1796875" customWidth="1"/>
+    <col min="38" max="38" width="17.81640625" customWidth="1"/>
+    <col min="39" max="39" width="14.1796875" customWidth="1"/>
+    <col min="40" max="41" width="15.81640625" customWidth="1"/>
+    <col min="42" max="42" width="15.453125" customWidth="1"/>
+    <col min="46" max="46" width="15.1796875" customWidth="1"/>
+    <col min="47" max="47" width="18.81640625" customWidth="1"/>
     <col min="48" max="48" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="21" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="S1" s="21"/>
-      <c r="T1" s="21"/>
-      <c r="U1" s="21"/>
-      <c r="V1" s="21"/>
-      <c r="W1" s="21"/>
-      <c r="X1" s="21"/>
-      <c r="Y1" s="21"/>
-      <c r="Z1" s="21"/>
-      <c r="AA1" s="21"/>
-      <c r="AB1" s="21"/>
-      <c r="AC1" s="21"/>
-      <c r="AD1" s="21"/>
-      <c r="AE1" s="21"/>
-      <c r="AF1" s="19" t="s">
+      <c r="S1" s="16"/>
+      <c r="T1" s="16"/>
+      <c r="U1" s="16"/>
+      <c r="V1" s="16"/>
+      <c r="W1" s="16"/>
+      <c r="X1" s="16"/>
+      <c r="Y1" s="16"/>
+      <c r="Z1" s="16"/>
+      <c r="AA1" s="16"/>
+      <c r="AB1" s="16"/>
+      <c r="AC1" s="16"/>
+      <c r="AD1" s="16"/>
+      <c r="AE1" s="16"/>
+      <c r="AF1" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="AG1" s="19"/>
-      <c r="AH1" s="20" t="s">
+      <c r="AG1" s="14"/>
+      <c r="AH1" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="AI1" s="20"/>
-      <c r="AJ1" s="20"/>
-      <c r="AK1" s="20"/>
-      <c r="AL1" s="20"/>
-      <c r="AM1" s="22" t="s">
+      <c r="AI1" s="15"/>
+      <c r="AJ1" s="15"/>
+      <c r="AK1" s="15"/>
+      <c r="AL1" s="15"/>
+      <c r="AM1" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="AN1" s="22"/>
-      <c r="AO1" s="22"/>
-      <c r="AP1" s="22"/>
-      <c r="AQ1" s="16" t="s">
+      <c r="AN1" s="17"/>
+      <c r="AO1" s="17"/>
+      <c r="AP1" s="17"/>
+      <c r="AQ1" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="AR1" s="16"/>
-      <c r="AS1" s="16"/>
-      <c r="AT1" s="16"/>
-      <c r="AU1" s="17" t="s">
+      <c r="AR1" s="11"/>
+      <c r="AS1" s="11"/>
+      <c r="AT1" s="11"/>
+      <c r="AU1" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="AV1" s="17"/>
-      <c r="AW1" s="17"/>
-      <c r="AX1" s="17"/>
+      <c r="AV1" s="12"/>
+      <c r="AW1" s="12"/>
+      <c r="AX1" s="12"/>
     </row>
-    <row r="2" spans="1:50" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:50" s="2" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>68</v>
       </c>
@@ -4511,56 +4506,56 @@
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
+    <row r="3" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A3" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="10">
         <v>2020</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="10" t="s">
         <v>246</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="10" t="s">
         <v>247</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="J3" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="K3" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="L3" s="11" t="s">
+      <c r="L3" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="M3" s="11" t="s">
+      <c r="M3" s="10" t="s">
         <v>250</v>
       </c>
-      <c r="N3" s="11" t="s">
+      <c r="N3" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="O3" s="11" t="s">
+      <c r="O3" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="P3" s="11" t="s">
+      <c r="P3" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="Q3" s="11" t="s">
+      <c r="Q3" s="10" t="s">
         <v>21</v>
       </c>
       <c r="S3" t="s">
@@ -4582,7 +4577,7 @@
         <v>69</v>
       </c>
       <c r="Z3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AA3">
         <v>2</v>
@@ -4593,7 +4588,7 @@
       <c r="AC3">
         <v>2</v>
       </c>
-      <c r="AF3" s="12" t="s">
+      <c r="AF3" s="10" t="s">
         <v>253</v>
       </c>
       <c r="AG3" t="s">
@@ -4606,7 +4601,7 @@
         <v>144</v>
       </c>
       <c r="AL3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AM3" t="s">
         <v>232</v>
@@ -4615,7 +4610,7 @@
         <v>160</v>
       </c>
       <c r="AO3" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AQ3" t="s">
         <v>164</v>
@@ -4627,7 +4622,7 @@
         <v>175</v>
       </c>
       <c r="AU3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AV3" t="s">
         <v>199</v>
@@ -4636,56 +4631,56 @@
         <v>208</v>
       </c>
     </row>
-    <row r="4" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A4" s="12" t="s">
+    <row r="4" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A4" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="10">
         <v>2020</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="10" t="s">
         <v>246</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="10" t="s">
         <v>247</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="H4" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="I4" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="J4" s="12" t="s">
+      <c r="J4" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="K4" s="12" t="s">
+      <c r="K4" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="L4" s="12" t="s">
+      <c r="L4" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="M4" s="12" t="s">
+      <c r="M4" s="10" t="s">
         <v>250</v>
       </c>
-      <c r="N4" s="12" t="s">
+      <c r="N4" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="O4" s="12" t="s">
+      <c r="O4" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="P4" s="12" t="s">
+      <c r="P4" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="Q4" s="12" t="s">
+      <c r="Q4" s="10" t="s">
         <v>21</v>
       </c>
       <c r="S4" t="s">
@@ -4707,7 +4702,7 @@
         <v>69</v>
       </c>
       <c r="Z4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AA4">
         <v>2</v>
@@ -4718,7 +4713,7 @@
       <c r="AC4">
         <v>2</v>
       </c>
-      <c r="AF4" s="12" t="s">
+      <c r="AF4" s="10" t="s">
         <v>253</v>
       </c>
       <c r="AG4" t="s">
@@ -4737,7 +4732,7 @@
         <v>162</v>
       </c>
       <c r="AO4" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AQ4" t="s">
         <v>164</v>
@@ -4749,7 +4744,7 @@
         <v>175</v>
       </c>
       <c r="AU4" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AV4" t="s">
         <v>199</v>
@@ -4758,56 +4753,56 @@
         <v>208</v>
       </c>
     </row>
-    <row r="5" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A5" s="12" t="s">
+    <row r="5" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A5" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="10">
         <v>2020</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="10" t="s">
         <v>246</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="10" t="s">
         <v>247</v>
       </c>
-      <c r="H5" s="12" t="s">
+      <c r="H5" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="I5" s="12" t="s">
+      <c r="I5" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="J5" s="12" t="s">
+      <c r="J5" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="K5" s="12" t="s">
+      <c r="K5" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="L5" s="12" t="s">
+      <c r="L5" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="M5" s="12" t="s">
+      <c r="M5" s="10" t="s">
         <v>250</v>
       </c>
-      <c r="N5" s="12" t="s">
+      <c r="N5" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="O5" s="12" t="s">
+      <c r="O5" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="P5" s="12" t="s">
+      <c r="P5" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="Q5" s="12" t="s">
+      <c r="Q5" s="10" t="s">
         <v>21</v>
       </c>
       <c r="S5" t="s">
@@ -4829,7 +4824,7 @@
         <v>69</v>
       </c>
       <c r="Z5" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AA5">
         <v>2</v>
@@ -4840,7 +4835,7 @@
       <c r="AC5">
         <v>2</v>
       </c>
-      <c r="AF5" s="12" t="s">
+      <c r="AF5" s="10" t="s">
         <v>253</v>
       </c>
       <c r="AG5" t="s">
@@ -4859,7 +4854,7 @@
         <v>162</v>
       </c>
       <c r="AO5" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AQ5" t="s">
         <v>164</v>
@@ -4871,7 +4866,7 @@
         <v>175</v>
       </c>
       <c r="AU5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AV5" t="s">
         <v>199</v>
@@ -4880,56 +4875,56 @@
         <v>208</v>
       </c>
     </row>
-    <row r="6" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A6" s="12" t="s">
+    <row r="6" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A6" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="10">
         <v>2020</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="10" t="s">
         <v>246</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="G6" s="10" t="s">
         <v>247</v>
       </c>
-      <c r="H6" s="12" t="s">
+      <c r="H6" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="I6" s="12" t="s">
+      <c r="I6" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="J6" s="12" t="s">
+      <c r="J6" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="K6" s="12" t="s">
+      <c r="K6" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="L6" s="12" t="s">
+      <c r="L6" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="M6" s="12" t="s">
+      <c r="M6" s="10" t="s">
         <v>250</v>
       </c>
-      <c r="N6" s="12" t="s">
+      <c r="N6" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="O6" s="12" t="s">
+      <c r="O6" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="P6" s="12" t="s">
+      <c r="P6" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="Q6" s="12" t="s">
+      <c r="Q6" s="10" t="s">
         <v>21</v>
       </c>
       <c r="S6" t="s">
@@ -4951,7 +4946,7 @@
         <v>69</v>
       </c>
       <c r="Z6" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AA6">
         <v>2</v>
@@ -4962,7 +4957,7 @@
       <c r="AC6">
         <v>2</v>
       </c>
-      <c r="AF6" s="12" t="s">
+      <c r="AF6" s="10" t="s">
         <v>253</v>
       </c>
       <c r="AG6" t="s">
@@ -4981,7 +4976,7 @@
         <v>162</v>
       </c>
       <c r="AO6" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AQ6" t="s">
         <v>164</v>
@@ -4993,7 +4988,7 @@
         <v>175</v>
       </c>
       <c r="AU6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AV6" t="s">
         <v>199</v>
@@ -5002,56 +4997,56 @@
         <v>208</v>
       </c>
     </row>
-    <row r="7" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A7" s="12" t="s">
+    <row r="7" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A7" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="10">
         <v>2020</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="10" t="s">
         <v>246</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="G7" s="10" t="s">
         <v>247</v>
       </c>
-      <c r="H7" s="12" t="s">
+      <c r="H7" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="I7" s="12" t="s">
+      <c r="I7" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="J7" s="12" t="s">
+      <c r="J7" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="K7" s="12" t="s">
+      <c r="K7" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="L7" s="12" t="s">
+      <c r="L7" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="M7" s="12" t="s">
+      <c r="M7" s="10" t="s">
         <v>250</v>
       </c>
-      <c r="N7" s="12" t="s">
+      <c r="N7" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="O7" s="12" t="s">
+      <c r="O7" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="P7" s="12" t="s">
+      <c r="P7" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="Q7" s="12" t="s">
+      <c r="Q7" s="10" t="s">
         <v>21</v>
       </c>
       <c r="S7" t="s">
@@ -5073,7 +5068,7 @@
         <v>69</v>
       </c>
       <c r="Z7" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AA7">
         <v>2</v>
@@ -5084,7 +5079,7 @@
       <c r="AC7">
         <v>2</v>
       </c>
-      <c r="AF7" s="12" t="s">
+      <c r="AF7" s="10" t="s">
         <v>253</v>
       </c>
       <c r="AG7" t="s">
@@ -5100,7 +5095,7 @@
         <v>161</v>
       </c>
       <c r="AO7" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AQ7" t="s">
         <v>164</v>
@@ -5112,7 +5107,7 @@
         <v>175</v>
       </c>
       <c r="AU7" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AV7" t="s">
         <v>199</v>
@@ -5121,56 +5116,56 @@
         <v>208</v>
       </c>
     </row>
-    <row r="8" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A8" s="12" t="s">
+    <row r="8" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A8" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="10">
         <v>2020</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="F8" s="10" t="s">
         <v>246</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="G8" s="10" t="s">
         <v>247</v>
       </c>
-      <c r="H8" s="12" t="s">
+      <c r="H8" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="I8" s="12" t="s">
+      <c r="I8" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="J8" s="12" t="s">
+      <c r="J8" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="K8" s="12" t="s">
+      <c r="K8" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="L8" s="12" t="s">
+      <c r="L8" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="M8" s="12" t="s">
+      <c r="M8" s="10" t="s">
         <v>250</v>
       </c>
-      <c r="N8" s="12" t="s">
+      <c r="N8" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="O8" s="12" t="s">
+      <c r="O8" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="P8" s="12" t="s">
+      <c r="P8" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="Q8" s="12" t="s">
+      <c r="Q8" s="10" t="s">
         <v>21</v>
       </c>
       <c r="S8" t="s">
@@ -5192,7 +5187,7 @@
         <v>69</v>
       </c>
       <c r="Z8" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AA8">
         <v>2</v>
@@ -5203,7 +5198,7 @@
       <c r="AC8">
         <v>2</v>
       </c>
-      <c r="AF8" s="12" t="s">
+      <c r="AF8" s="10" t="s">
         <v>253</v>
       </c>
       <c r="AG8" t="s">
@@ -5215,7 +5210,6 @@
       <c r="AI8" t="s">
         <v>147</v>
       </c>
-      <c r="AL8" s="13"/>
       <c r="AM8" t="s">
         <v>232</v>
       </c>
@@ -5223,7 +5217,7 @@
         <v>160</v>
       </c>
       <c r="AO8" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AQ8" t="s">
         <v>164</v>
@@ -5235,7 +5229,7 @@
         <v>192</v>
       </c>
       <c r="AU8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AV8" t="s">
         <v>199</v>
@@ -5244,56 +5238,56 @@
         <v>208</v>
       </c>
     </row>
-    <row r="9" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A9" s="12" t="s">
+    <row r="9" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A9" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="10">
         <v>2020</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F9" s="10" t="s">
         <v>246</v>
       </c>
-      <c r="G9" s="12" t="s">
+      <c r="G9" s="10" t="s">
         <v>247</v>
       </c>
-      <c r="H9" s="12" t="s">
+      <c r="H9" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="I9" s="12" t="s">
+      <c r="I9" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="J9" s="12" t="s">
+      <c r="J9" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="K9" s="12" t="s">
+      <c r="K9" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="L9" s="12" t="s">
+      <c r="L9" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="M9" s="12" t="s">
+      <c r="M9" s="10" t="s">
         <v>250</v>
       </c>
-      <c r="N9" s="12" t="s">
+      <c r="N9" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="O9" s="12" t="s">
+      <c r="O9" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="P9" s="12" t="s">
+      <c r="P9" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="Q9" s="12" t="s">
+      <c r="Q9" s="10" t="s">
         <v>21</v>
       </c>
       <c r="S9" t="s">
@@ -5315,7 +5309,7 @@
         <v>69</v>
       </c>
       <c r="Z9" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AA9">
         <v>2</v>
@@ -5326,7 +5320,7 @@
       <c r="AC9">
         <v>2</v>
       </c>
-      <c r="AF9" s="12" t="s">
+      <c r="AF9" s="10" t="s">
         <v>253</v>
       </c>
       <c r="AG9" t="s">
@@ -5338,8 +5332,8 @@
       <c r="AI9" t="s">
         <v>144</v>
       </c>
-      <c r="AL9" s="13" t="s">
-        <v>389</v>
+      <c r="AL9" t="s">
+        <v>388</v>
       </c>
       <c r="AM9" t="s">
         <v>232</v>
@@ -5348,7 +5342,7 @@
         <v>161</v>
       </c>
       <c r="AO9" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AQ9" t="s">
         <v>164</v>
@@ -5360,7 +5354,7 @@
         <v>175</v>
       </c>
       <c r="AU9" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AV9" t="s">
         <v>199</v>
@@ -5369,193 +5363,193 @@
         <v>209</v>
       </c>
     </row>
-    <row r="10" spans="1:50" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="15" t="s">
+    <row r="10" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A10" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="E10" s="15">
+      <c r="E10" s="10">
         <v>2020</v>
       </c>
-      <c r="F10" s="15" t="s">
+      <c r="F10" s="10" t="s">
         <v>246</v>
       </c>
-      <c r="G10" s="15" t="s">
+      <c r="G10" s="10" t="s">
         <v>247</v>
       </c>
-      <c r="H10" s="15" t="s">
+      <c r="H10" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="I10" s="15" t="s">
+      <c r="I10" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="J10" s="15" t="s">
+      <c r="J10" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="K10" s="15" t="s">
+      <c r="K10" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="L10" s="15" t="s">
+      <c r="L10" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="M10" s="15" t="s">
+      <c r="M10" s="10" t="s">
         <v>250</v>
       </c>
-      <c r="N10" s="15" t="s">
+      <c r="N10" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="O10" s="15" t="s">
+      <c r="O10" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="P10" s="15" t="s">
+      <c r="P10" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="Q10" s="15" t="s">
+      <c r="Q10" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="S10" s="13" t="s">
+      <c r="S10" t="s">
         <v>31</v>
       </c>
-      <c r="T10" s="13" t="s">
+      <c r="T10" t="s">
         <v>46</v>
       </c>
-      <c r="U10" s="13" t="s">
+      <c r="U10" t="s">
         <v>56</v>
       </c>
-      <c r="V10" s="13" t="s">
+      <c r="V10" t="s">
         <v>42</v>
       </c>
-      <c r="W10" s="13" t="s">
+      <c r="W10" t="s">
         <v>55</v>
       </c>
-      <c r="X10" s="13" t="s">
+      <c r="X10" t="s">
         <v>69</v>
       </c>
-      <c r="Z10" s="13" t="s">
+      <c r="Z10" t="s">
+        <v>383</v>
+      </c>
+      <c r="AA10">
+        <v>2</v>
+      </c>
+      <c r="AB10">
+        <v>2</v>
+      </c>
+      <c r="AC10">
+        <v>2</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>389</v>
+      </c>
+      <c r="AF10" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>111</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>120</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>140</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>113</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>150</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>387</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>232</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>161</v>
+      </c>
+      <c r="AO10" t="s">
         <v>384</v>
       </c>
-      <c r="AA10" s="13">
-        <v>2</v>
-      </c>
-      <c r="AB10" s="13">
-        <v>2</v>
-      </c>
-      <c r="AC10" s="13">
-        <v>2</v>
-      </c>
-      <c r="AE10" s="13" t="s">
-        <v>390</v>
-      </c>
-      <c r="AF10" s="15" t="s">
-        <v>253</v>
-      </c>
-      <c r="AG10" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="AH10" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="AI10" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="AJ10" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="AK10" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="AL10" s="13" t="s">
-        <v>388</v>
-      </c>
-      <c r="AM10" s="13" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN10" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="AO10" s="13" t="s">
+      <c r="AQ10" t="s">
+        <v>164</v>
+      </c>
+      <c r="AR10" t="s">
+        <v>239</v>
+      </c>
+      <c r="AS10" t="s">
+        <v>175</v>
+      </c>
+      <c r="AU10" t="s">
         <v>385</v>
       </c>
-      <c r="AQ10" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="AR10" s="13" t="s">
-        <v>239</v>
-      </c>
-      <c r="AS10" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="AU10" s="13" t="s">
-        <v>386</v>
-      </c>
-      <c r="AV10" s="13" t="s">
+      <c r="AV10" t="s">
         <v>199</v>
       </c>
-      <c r="AW10" s="13" t="s">
+      <c r="AW10" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="11" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A11" s="11" t="s">
+    <row r="11" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A11" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="10" t="s">
         <v>255</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="10" t="s">
         <v>256</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="10">
         <v>2019</v>
       </c>
-      <c r="F11" s="11" t="s">
+      <c r="F11" s="10" t="s">
         <v>257</v>
       </c>
-      <c r="G11" s="11" t="s">
+      <c r="G11" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="H11" s="11" t="s">
+      <c r="H11" s="10" t="s">
         <v>259</v>
       </c>
-      <c r="I11" s="11" t="s">
+      <c r="I11" s="10" t="s">
         <v>260</v>
       </c>
-      <c r="J11" s="11" t="s">
+      <c r="J11" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="K11" s="11" t="s">
+      <c r="K11" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="L11" s="11" t="s">
+      <c r="L11" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="M11" s="11" t="s">
+      <c r="M11" s="10" t="s">
         <v>263</v>
       </c>
-      <c r="N11" s="11" t="s">
+      <c r="N11" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="O11" s="11" t="s">
+      <c r="O11" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="P11" s="11" t="s">
+      <c r="P11" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="Q11" s="11" t="s">
+      <c r="Q11" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="S11" s="13" t="s">
+      <c r="S11" t="s">
         <v>26</v>
       </c>
       <c r="T11" t="s">
@@ -5574,7 +5568,7 @@
         <v>215</v>
       </c>
       <c r="Z11" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AA11">
         <v>3</v>
@@ -5586,9 +5580,9 @@
         <v>3</v>
       </c>
       <c r="AD11" t="s">
-        <v>392</v>
-      </c>
-      <c r="AF11" s="12" t="s">
+        <v>391</v>
+      </c>
+      <c r="AF11" s="10" t="s">
         <v>253</v>
       </c>
       <c r="AG11" t="s">
@@ -5603,11 +5597,11 @@
       <c r="AM11" t="s">
         <v>232</v>
       </c>
-      <c r="AN11" s="13" t="s">
+      <c r="AN11" t="s">
         <v>160</v>
       </c>
       <c r="AO11" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AQ11" t="s">
         <v>164</v>
@@ -5619,7 +5613,7 @@
         <v>175</v>
       </c>
       <c r="AU11" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AV11" t="s">
         <v>205</v>
@@ -5628,56 +5622,56 @@
         <v>208</v>
       </c>
     </row>
-    <row r="12" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A12" s="11" t="s">
+    <row r="12" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A12" s="10" t="s">
         <v>265</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="10" t="s">
         <v>266</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="10">
         <v>2017</v>
       </c>
-      <c r="F12" s="11" t="s">
+      <c r="F12" s="10" t="s">
         <v>268</v>
       </c>
-      <c r="G12" s="11" t="s">
+      <c r="G12" s="10" t="s">
         <v>269</v>
       </c>
-      <c r="H12" s="11" t="s">
+      <c r="H12" s="10" t="s">
         <v>270</v>
       </c>
-      <c r="I12" s="11" t="s">
+      <c r="I12" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="J12" s="11" t="s">
+      <c r="J12" s="10" t="s">
         <v>272</v>
       </c>
-      <c r="K12" s="11" t="s">
+      <c r="K12" s="10" t="s">
         <v>273</v>
       </c>
-      <c r="L12" s="11" t="s">
+      <c r="L12" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="M12" s="11" t="s">
+      <c r="M12" s="10" t="s">
         <v>274</v>
       </c>
-      <c r="N12" s="11" t="s">
+      <c r="N12" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="O12" s="11" t="s">
+      <c r="O12" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="P12" s="11" t="s">
+      <c r="P12" s="10" t="s">
         <v>275</v>
       </c>
-      <c r="Q12" s="11" t="s">
+      <c r="Q12" s="10" t="s">
         <v>21</v>
       </c>
       <c r="S12" t="s">
@@ -5699,7 +5693,7 @@
         <v>215</v>
       </c>
       <c r="Z12" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="AA12">
         <v>2</v>
@@ -5711,24 +5705,22 @@
         <v>3</v>
       </c>
       <c r="AD12" t="s">
-        <v>401</v>
-      </c>
-      <c r="AF12" s="12" t="s">
+        <v>400</v>
+      </c>
+      <c r="AF12" s="10" t="s">
         <v>253</v>
       </c>
       <c r="AG12" t="s">
         <v>110</v>
       </c>
-      <c r="AH12" s="13" t="s">
+      <c r="AH12" t="s">
         <v>117</v>
       </c>
-      <c r="AI12" s="13" t="s">
+      <c r="AI12" t="s">
         <v>144</v>
       </c>
-      <c r="AJ12" s="13"/>
-      <c r="AK12" s="13"/>
-      <c r="AL12" s="13" t="s">
-        <v>400</v>
+      <c r="AL12" t="s">
+        <v>399</v>
       </c>
       <c r="AM12" t="s">
         <v>232</v>
@@ -5737,7 +5729,7 @@
         <v>160</v>
       </c>
       <c r="AO12" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AQ12" t="s">
         <v>164</v>
@@ -5749,7 +5741,7 @@
         <v>175</v>
       </c>
       <c r="AU12" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AV12" t="s">
         <v>203</v>
@@ -5758,59 +5750,59 @@
         <v>208</v>
       </c>
       <c r="AX12" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
-    <row r="13" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A13" s="12" t="s">
+    <row r="13" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A13" s="10" t="s">
         <v>265</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="10" t="s">
         <v>266</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E13" s="10">
         <v>2017</v>
       </c>
-      <c r="F13" s="12" t="s">
+      <c r="F13" s="10" t="s">
         <v>268</v>
       </c>
-      <c r="G13" s="12" t="s">
+      <c r="G13" s="10" t="s">
         <v>269</v>
       </c>
-      <c r="H13" s="12" t="s">
+      <c r="H13" s="10" t="s">
         <v>270</v>
       </c>
-      <c r="I13" s="12" t="s">
+      <c r="I13" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="J13" s="12" t="s">
+      <c r="J13" s="10" t="s">
         <v>272</v>
       </c>
-      <c r="K13" s="12" t="s">
+      <c r="K13" s="10" t="s">
         <v>273</v>
       </c>
-      <c r="L13" s="12" t="s">
+      <c r="L13" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="M13" s="12" t="s">
+      <c r="M13" s="10" t="s">
         <v>274</v>
       </c>
-      <c r="N13" s="12" t="s">
+      <c r="N13" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="O13" s="12" t="s">
+      <c r="O13" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="P13" s="12" t="s">
+      <c r="P13" s="10" t="s">
         <v>275</v>
       </c>
-      <c r="Q13" s="12" t="s">
+      <c r="Q13" s="10" t="s">
         <v>21</v>
       </c>
       <c r="S13" t="s">
@@ -5832,7 +5824,7 @@
         <v>215</v>
       </c>
       <c r="Z13" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="AA13">
         <v>2</v>
@@ -5844,24 +5836,22 @@
         <v>3</v>
       </c>
       <c r="AD13" t="s">
-        <v>401</v>
-      </c>
-      <c r="AF13" s="12" t="s">
+        <v>400</v>
+      </c>
+      <c r="AF13" s="10" t="s">
         <v>253</v>
       </c>
       <c r="AG13" t="s">
         <v>110</v>
       </c>
-      <c r="AH13" s="13" t="s">
+      <c r="AH13" t="s">
         <v>117</v>
       </c>
-      <c r="AI13" s="13" t="s">
+      <c r="AI13" t="s">
         <v>144</v>
       </c>
-      <c r="AJ13" s="13"/>
-      <c r="AK13" s="13"/>
-      <c r="AL13" s="13" t="s">
-        <v>400</v>
+      <c r="AL13" t="s">
+        <v>399</v>
       </c>
       <c r="AM13" t="s">
         <v>232</v>
@@ -5870,7 +5860,7 @@
         <v>160</v>
       </c>
       <c r="AO13" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AQ13" t="s">
         <v>164</v>
@@ -5882,7 +5872,7 @@
         <v>175</v>
       </c>
       <c r="AU13" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AV13" t="s">
         <v>203</v>
@@ -5891,59 +5881,59 @@
         <v>207</v>
       </c>
       <c r="AX13" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
-    <row r="14" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A14" s="11" t="s">
+    <row r="14" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A14" s="10" t="s">
         <v>276</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="10" t="s">
         <v>277</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="10" t="s">
         <v>278</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E14" s="10">
         <v>2016</v>
       </c>
-      <c r="F14" s="11" t="s">
+      <c r="F14" s="10" t="s">
         <v>279</v>
       </c>
-      <c r="G14" s="11" t="s">
+      <c r="G14" s="10" t="s">
         <v>280</v>
       </c>
-      <c r="H14" s="11" t="s">
+      <c r="H14" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="I14" s="11" t="s">
+      <c r="I14" s="10" t="s">
         <v>281</v>
       </c>
-      <c r="J14" s="11" t="s">
+      <c r="J14" s="10" t="s">
         <v>282</v>
       </c>
-      <c r="K14" s="11" t="s">
+      <c r="K14" s="10" t="s">
         <v>283</v>
       </c>
-      <c r="L14" s="11" t="s">
+      <c r="L14" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="M14" s="11" t="s">
+      <c r="M14" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="N14" s="11" t="s">
+      <c r="N14" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="O14" s="11" t="s">
+      <c r="O14" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="P14" s="11" t="s">
+      <c r="P14" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="Q14" s="11" t="s">
+      <c r="Q14" s="10" t="s">
         <v>21</v>
       </c>
       <c r="S14" t="s">
@@ -5965,7 +5955,7 @@
         <v>215</v>
       </c>
       <c r="Z14" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AA14">
         <v>2</v>
@@ -5976,7 +5966,7 @@
       <c r="AC14">
         <v>3</v>
       </c>
-      <c r="AF14" s="12" t="s">
+      <c r="AF14" s="10" t="s">
         <v>253</v>
       </c>
       <c r="AG14" t="s">
@@ -5988,8 +5978,8 @@
       <c r="AI14" t="s">
         <v>144</v>
       </c>
-      <c r="AL14" s="13" t="s">
-        <v>403</v>
+      <c r="AL14" t="s">
+        <v>402</v>
       </c>
       <c r="AM14" t="s">
         <v>232</v>
@@ -5998,7 +5988,7 @@
         <v>160</v>
       </c>
       <c r="AO14" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AQ14" t="s">
         <v>164</v>
@@ -6010,7 +6000,7 @@
         <v>175</v>
       </c>
       <c r="AU14" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AV14" t="s">
         <v>199</v>
@@ -6019,56 +6009,56 @@
         <v>208</v>
       </c>
     </row>
-    <row r="15" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A15" s="12" t="s">
+    <row r="15" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A15" s="10" t="s">
         <v>276</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="10" t="s">
         <v>277</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="D15" s="10" t="s">
         <v>278</v>
       </c>
-      <c r="E15" s="12">
+      <c r="E15" s="10">
         <v>2016</v>
       </c>
-      <c r="F15" s="12" t="s">
+      <c r="F15" s="10" t="s">
         <v>279</v>
       </c>
-      <c r="G15" s="12" t="s">
+      <c r="G15" s="10" t="s">
         <v>280</v>
       </c>
-      <c r="H15" s="12" t="s">
+      <c r="H15" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="I15" s="12" t="s">
+      <c r="I15" s="10" t="s">
         <v>281</v>
       </c>
-      <c r="J15" s="12" t="s">
+      <c r="J15" s="10" t="s">
         <v>282</v>
       </c>
-      <c r="K15" s="12" t="s">
+      <c r="K15" s="10" t="s">
         <v>283</v>
       </c>
-      <c r="L15" s="12" t="s">
+      <c r="L15" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="M15" s="12" t="s">
+      <c r="M15" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="N15" s="12" t="s">
+      <c r="N15" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="O15" s="12" t="s">
+      <c r="O15" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="P15" s="12" t="s">
+      <c r="P15" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="Q15" s="12" t="s">
+      <c r="Q15" s="10" t="s">
         <v>21</v>
       </c>
       <c r="S15" t="s">
@@ -6090,7 +6080,7 @@
         <v>215</v>
       </c>
       <c r="Z15" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AA15">
         <v>2</v>
@@ -6101,7 +6091,7 @@
       <c r="AC15">
         <v>3</v>
       </c>
-      <c r="AF15" s="12" t="s">
+      <c r="AF15" s="10" t="s">
         <v>253</v>
       </c>
       <c r="AG15" t="s">
@@ -6119,8 +6109,8 @@
       <c r="AK15" t="s">
         <v>150</v>
       </c>
-      <c r="AL15" s="13" t="s">
-        <v>405</v>
+      <c r="AL15" t="s">
+        <v>404</v>
       </c>
       <c r="AM15" t="s">
         <v>232</v>
@@ -6129,7 +6119,7 @@
         <v>160</v>
       </c>
       <c r="AO15" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AQ15" t="s">
         <v>164</v>
@@ -6141,7 +6131,7 @@
         <v>175</v>
       </c>
       <c r="AU15" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AV15" t="s">
         <v>199</v>
@@ -6150,56 +6140,56 @@
         <v>208</v>
       </c>
     </row>
-    <row r="16" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A16" s="11" t="s">
+    <row r="16" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A16" s="10" t="s">
         <v>285</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E16" s="10">
         <v>2014</v>
       </c>
-      <c r="F16" s="11" t="s">
+      <c r="F16" s="10" t="s">
         <v>288</v>
       </c>
-      <c r="G16" s="11" t="s">
+      <c r="G16" s="10" t="s">
         <v>289</v>
       </c>
-      <c r="H16" s="11" t="s">
+      <c r="H16" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="I16" s="11" t="s">
+      <c r="I16" s="10" t="s">
         <v>290</v>
       </c>
-      <c r="J16" s="11" t="s">
+      <c r="J16" s="10" t="s">
         <v>291</v>
       </c>
-      <c r="K16" s="11" t="s">
+      <c r="K16" s="10" t="s">
         <v>292</v>
       </c>
-      <c r="L16" s="11" t="s">
+      <c r="L16" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="M16" s="11" t="s">
+      <c r="M16" s="10" t="s">
         <v>293</v>
       </c>
-      <c r="N16" s="11" t="s">
+      <c r="N16" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="O16" s="11" t="s">
+      <c r="O16" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="P16" s="11" t="s">
+      <c r="P16" s="10" t="s">
         <v>294</v>
       </c>
-      <c r="Q16" s="11" t="s">
+      <c r="Q16" s="10" t="s">
         <v>21</v>
       </c>
       <c r="S16" t="s">
@@ -6221,7 +6211,7 @@
         <v>216</v>
       </c>
       <c r="Z16" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="AA16">
         <v>2</v>
@@ -6233,10 +6223,10 @@
         <v>3</v>
       </c>
       <c r="AE16" t="s">
-        <v>407</v>
-      </c>
-      <c r="AF16" s="12" t="s">
-        <v>414</v>
+        <v>406</v>
+      </c>
+      <c r="AF16" s="10" t="s">
+        <v>413</v>
       </c>
       <c r="AG16" t="s">
         <v>113</v>
@@ -6244,7 +6234,7 @@
       <c r="AH16" t="s">
         <v>120</v>
       </c>
-      <c r="AI16" s="13" t="s">
+      <c r="AI16" t="s">
         <v>133</v>
       </c>
       <c r="AK16" t="s">
@@ -6254,7 +6244,7 @@
         <v>233</v>
       </c>
       <c r="AO16" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AQ16" t="s">
         <v>164</v>
@@ -6265,11 +6255,11 @@
       <c r="AS16" t="s">
         <v>176</v>
       </c>
-      <c r="AT16" s="14" t="s">
+      <c r="AT16" t="s">
+        <v>408</v>
+      </c>
+      <c r="AU16" t="s">
         <v>409</v>
-      </c>
-      <c r="AU16" s="14" t="s">
-        <v>410</v>
       </c>
       <c r="AV16" t="s">
         <v>203</v>
@@ -6278,56 +6268,56 @@
         <v>209</v>
       </c>
     </row>
-    <row r="17" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A17" s="12" t="s">
+    <row r="17" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A17" s="10" t="s">
         <v>285</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="D17" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="E17" s="12">
+      <c r="E17" s="10">
         <v>2014</v>
       </c>
-      <c r="F17" s="12" t="s">
+      <c r="F17" s="10" t="s">
         <v>288</v>
       </c>
-      <c r="G17" s="12" t="s">
+      <c r="G17" s="10" t="s">
         <v>289</v>
       </c>
-      <c r="H17" s="12" t="s">
+      <c r="H17" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="I17" s="12" t="s">
+      <c r="I17" s="10" t="s">
         <v>290</v>
       </c>
-      <c r="J17" s="12" t="s">
+      <c r="J17" s="10" t="s">
         <v>291</v>
       </c>
-      <c r="K17" s="12" t="s">
+      <c r="K17" s="10" t="s">
         <v>292</v>
       </c>
-      <c r="L17" s="12" t="s">
+      <c r="L17" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="M17" s="12" t="s">
+      <c r="M17" s="10" t="s">
         <v>293</v>
       </c>
-      <c r="N17" s="12" t="s">
+      <c r="N17" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="O17" s="12" t="s">
+      <c r="O17" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="P17" s="12" t="s">
+      <c r="P17" s="10" t="s">
         <v>294</v>
       </c>
-      <c r="Q17" s="12" t="s">
+      <c r="Q17" s="10" t="s">
         <v>21</v>
       </c>
       <c r="S17" t="s">
@@ -6349,7 +6339,7 @@
         <v>216</v>
       </c>
       <c r="Z17" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="AA17">
         <v>2</v>
@@ -6361,10 +6351,10 @@
         <v>3</v>
       </c>
       <c r="AE17" t="s">
-        <v>407</v>
-      </c>
-      <c r="AF17" s="12" t="s">
-        <v>414</v>
+        <v>406</v>
+      </c>
+      <c r="AF17" s="10" t="s">
+        <v>413</v>
       </c>
       <c r="AG17" t="s">
         <v>113</v>
@@ -6372,7 +6362,7 @@
       <c r="AH17" t="s">
         <v>120</v>
       </c>
-      <c r="AI17" s="13" t="s">
+      <c r="AI17" t="s">
         <v>140</v>
       </c>
       <c r="AK17" t="s">
@@ -6382,7 +6372,7 @@
         <v>233</v>
       </c>
       <c r="AO17" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AQ17" t="s">
         <v>164</v>
@@ -6393,11 +6383,11 @@
       <c r="AS17" t="s">
         <v>176</v>
       </c>
-      <c r="AT17" s="14" t="s">
+      <c r="AT17" t="s">
+        <v>408</v>
+      </c>
+      <c r="AU17" t="s">
         <v>409</v>
-      </c>
-      <c r="AU17" s="14" t="s">
-        <v>410</v>
       </c>
       <c r="AV17" t="s">
         <v>203</v>
@@ -6406,56 +6396,56 @@
         <v>209</v>
       </c>
     </row>
-    <row r="18" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A18" s="12" t="s">
+    <row r="18" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A18" s="10" t="s">
         <v>285</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="D18" s="12" t="s">
+      <c r="D18" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="E18" s="12">
+      <c r="E18" s="10">
         <v>2014</v>
       </c>
-      <c r="F18" s="12" t="s">
+      <c r="F18" s="10" t="s">
         <v>288</v>
       </c>
-      <c r="G18" s="12" t="s">
+      <c r="G18" s="10" t="s">
         <v>289</v>
       </c>
-      <c r="H18" s="12" t="s">
+      <c r="H18" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="I18" s="12" t="s">
+      <c r="I18" s="10" t="s">
         <v>290</v>
       </c>
-      <c r="J18" s="12" t="s">
+      <c r="J18" s="10" t="s">
         <v>291</v>
       </c>
-      <c r="K18" s="12" t="s">
+      <c r="K18" s="10" t="s">
         <v>292</v>
       </c>
-      <c r="L18" s="12" t="s">
+      <c r="L18" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="M18" s="12" t="s">
+      <c r="M18" s="10" t="s">
         <v>293</v>
       </c>
-      <c r="N18" s="12" t="s">
+      <c r="N18" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="O18" s="12" t="s">
+      <c r="O18" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="P18" s="12" t="s">
+      <c r="P18" s="10" t="s">
         <v>294</v>
       </c>
-      <c r="Q18" s="12" t="s">
+      <c r="Q18" s="10" t="s">
         <v>21</v>
       </c>
       <c r="S18" t="s">
@@ -6477,7 +6467,7 @@
         <v>216</v>
       </c>
       <c r="Z18" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="AA18">
         <v>2</v>
@@ -6489,10 +6479,10 @@
         <v>3</v>
       </c>
       <c r="AE18" t="s">
-        <v>407</v>
-      </c>
-      <c r="AF18" s="12" t="s">
-        <v>414</v>
+        <v>406</v>
+      </c>
+      <c r="AF18" s="10" t="s">
+        <v>413</v>
       </c>
       <c r="AG18" t="s">
         <v>113</v>
@@ -6500,20 +6490,20 @@
       <c r="AH18" t="s">
         <v>120</v>
       </c>
-      <c r="AI18" s="13" t="s">
+      <c r="AI18" t="s">
         <v>133</v>
       </c>
       <c r="AK18" t="s">
         <v>141</v>
       </c>
       <c r="AL18" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AM18" t="s">
         <v>159</v>
       </c>
       <c r="AO18" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AQ18" t="s">
         <v>164</v>
@@ -6524,11 +6514,11 @@
       <c r="AS18" t="s">
         <v>176</v>
       </c>
-      <c r="AT18" s="14" t="s">
-        <v>409</v>
-      </c>
-      <c r="AU18" s="14" t="s">
-        <v>411</v>
+      <c r="AT18" t="s">
+        <v>408</v>
+      </c>
+      <c r="AU18" t="s">
+        <v>410</v>
       </c>
       <c r="AV18" t="s">
         <v>203</v>
@@ -6537,56 +6527,56 @@
         <v>208</v>
       </c>
     </row>
-    <row r="19" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A19" s="12" t="s">
+    <row r="19" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A19" s="10" t="s">
         <v>285</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C19" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="D19" s="12" t="s">
+      <c r="D19" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="E19" s="12">
+      <c r="E19" s="10">
         <v>2014</v>
       </c>
-      <c r="F19" s="12" t="s">
+      <c r="F19" s="10" t="s">
         <v>288</v>
       </c>
-      <c r="G19" s="12" t="s">
+      <c r="G19" s="10" t="s">
         <v>289</v>
       </c>
-      <c r="H19" s="12" t="s">
+      <c r="H19" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="I19" s="12" t="s">
+      <c r="I19" s="10" t="s">
         <v>290</v>
       </c>
-      <c r="J19" s="12" t="s">
+      <c r="J19" s="10" t="s">
         <v>291</v>
       </c>
-      <c r="K19" s="12" t="s">
+      <c r="K19" s="10" t="s">
         <v>292</v>
       </c>
-      <c r="L19" s="12" t="s">
+      <c r="L19" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="M19" s="12" t="s">
+      <c r="M19" s="10" t="s">
         <v>293</v>
       </c>
-      <c r="N19" s="12" t="s">
+      <c r="N19" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="O19" s="12" t="s">
+      <c r="O19" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="P19" s="12" t="s">
+      <c r="P19" s="10" t="s">
         <v>294</v>
       </c>
-      <c r="Q19" s="12" t="s">
+      <c r="Q19" s="10" t="s">
         <v>21</v>
       </c>
       <c r="S19" t="s">
@@ -6608,7 +6598,7 @@
         <v>216</v>
       </c>
       <c r="Z19" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="AA19">
         <v>2</v>
@@ -6620,10 +6610,10 @@
         <v>3</v>
       </c>
       <c r="AE19" t="s">
-        <v>407</v>
-      </c>
-      <c r="AF19" s="12" t="s">
-        <v>414</v>
+        <v>406</v>
+      </c>
+      <c r="AF19" s="10" t="s">
+        <v>413</v>
       </c>
       <c r="AG19" t="s">
         <v>113</v>
@@ -6631,20 +6621,20 @@
       <c r="AH19" t="s">
         <v>120</v>
       </c>
-      <c r="AI19" s="13" t="s">
+      <c r="AI19" t="s">
         <v>140</v>
       </c>
       <c r="AK19" t="s">
         <v>141</v>
       </c>
       <c r="AL19" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AM19" t="s">
         <v>159</v>
       </c>
       <c r="AO19" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AQ19" t="s">
         <v>164</v>
@@ -6655,11 +6645,11 @@
       <c r="AS19" t="s">
         <v>176</v>
       </c>
-      <c r="AT19" s="14" t="s">
-        <v>409</v>
-      </c>
-      <c r="AU19" s="14" t="s">
-        <v>411</v>
+      <c r="AT19" t="s">
+        <v>408</v>
+      </c>
+      <c r="AU19" t="s">
+        <v>410</v>
       </c>
       <c r="AV19" t="s">
         <v>203</v>
@@ -6668,56 +6658,56 @@
         <v>207</v>
       </c>
     </row>
-    <row r="20" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A20" s="11" t="s">
+    <row r="20" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A20" s="10" t="s">
         <v>295</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="10" t="s">
         <v>296</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="10" t="s">
         <v>297</v>
       </c>
-      <c r="E20" s="11">
+      <c r="E20" s="10">
         <v>2013</v>
       </c>
-      <c r="F20" s="11" t="s">
+      <c r="F20" s="10" t="s">
         <v>298</v>
       </c>
-      <c r="G20" s="11" t="s">
+      <c r="G20" s="10" t="s">
         <v>299</v>
       </c>
-      <c r="H20" s="11" t="s">
+      <c r="H20" s="10" t="s">
         <v>300</v>
       </c>
-      <c r="I20" s="11" t="s">
+      <c r="I20" s="10" t="s">
         <v>301</v>
       </c>
-      <c r="J20" s="11" t="s">
+      <c r="J20" s="10" t="s">
         <v>302</v>
       </c>
-      <c r="K20" s="11" t="s">
+      <c r="K20" s="10" t="s">
         <v>303</v>
       </c>
-      <c r="L20" s="11" t="s">
+      <c r="L20" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="M20" s="11" t="s">
+      <c r="M20" s="10" t="s">
         <v>304</v>
       </c>
-      <c r="N20" s="11" t="s">
+      <c r="N20" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="O20" s="11" t="s">
+      <c r="O20" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="P20" s="11" t="s">
+      <c r="P20" s="10" t="s">
         <v>305</v>
       </c>
-      <c r="Q20" s="11" t="s">
+      <c r="Q20" s="10" t="s">
         <v>21</v>
       </c>
       <c r="S20" t="s">
@@ -6756,7 +6746,7 @@
       <c r="AE20" t="s">
         <v>379</v>
       </c>
-      <c r="AF20" s="12" t="s">
+      <c r="AF20" s="10" t="s">
         <v>253</v>
       </c>
       <c r="AG20" t="s">
@@ -6790,65 +6780,65 @@
         <v>377</v>
       </c>
       <c r="AV20" t="s">
-        <v>113</v>
+        <v>203</v>
       </c>
       <c r="AW20" t="s">
         <v>207</v>
       </c>
       <c r="AX20" t="s">
-        <v>383</v>
+        <v>465</v>
       </c>
     </row>
-    <row r="21" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A21" s="11" t="s">
+    <row r="21" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A21" s="10" t="s">
         <v>306</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="10" t="s">
         <v>307</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="D21" s="10" t="s">
         <v>308</v>
       </c>
-      <c r="E21" s="11">
+      <c r="E21" s="10">
         <v>2011</v>
       </c>
-      <c r="F21" s="11" t="s">
+      <c r="F21" s="10" t="s">
         <v>257</v>
       </c>
-      <c r="G21" s="11" t="s">
+      <c r="G21" s="10" t="s">
         <v>309</v>
       </c>
-      <c r="H21" s="11" t="s">
+      <c r="H21" s="10" t="s">
         <v>300</v>
       </c>
-      <c r="I21" s="11" t="s">
+      <c r="I21" s="10" t="s">
         <v>310</v>
       </c>
-      <c r="J21" s="11" t="s">
+      <c r="J21" s="10" t="s">
         <v>311</v>
       </c>
-      <c r="K21" s="11" t="s">
+      <c r="K21" s="10" t="s">
         <v>312</v>
       </c>
-      <c r="L21" s="11" t="s">
+      <c r="L21" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="M21" s="11" t="s">
+      <c r="M21" s="10" t="s">
         <v>313</v>
       </c>
-      <c r="N21" s="11" t="s">
+      <c r="N21" s="10" t="s">
         <v>314</v>
       </c>
-      <c r="O21" s="11" t="s">
+      <c r="O21" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="P21" s="11" t="s">
+      <c r="P21" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="Q21" s="11" t="s">
+      <c r="Q21" s="10" t="s">
         <v>21</v>
       </c>
       <c r="S21" t="s">
@@ -6870,7 +6860,7 @@
         <v>215</v>
       </c>
       <c r="Z21" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AA21">
         <v>2</v>
@@ -6882,9 +6872,9 @@
         <v>1</v>
       </c>
       <c r="AD21" t="s">
-        <v>415</v>
-      </c>
-      <c r="AF21" s="12">
+        <v>414</v>
+      </c>
+      <c r="AF21" s="10">
         <v>4.2</v>
       </c>
       <c r="AG21" t="s">
@@ -6897,7 +6887,7 @@
         <v>145</v>
       </c>
       <c r="AL21" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="AM21" t="s">
         <v>232</v>
@@ -6906,7 +6896,7 @@
         <v>162</v>
       </c>
       <c r="AO21" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AQ21" t="s">
         <v>164</v>
@@ -6918,10 +6908,10 @@
         <v>175</v>
       </c>
       <c r="AT21" t="s">
+        <v>416</v>
+      </c>
+      <c r="AU21" t="s">
         <v>417</v>
-      </c>
-      <c r="AU21" t="s">
-        <v>418</v>
       </c>
       <c r="AV21" t="s">
         <v>199</v>
@@ -6930,56 +6920,56 @@
         <v>208</v>
       </c>
     </row>
-    <row r="22" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A22" s="11" t="s">
+    <row r="22" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A22" s="10" t="s">
         <v>315</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="10" t="s">
         <v>316</v>
       </c>
-      <c r="D22" s="11" t="s">
+      <c r="D22" s="10" t="s">
         <v>317</v>
       </c>
-      <c r="E22" s="11">
+      <c r="E22" s="10">
         <v>2011</v>
       </c>
-      <c r="F22" s="11" t="s">
+      <c r="F22" s="10" t="s">
         <v>318</v>
       </c>
-      <c r="G22" s="11" t="s">
+      <c r="G22" s="10" t="s">
         <v>319</v>
       </c>
-      <c r="H22" s="11" t="s">
+      <c r="H22" s="10" t="s">
         <v>320</v>
       </c>
-      <c r="I22" s="11" t="s">
+      <c r="I22" s="10" t="s">
         <v>321</v>
       </c>
-      <c r="J22" s="11" t="s">
+      <c r="J22" s="10" t="s">
         <v>322</v>
       </c>
-      <c r="K22" s="11" t="s">
+      <c r="K22" s="10" t="s">
         <v>323</v>
       </c>
-      <c r="L22" s="11" t="s">
+      <c r="L22" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="M22" s="11" t="s">
+      <c r="M22" s="10" t="s">
         <v>324</v>
       </c>
-      <c r="N22" s="11" t="s">
+      <c r="N22" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="O22" s="11" t="s">
+      <c r="O22" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="P22" s="11" t="s">
+      <c r="P22" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="Q22" s="11" t="s">
+      <c r="Q22" s="10" t="s">
         <v>21</v>
       </c>
       <c r="S22" t="s">
@@ -7001,7 +6991,7 @@
         <v>215</v>
       </c>
       <c r="Z22" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AA22">
         <v>2</v>
@@ -7013,9 +7003,9 @@
         <v>2</v>
       </c>
       <c r="AD22" t="s">
-        <v>421</v>
-      </c>
-      <c r="AF22" s="12" t="s">
+        <v>420</v>
+      </c>
+      <c r="AF22" s="10" t="s">
         <v>253</v>
       </c>
       <c r="AG22" t="s">
@@ -7025,7 +7015,7 @@
         <v>118</v>
       </c>
       <c r="AL22" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AM22" t="s">
         <v>232</v>
@@ -7034,7 +7024,7 @@
         <v>160</v>
       </c>
       <c r="AO22" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="AQ22" t="s">
         <v>164</v>
@@ -7046,7 +7036,7 @@
         <v>175</v>
       </c>
       <c r="AU22" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AV22" t="s">
         <v>199</v>
@@ -7055,56 +7045,56 @@
         <v>208</v>
       </c>
     </row>
-    <row r="23" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A23" s="12" t="s">
+    <row r="23" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A23" s="10" t="s">
         <v>315</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="C23" s="10" t="s">
         <v>316</v>
       </c>
-      <c r="D23" s="12" t="s">
+      <c r="D23" s="10" t="s">
         <v>317</v>
       </c>
-      <c r="E23" s="12">
+      <c r="E23" s="10">
         <v>2011</v>
       </c>
-      <c r="F23" s="12" t="s">
+      <c r="F23" s="10" t="s">
         <v>318</v>
       </c>
-      <c r="G23" s="12" t="s">
+      <c r="G23" s="10" t="s">
         <v>319</v>
       </c>
-      <c r="H23" s="12" t="s">
+      <c r="H23" s="10" t="s">
         <v>320</v>
       </c>
-      <c r="I23" s="12" t="s">
+      <c r="I23" s="10" t="s">
         <v>321</v>
       </c>
-      <c r="J23" s="12" t="s">
+      <c r="J23" s="10" t="s">
         <v>322</v>
       </c>
-      <c r="K23" s="12" t="s">
+      <c r="K23" s="10" t="s">
         <v>323</v>
       </c>
-      <c r="L23" s="12" t="s">
+      <c r="L23" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="M23" s="12" t="s">
+      <c r="M23" s="10" t="s">
         <v>324</v>
       </c>
-      <c r="N23" s="12" t="s">
+      <c r="N23" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="O23" s="12" t="s">
+      <c r="O23" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="P23" s="12" t="s">
+      <c r="P23" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="Q23" s="12" t="s">
+      <c r="Q23" s="10" t="s">
         <v>21</v>
       </c>
       <c r="S23" t="s">
@@ -7126,7 +7116,7 @@
         <v>215</v>
       </c>
       <c r="Z23" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AA23">
         <v>2</v>
@@ -7138,9 +7128,9 @@
         <v>2</v>
       </c>
       <c r="AD23" t="s">
-        <v>421</v>
-      </c>
-      <c r="AF23" s="12" t="s">
+        <v>420</v>
+      </c>
+      <c r="AF23" s="10" t="s">
         <v>253</v>
       </c>
       <c r="AG23" t="s">
@@ -7159,7 +7149,7 @@
         <v>141</v>
       </c>
       <c r="AL23" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AM23" t="s">
         <v>232</v>
@@ -7168,7 +7158,7 @@
         <v>161</v>
       </c>
       <c r="AO23" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="AQ23" t="s">
         <v>164</v>
@@ -7180,7 +7170,7 @@
         <v>175</v>
       </c>
       <c r="AU23" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AV23" t="s">
         <v>199</v>
@@ -7189,56 +7179,56 @@
         <v>208</v>
       </c>
     </row>
-    <row r="24" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A24" s="12" t="s">
+    <row r="24" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A24" s="10" t="s">
         <v>315</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="C24" s="12" t="s">
+      <c r="C24" s="10" t="s">
         <v>316</v>
       </c>
-      <c r="D24" s="12" t="s">
+      <c r="D24" s="10" t="s">
         <v>317</v>
       </c>
-      <c r="E24" s="12">
+      <c r="E24" s="10">
         <v>2011</v>
       </c>
-      <c r="F24" s="12" t="s">
+      <c r="F24" s="10" t="s">
         <v>318</v>
       </c>
-      <c r="G24" s="12" t="s">
+      <c r="G24" s="10" t="s">
         <v>319</v>
       </c>
-      <c r="H24" s="12" t="s">
+      <c r="H24" s="10" t="s">
         <v>320</v>
       </c>
-      <c r="I24" s="12" t="s">
+      <c r="I24" s="10" t="s">
         <v>321</v>
       </c>
-      <c r="J24" s="12" t="s">
+      <c r="J24" s="10" t="s">
         <v>322</v>
       </c>
-      <c r="K24" s="12" t="s">
+      <c r="K24" s="10" t="s">
         <v>323</v>
       </c>
-      <c r="L24" s="12" t="s">
+      <c r="L24" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="M24" s="12" t="s">
+      <c r="M24" s="10" t="s">
         <v>324</v>
       </c>
-      <c r="N24" s="12" t="s">
+      <c r="N24" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="O24" s="12" t="s">
+      <c r="O24" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="P24" s="12" t="s">
+      <c r="P24" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="Q24" s="12" t="s">
+      <c r="Q24" s="10" t="s">
         <v>21</v>
       </c>
       <c r="S24" t="s">
@@ -7260,7 +7250,7 @@
         <v>215</v>
       </c>
       <c r="Z24" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AA24">
         <v>2</v>
@@ -7272,9 +7262,9 @@
         <v>2</v>
       </c>
       <c r="AD24" t="s">
-        <v>421</v>
-      </c>
-      <c r="AF24" s="12" t="s">
+        <v>420</v>
+      </c>
+      <c r="AF24" s="10" t="s">
         <v>253</v>
       </c>
       <c r="AG24" t="s">
@@ -7287,7 +7277,7 @@
         <v>144</v>
       </c>
       <c r="AL24" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AM24" t="s">
         <v>232</v>
@@ -7296,7 +7286,7 @@
         <v>160</v>
       </c>
       <c r="AO24" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="AQ24" t="s">
         <v>164</v>
@@ -7308,7 +7298,7 @@
         <v>175</v>
       </c>
       <c r="AU24" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AV24" t="s">
         <v>199</v>
@@ -7317,56 +7307,56 @@
         <v>207</v>
       </c>
     </row>
-    <row r="25" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A25" s="12" t="s">
+    <row r="25" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A25" s="10" t="s">
         <v>315</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="C25" s="12" t="s">
+      <c r="C25" s="10" t="s">
         <v>316</v>
       </c>
-      <c r="D25" s="12" t="s">
+      <c r="D25" s="10" t="s">
         <v>317</v>
       </c>
-      <c r="E25" s="12">
+      <c r="E25" s="10">
         <v>2011</v>
       </c>
-      <c r="F25" s="12" t="s">
+      <c r="F25" s="10" t="s">
         <v>318</v>
       </c>
-      <c r="G25" s="12" t="s">
+      <c r="G25" s="10" t="s">
         <v>319</v>
       </c>
-      <c r="H25" s="12" t="s">
+      <c r="H25" s="10" t="s">
         <v>320</v>
       </c>
-      <c r="I25" s="12" t="s">
+      <c r="I25" s="10" t="s">
         <v>321</v>
       </c>
-      <c r="J25" s="12" t="s">
+      <c r="J25" s="10" t="s">
         <v>322</v>
       </c>
-      <c r="K25" s="12" t="s">
+      <c r="K25" s="10" t="s">
         <v>323</v>
       </c>
-      <c r="L25" s="12" t="s">
+      <c r="L25" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="M25" s="12" t="s">
+      <c r="M25" s="10" t="s">
         <v>324</v>
       </c>
-      <c r="N25" s="12" t="s">
+      <c r="N25" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="O25" s="12" t="s">
+      <c r="O25" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="P25" s="12" t="s">
+      <c r="P25" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="Q25" s="12" t="s">
+      <c r="Q25" s="10" t="s">
         <v>21</v>
       </c>
       <c r="S25" t="s">
@@ -7388,7 +7378,7 @@
         <v>215</v>
       </c>
       <c r="Z25" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AA25">
         <v>2</v>
@@ -7400,9 +7390,9 @@
         <v>2</v>
       </c>
       <c r="AD25" t="s">
-        <v>421</v>
-      </c>
-      <c r="AF25" s="12" t="s">
+        <v>420</v>
+      </c>
+      <c r="AF25" s="10" t="s">
         <v>253</v>
       </c>
       <c r="AG25" t="s">
@@ -7415,13 +7405,13 @@
         <v>144</v>
       </c>
       <c r="AL25" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="AM25" t="s">
         <v>232</v>
       </c>
       <c r="AO25" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="AQ25" t="s">
         <v>164</v>
@@ -7433,7 +7423,7 @@
         <v>175</v>
       </c>
       <c r="AU25" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AV25" t="s">
         <v>199</v>
@@ -7442,56 +7432,56 @@
         <v>208</v>
       </c>
     </row>
-    <row r="26" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A26" s="12" t="s">
+    <row r="26" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A26" s="10" t="s">
         <v>315</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="C26" s="12" t="s">
+      <c r="C26" s="10" t="s">
         <v>316</v>
       </c>
-      <c r="D26" s="12" t="s">
+      <c r="D26" s="10" t="s">
         <v>317</v>
       </c>
-      <c r="E26" s="12">
+      <c r="E26" s="10">
         <v>2011</v>
       </c>
-      <c r="F26" s="12" t="s">
+      <c r="F26" s="10" t="s">
         <v>318</v>
       </c>
-      <c r="G26" s="12" t="s">
+      <c r="G26" s="10" t="s">
         <v>319</v>
       </c>
-      <c r="H26" s="12" t="s">
+      <c r="H26" s="10" t="s">
         <v>320</v>
       </c>
-      <c r="I26" s="12" t="s">
+      <c r="I26" s="10" t="s">
         <v>321</v>
       </c>
-      <c r="J26" s="12" t="s">
+      <c r="J26" s="10" t="s">
         <v>322</v>
       </c>
-      <c r="K26" s="12" t="s">
+      <c r="K26" s="10" t="s">
         <v>323</v>
       </c>
-      <c r="L26" s="12" t="s">
+      <c r="L26" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="M26" s="12" t="s">
+      <c r="M26" s="10" t="s">
         <v>324</v>
       </c>
-      <c r="N26" s="12" t="s">
+      <c r="N26" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="O26" s="12" t="s">
+      <c r="O26" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="P26" s="12" t="s">
+      <c r="P26" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="Q26" s="12" t="s">
+      <c r="Q26" s="10" t="s">
         <v>21</v>
       </c>
       <c r="S26" t="s">
@@ -7513,7 +7503,7 @@
         <v>215</v>
       </c>
       <c r="Z26" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AA26">
         <v>2</v>
@@ -7525,18 +7515,18 @@
         <v>2</v>
       </c>
       <c r="AD26" t="s">
-        <v>421</v>
-      </c>
-      <c r="AF26" s="12" t="s">
+        <v>420</v>
+      </c>
+      <c r="AF26" s="10" t="s">
         <v>253</v>
       </c>
       <c r="AG26" t="s">
         <v>110</v>
       </c>
-      <c r="AH26" s="13" t="s">
+      <c r="AH26" t="s">
         <v>117</v>
       </c>
-      <c r="AI26" s="13" t="s">
+      <c r="AI26" t="s">
         <v>144</v>
       </c>
       <c r="AM26" t="s">
@@ -7546,7 +7536,7 @@
         <v>161</v>
       </c>
       <c r="AO26" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="AQ26" t="s">
         <v>164</v>
@@ -7558,7 +7548,7 @@
         <v>175</v>
       </c>
       <c r="AU26" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AV26" t="s">
         <v>205</v>
@@ -7567,56 +7557,56 @@
         <v>208</v>
       </c>
     </row>
-    <row r="27" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A27" s="12" t="s">
+    <row r="27" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A27" s="10" t="s">
         <v>315</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="C27" s="12" t="s">
+      <c r="C27" s="10" t="s">
         <v>316</v>
       </c>
-      <c r="D27" s="12" t="s">
+      <c r="D27" s="10" t="s">
         <v>317</v>
       </c>
-      <c r="E27" s="12">
+      <c r="E27" s="10">
         <v>2011</v>
       </c>
-      <c r="F27" s="12" t="s">
+      <c r="F27" s="10" t="s">
         <v>318</v>
       </c>
-      <c r="G27" s="12" t="s">
+      <c r="G27" s="10" t="s">
         <v>319</v>
       </c>
-      <c r="H27" s="12" t="s">
+      <c r="H27" s="10" t="s">
         <v>320</v>
       </c>
-      <c r="I27" s="12" t="s">
+      <c r="I27" s="10" t="s">
         <v>321</v>
       </c>
-      <c r="J27" s="12" t="s">
+      <c r="J27" s="10" t="s">
         <v>322</v>
       </c>
-      <c r="K27" s="12" t="s">
+      <c r="K27" s="10" t="s">
         <v>323</v>
       </c>
-      <c r="L27" s="12" t="s">
+      <c r="L27" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="M27" s="12" t="s">
+      <c r="M27" s="10" t="s">
         <v>324</v>
       </c>
-      <c r="N27" s="12" t="s">
+      <c r="N27" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="O27" s="12" t="s">
+      <c r="O27" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="P27" s="12" t="s">
+      <c r="P27" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="Q27" s="12" t="s">
+      <c r="Q27" s="10" t="s">
         <v>21</v>
       </c>
       <c r="S27" t="s">
@@ -7638,7 +7628,7 @@
         <v>215</v>
       </c>
       <c r="Z27" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AA27">
         <v>2</v>
@@ -7650,18 +7640,18 @@
         <v>2</v>
       </c>
       <c r="AD27" t="s">
-        <v>421</v>
-      </c>
-      <c r="AF27" s="12" t="s">
+        <v>420</v>
+      </c>
+      <c r="AF27" s="10" t="s">
         <v>253</v>
       </c>
       <c r="AG27" t="s">
         <v>110</v>
       </c>
-      <c r="AH27" s="13" t="s">
+      <c r="AH27" t="s">
         <v>117</v>
       </c>
-      <c r="AI27" s="13" t="s">
+      <c r="AI27" t="s">
         <v>144</v>
       </c>
       <c r="AM27" t="s">
@@ -7671,7 +7661,7 @@
         <v>161</v>
       </c>
       <c r="AO27" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="AQ27" t="s">
         <v>164</v>
@@ -7683,7 +7673,7 @@
         <v>175</v>
       </c>
       <c r="AU27" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AV27" t="s">
         <v>200</v>
@@ -7692,56 +7682,56 @@
         <v>208</v>
       </c>
     </row>
-    <row r="28" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A28" s="12" t="s">
+    <row r="28" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A28" s="10" t="s">
         <v>315</v>
       </c>
-      <c r="B28" s="12" t="s">
+      <c r="B28" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="C28" s="12" t="s">
+      <c r="C28" s="10" t="s">
         <v>316</v>
       </c>
-      <c r="D28" s="12" t="s">
+      <c r="D28" s="10" t="s">
         <v>317</v>
       </c>
-      <c r="E28" s="12">
+      <c r="E28" s="10">
         <v>2011</v>
       </c>
-      <c r="F28" s="12" t="s">
+      <c r="F28" s="10" t="s">
         <v>318</v>
       </c>
-      <c r="G28" s="12" t="s">
+      <c r="G28" s="10" t="s">
         <v>319</v>
       </c>
-      <c r="H28" s="12" t="s">
+      <c r="H28" s="10" t="s">
         <v>320</v>
       </c>
-      <c r="I28" s="12" t="s">
+      <c r="I28" s="10" t="s">
         <v>321</v>
       </c>
-      <c r="J28" s="12" t="s">
+      <c r="J28" s="10" t="s">
         <v>322</v>
       </c>
-      <c r="K28" s="12" t="s">
+      <c r="K28" s="10" t="s">
         <v>323</v>
       </c>
-      <c r="L28" s="12" t="s">
+      <c r="L28" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="M28" s="12" t="s">
+      <c r="M28" s="10" t="s">
         <v>324</v>
       </c>
-      <c r="N28" s="12" t="s">
+      <c r="N28" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="O28" s="12" t="s">
+      <c r="O28" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="P28" s="12" t="s">
+      <c r="P28" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="Q28" s="12" t="s">
+      <c r="Q28" s="10" t="s">
         <v>21</v>
       </c>
       <c r="S28" t="s">
@@ -7763,7 +7753,7 @@
         <v>215</v>
       </c>
       <c r="Z28" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AA28">
         <v>2</v>
@@ -7775,22 +7765,22 @@
         <v>2</v>
       </c>
       <c r="AD28" t="s">
-        <v>421</v>
-      </c>
-      <c r="AF28" s="12" t="s">
+        <v>420</v>
+      </c>
+      <c r="AF28" s="10" t="s">
         <v>253</v>
       </c>
       <c r="AG28" t="s">
         <v>110</v>
       </c>
-      <c r="AH28" s="13" t="s">
+      <c r="AH28" t="s">
         <v>220</v>
       </c>
-      <c r="AI28" s="13" t="s">
+      <c r="AI28" t="s">
         <v>131</v>
       </c>
       <c r="AL28" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AM28" t="s">
         <v>232</v>
@@ -7799,7 +7789,7 @@
         <v>161</v>
       </c>
       <c r="AO28" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="AQ28" t="s">
         <v>164</v>
@@ -7811,7 +7801,7 @@
         <v>175</v>
       </c>
       <c r="AU28" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AV28" t="s">
         <v>199</v>
@@ -7820,56 +7810,56 @@
         <v>208</v>
       </c>
     </row>
-    <row r="29" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A29" s="12" t="s">
+    <row r="29" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A29" s="10" t="s">
         <v>315</v>
       </c>
-      <c r="B29" s="12" t="s">
+      <c r="B29" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="C29" s="12" t="s">
+      <c r="C29" s="10" t="s">
         <v>316</v>
       </c>
-      <c r="D29" s="12" t="s">
+      <c r="D29" s="10" t="s">
         <v>317</v>
       </c>
-      <c r="E29" s="12">
+      <c r="E29" s="10">
         <v>2011</v>
       </c>
-      <c r="F29" s="12" t="s">
+      <c r="F29" s="10" t="s">
         <v>318</v>
       </c>
-      <c r="G29" s="12" t="s">
+      <c r="G29" s="10" t="s">
         <v>319</v>
       </c>
-      <c r="H29" s="12" t="s">
+      <c r="H29" s="10" t="s">
         <v>320</v>
       </c>
-      <c r="I29" s="12" t="s">
+      <c r="I29" s="10" t="s">
         <v>321</v>
       </c>
-      <c r="J29" s="12" t="s">
+      <c r="J29" s="10" t="s">
         <v>322</v>
       </c>
-      <c r="K29" s="12" t="s">
+      <c r="K29" s="10" t="s">
         <v>323</v>
       </c>
-      <c r="L29" s="12" t="s">
+      <c r="L29" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="M29" s="12" t="s">
+      <c r="M29" s="10" t="s">
         <v>324</v>
       </c>
-      <c r="N29" s="12" t="s">
+      <c r="N29" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="O29" s="12" t="s">
+      <c r="O29" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="P29" s="12" t="s">
+      <c r="P29" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="Q29" s="12" t="s">
+      <c r="Q29" s="10" t="s">
         <v>21</v>
       </c>
       <c r="S29" t="s">
@@ -7891,7 +7881,7 @@
         <v>215</v>
       </c>
       <c r="Z29" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AA29">
         <v>2</v>
@@ -7903,18 +7893,18 @@
         <v>2</v>
       </c>
       <c r="AD29" t="s">
-        <v>421</v>
-      </c>
-      <c r="AF29" s="12" t="s">
+        <v>420</v>
+      </c>
+      <c r="AF29" s="10" t="s">
         <v>253</v>
       </c>
       <c r="AG29" t="s">
         <v>110</v>
       </c>
-      <c r="AH29" s="13" t="s">
+      <c r="AH29" t="s">
         <v>220</v>
       </c>
-      <c r="AI29" s="13" t="s">
+      <c r="AI29" t="s">
         <v>145</v>
       </c>
       <c r="AM29" t="s">
@@ -7924,7 +7914,7 @@
         <v>161</v>
       </c>
       <c r="AO29" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="AQ29" t="s">
         <v>164</v>
@@ -7936,7 +7926,7 @@
         <v>175</v>
       </c>
       <c r="AU29" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AV29" t="s">
         <v>199</v>
@@ -7945,56 +7935,56 @@
         <v>208</v>
       </c>
     </row>
-    <row r="30" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A30" s="11" t="s">
+    <row r="30" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A30" s="10" t="s">
         <v>325</v>
       </c>
-      <c r="B30" s="11" t="s">
+      <c r="B30" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="C30" s="11" t="s">
+      <c r="C30" s="10" t="s">
         <v>326</v>
       </c>
-      <c r="D30" s="11" t="s">
+      <c r="D30" s="10" t="s">
         <v>327</v>
       </c>
-      <c r="E30" s="11">
+      <c r="E30" s="10">
         <v>2010</v>
       </c>
-      <c r="F30" s="11" t="s">
+      <c r="F30" s="10" t="s">
         <v>328</v>
       </c>
-      <c r="G30" s="11" t="s">
+      <c r="G30" s="10" t="s">
         <v>329</v>
       </c>
-      <c r="H30" s="11" t="s">
+      <c r="H30" s="10" t="s">
         <v>330</v>
       </c>
-      <c r="I30" s="11" t="s">
+      <c r="I30" s="10" t="s">
         <v>331</v>
       </c>
-      <c r="J30" s="11" t="s">
+      <c r="J30" s="10" t="s">
         <v>332</v>
       </c>
-      <c r="K30" s="11" t="s">
+      <c r="K30" s="10" t="s">
         <v>333</v>
       </c>
-      <c r="L30" s="11" t="s">
+      <c r="L30" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="M30" s="11" t="s">
+      <c r="M30" s="10" t="s">
         <v>334</v>
       </c>
-      <c r="N30" s="11" t="s">
+      <c r="N30" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="O30" s="11" t="s">
+      <c r="O30" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="P30" s="11" t="s">
+      <c r="P30" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="Q30" s="11" t="s">
+      <c r="Q30" s="10" t="s">
         <v>21</v>
       </c>
       <c r="S30" t="s">
@@ -8016,7 +8006,7 @@
         <v>215</v>
       </c>
       <c r="Z30" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AA30">
         <v>2</v>
@@ -8027,7 +8017,7 @@
       <c r="AC30">
         <v>2</v>
       </c>
-      <c r="AF30" s="12" t="s">
+      <c r="AF30" s="10" t="s">
         <v>253</v>
       </c>
       <c r="AG30" t="s">
@@ -8037,7 +8027,7 @@
         <v>118</v>
       </c>
       <c r="AL30" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AM30" t="s">
         <v>232</v>
@@ -8046,7 +8036,7 @@
         <v>160</v>
       </c>
       <c r="AO30" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AQ30" t="s">
         <v>164</v>
@@ -8058,7 +8048,7 @@
         <v>175</v>
       </c>
       <c r="AU30" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AV30" t="s">
         <v>199</v>
@@ -8067,59 +8057,59 @@
         <v>208</v>
       </c>
       <c r="AX30" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
-    <row r="31" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A31" s="12" t="s">
+    <row r="31" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A31" s="10" t="s">
         <v>325</v>
       </c>
-      <c r="B31" s="12" t="s">
+      <c r="B31" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="C31" s="12" t="s">
+      <c r="C31" s="10" t="s">
         <v>326</v>
       </c>
-      <c r="D31" s="12" t="s">
+      <c r="D31" s="10" t="s">
         <v>327</v>
       </c>
-      <c r="E31" s="12">
+      <c r="E31" s="10">
         <v>2010</v>
       </c>
-      <c r="F31" s="12" t="s">
+      <c r="F31" s="10" t="s">
         <v>328</v>
       </c>
-      <c r="G31" s="12" t="s">
+      <c r="G31" s="10" t="s">
         <v>329</v>
       </c>
-      <c r="H31" s="12" t="s">
+      <c r="H31" s="10" t="s">
         <v>330</v>
       </c>
-      <c r="I31" s="12" t="s">
+      <c r="I31" s="10" t="s">
         <v>331</v>
       </c>
-      <c r="J31" s="12" t="s">
+      <c r="J31" s="10" t="s">
         <v>332</v>
       </c>
-      <c r="K31" s="12" t="s">
+      <c r="K31" s="10" t="s">
         <v>333</v>
       </c>
-      <c r="L31" s="12" t="s">
+      <c r="L31" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="M31" s="12" t="s">
+      <c r="M31" s="10" t="s">
         <v>334</v>
       </c>
-      <c r="N31" s="12" t="s">
+      <c r="N31" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="O31" s="12" t="s">
+      <c r="O31" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="P31" s="12" t="s">
+      <c r="P31" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="Q31" s="12" t="s">
+      <c r="Q31" s="10" t="s">
         <v>21</v>
       </c>
       <c r="S31" t="s">
@@ -8141,7 +8131,7 @@
         <v>215</v>
       </c>
       <c r="Z31" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AA31">
         <v>2</v>
@@ -8152,7 +8142,7 @@
       <c r="AC31">
         <v>2</v>
       </c>
-      <c r="AF31" s="12" t="s">
+      <c r="AF31" s="10" t="s">
         <v>253</v>
       </c>
       <c r="AG31" t="s">
@@ -8168,7 +8158,7 @@
         <v>113</v>
       </c>
       <c r="AL31" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AM31" t="s">
         <v>232</v>
@@ -8177,7 +8167,7 @@
         <v>160</v>
       </c>
       <c r="AO31" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AQ31" t="s">
         <v>164</v>
@@ -8189,7 +8179,7 @@
         <v>175</v>
       </c>
       <c r="AU31" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AV31" t="s">
         <v>199</v>
@@ -8198,59 +8188,59 @@
         <v>208</v>
       </c>
       <c r="AX31" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
-    <row r="32" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A32" s="12" t="s">
+    <row r="32" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A32" s="10" t="s">
         <v>325</v>
       </c>
-      <c r="B32" s="12" t="s">
+      <c r="B32" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="C32" s="12" t="s">
+      <c r="C32" s="10" t="s">
         <v>326</v>
       </c>
-      <c r="D32" s="12" t="s">
+      <c r="D32" s="10" t="s">
         <v>327</v>
       </c>
-      <c r="E32" s="12">
+      <c r="E32" s="10">
         <v>2010</v>
       </c>
-      <c r="F32" s="12" t="s">
+      <c r="F32" s="10" t="s">
         <v>328</v>
       </c>
-      <c r="G32" s="12" t="s">
+      <c r="G32" s="10" t="s">
         <v>329</v>
       </c>
-      <c r="H32" s="12" t="s">
+      <c r="H32" s="10" t="s">
         <v>330</v>
       </c>
-      <c r="I32" s="12" t="s">
+      <c r="I32" s="10" t="s">
         <v>331</v>
       </c>
-      <c r="J32" s="12" t="s">
+      <c r="J32" s="10" t="s">
         <v>332</v>
       </c>
-      <c r="K32" s="12" t="s">
+      <c r="K32" s="10" t="s">
         <v>333</v>
       </c>
-      <c r="L32" s="12" t="s">
+      <c r="L32" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="M32" s="12" t="s">
+      <c r="M32" s="10" t="s">
         <v>334</v>
       </c>
-      <c r="N32" s="12" t="s">
+      <c r="N32" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="O32" s="12" t="s">
+      <c r="O32" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="P32" s="12" t="s">
+      <c r="P32" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="Q32" s="12" t="s">
+      <c r="Q32" s="10" t="s">
         <v>21</v>
       </c>
       <c r="S32" t="s">
@@ -8272,7 +8262,7 @@
         <v>215</v>
       </c>
       <c r="Z32" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AA32">
         <v>2</v>
@@ -8283,7 +8273,7 @@
       <c r="AC32">
         <v>2</v>
       </c>
-      <c r="AF32" s="12" t="s">
+      <c r="AF32" s="10" t="s">
         <v>253</v>
       </c>
       <c r="AG32" t="s">
@@ -8296,7 +8286,7 @@
         <v>144</v>
       </c>
       <c r="AL32" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="AM32" t="s">
         <v>232</v>
@@ -8305,7 +8295,7 @@
         <v>160</v>
       </c>
       <c r="AO32" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AQ32" t="s">
         <v>164</v>
@@ -8317,7 +8307,7 @@
         <v>175</v>
       </c>
       <c r="AU32" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="AV32" t="s">
         <v>238</v>
@@ -8326,59 +8316,59 @@
         <v>207</v>
       </c>
       <c r="AX32" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
-    <row r="33" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A33" s="11" t="s">
+    <row r="33" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A33" s="10" t="s">
         <v>335</v>
       </c>
-      <c r="B33" s="11" t="s">
+      <c r="B33" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="C33" s="11" t="s">
+      <c r="C33" s="10" t="s">
         <v>336</v>
       </c>
-      <c r="D33" s="11" t="s">
+      <c r="D33" s="10" t="s">
         <v>337</v>
       </c>
-      <c r="E33" s="11">
+      <c r="E33" s="10">
         <v>2009</v>
       </c>
-      <c r="F33" s="11" t="s">
+      <c r="F33" s="10" t="s">
         <v>338</v>
       </c>
-      <c r="G33" s="11" t="s">
+      <c r="G33" s="10" t="s">
         <v>339</v>
       </c>
-      <c r="H33" s="11" t="s">
+      <c r="H33" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="I33" s="11" t="s">
+      <c r="I33" s="10" t="s">
         <v>340</v>
       </c>
-      <c r="J33" s="11" t="s">
+      <c r="J33" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="K33" s="11" t="s">
+      <c r="K33" s="10" t="s">
         <v>342</v>
       </c>
-      <c r="L33" s="11" t="s">
+      <c r="L33" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="M33" s="11" t="s">
+      <c r="M33" s="10" t="s">
         <v>343</v>
       </c>
-      <c r="N33" s="11" t="s">
+      <c r="N33" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="O33" s="11" t="s">
+      <c r="O33" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="P33" s="11" t="s">
+      <c r="P33" s="10" t="s">
         <v>294</v>
       </c>
-      <c r="Q33" s="11" t="s">
+      <c r="Q33" s="10" t="s">
         <v>21</v>
       </c>
       <c r="S33" t="s">
@@ -8400,7 +8390,7 @@
         <v>215</v>
       </c>
       <c r="Z33" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AA33">
         <v>3</v>
@@ -8411,7 +8401,7 @@
       <c r="AC33">
         <v>3</v>
       </c>
-      <c r="AF33" s="12" t="s">
+      <c r="AF33" s="10" t="s">
         <v>253</v>
       </c>
       <c r="AG33" t="s">
@@ -8430,7 +8420,7 @@
         <v>161</v>
       </c>
       <c r="AO33" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AQ33" t="s">
         <v>164</v>
@@ -8442,7 +8432,7 @@
         <v>189</v>
       </c>
       <c r="AU33" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="AV33" t="s">
         <v>199</v>
@@ -8451,56 +8441,56 @@
         <v>208</v>
       </c>
     </row>
-    <row r="34" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A34" s="12" t="s">
+    <row r="34" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A34" s="10" t="s">
         <v>335</v>
       </c>
-      <c r="B34" s="12" t="s">
+      <c r="B34" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="C34" s="12" t="s">
+      <c r="C34" s="10" t="s">
         <v>336</v>
       </c>
-      <c r="D34" s="12" t="s">
+      <c r="D34" s="10" t="s">
         <v>337</v>
       </c>
-      <c r="E34" s="12">
+      <c r="E34" s="10">
         <v>2009</v>
       </c>
-      <c r="F34" s="12" t="s">
+      <c r="F34" s="10" t="s">
         <v>338</v>
       </c>
-      <c r="G34" s="12" t="s">
+      <c r="G34" s="10" t="s">
         <v>339</v>
       </c>
-      <c r="H34" s="12" t="s">
+      <c r="H34" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="I34" s="12" t="s">
+      <c r="I34" s="10" t="s">
         <v>340</v>
       </c>
-      <c r="J34" s="12" t="s">
+      <c r="J34" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="K34" s="12" t="s">
+      <c r="K34" s="10" t="s">
         <v>342</v>
       </c>
-      <c r="L34" s="12" t="s">
+      <c r="L34" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="M34" s="12" t="s">
+      <c r="M34" s="10" t="s">
         <v>343</v>
       </c>
-      <c r="N34" s="12" t="s">
+      <c r="N34" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="O34" s="12" t="s">
+      <c r="O34" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="P34" s="12" t="s">
+      <c r="P34" s="10" t="s">
         <v>294</v>
       </c>
-      <c r="Q34" s="12" t="s">
+      <c r="Q34" s="10" t="s">
         <v>21</v>
       </c>
       <c r="S34" t="s">
@@ -8522,7 +8512,7 @@
         <v>215</v>
       </c>
       <c r="Z34" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AA34">
         <v>3</v>
@@ -8533,7 +8523,7 @@
       <c r="AC34">
         <v>3</v>
       </c>
-      <c r="AF34" s="12" t="s">
+      <c r="AF34" s="10" t="s">
         <v>253</v>
       </c>
       <c r="AG34" t="s">
@@ -8552,7 +8542,7 @@
         <v>161</v>
       </c>
       <c r="AO34" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AQ34" t="s">
         <v>164</v>
@@ -8564,7 +8554,7 @@
         <v>189</v>
       </c>
       <c r="AU34" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="AV34" t="s">
         <v>200</v>
@@ -8573,56 +8563,56 @@
         <v>208</v>
       </c>
     </row>
-    <row r="35" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A35" s="12" t="s">
+    <row r="35" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A35" s="10" t="s">
         <v>335</v>
       </c>
-      <c r="B35" s="12" t="s">
+      <c r="B35" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="C35" s="12" t="s">
+      <c r="C35" s="10" t="s">
         <v>336</v>
       </c>
-      <c r="D35" s="12" t="s">
+      <c r="D35" s="10" t="s">
         <v>337</v>
       </c>
-      <c r="E35" s="12">
+      <c r="E35" s="10">
         <v>2009</v>
       </c>
-      <c r="F35" s="12" t="s">
+      <c r="F35" s="10" t="s">
         <v>338</v>
       </c>
-      <c r="G35" s="12" t="s">
+      <c r="G35" s="10" t="s">
         <v>339</v>
       </c>
-      <c r="H35" s="12" t="s">
+      <c r="H35" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="I35" s="12" t="s">
+      <c r="I35" s="10" t="s">
         <v>340</v>
       </c>
-      <c r="J35" s="12" t="s">
+      <c r="J35" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="K35" s="12" t="s">
+      <c r="K35" s="10" t="s">
         <v>342</v>
       </c>
-      <c r="L35" s="12" t="s">
+      <c r="L35" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="M35" s="12" t="s">
+      <c r="M35" s="10" t="s">
         <v>343</v>
       </c>
-      <c r="N35" s="12" t="s">
+      <c r="N35" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="O35" s="12" t="s">
+      <c r="O35" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="P35" s="12" t="s">
+      <c r="P35" s="10" t="s">
         <v>294</v>
       </c>
-      <c r="Q35" s="12" t="s">
+      <c r="Q35" s="10" t="s">
         <v>21</v>
       </c>
       <c r="S35" t="s">
@@ -8644,7 +8634,7 @@
         <v>215</v>
       </c>
       <c r="Z35" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AA35">
         <v>3</v>
@@ -8655,7 +8645,7 @@
       <c r="AC35">
         <v>3</v>
       </c>
-      <c r="AF35" s="12" t="s">
+      <c r="AF35" s="10" t="s">
         <v>253</v>
       </c>
       <c r="AG35" t="s">
@@ -8668,7 +8658,7 @@
         <v>144</v>
       </c>
       <c r="AL35" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="AM35" t="s">
         <v>232</v>
@@ -8677,7 +8667,7 @@
         <v>161</v>
       </c>
       <c r="AO35" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AQ35" t="s">
         <v>164</v>
@@ -8689,7 +8679,7 @@
         <v>189</v>
       </c>
       <c r="AU35" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="AV35" t="s">
         <v>200</v>
@@ -8698,59 +8688,59 @@
         <v>208</v>
       </c>
       <c r="AX35" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
-    <row r="36" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A36" s="12" t="s">
+    <row r="36" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A36" s="10" t="s">
         <v>335</v>
       </c>
-      <c r="B36" s="12" t="s">
+      <c r="B36" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="C36" s="12" t="s">
+      <c r="C36" s="10" t="s">
         <v>336</v>
       </c>
-      <c r="D36" s="12" t="s">
+      <c r="D36" s="10" t="s">
         <v>337</v>
       </c>
-      <c r="E36" s="12">
+      <c r="E36" s="10">
         <v>2009</v>
       </c>
-      <c r="F36" s="12" t="s">
+      <c r="F36" s="10" t="s">
         <v>338</v>
       </c>
-      <c r="G36" s="12" t="s">
+      <c r="G36" s="10" t="s">
         <v>339</v>
       </c>
-      <c r="H36" s="12" t="s">
+      <c r="H36" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="I36" s="12" t="s">
+      <c r="I36" s="10" t="s">
         <v>340</v>
       </c>
-      <c r="J36" s="12" t="s">
+      <c r="J36" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="K36" s="12" t="s">
+      <c r="K36" s="10" t="s">
         <v>342</v>
       </c>
-      <c r="L36" s="12" t="s">
+      <c r="L36" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="M36" s="12" t="s">
+      <c r="M36" s="10" t="s">
         <v>343</v>
       </c>
-      <c r="N36" s="12" t="s">
+      <c r="N36" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="O36" s="12" t="s">
+      <c r="O36" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="P36" s="12" t="s">
+      <c r="P36" s="10" t="s">
         <v>294</v>
       </c>
-      <c r="Q36" s="12" t="s">
+      <c r="Q36" s="10" t="s">
         <v>21</v>
       </c>
       <c r="S36" t="s">
@@ -8772,7 +8762,7 @@
         <v>215</v>
       </c>
       <c r="Z36" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AA36">
         <v>3</v>
@@ -8783,7 +8773,7 @@
       <c r="AC36">
         <v>3</v>
       </c>
-      <c r="AF36" s="12" t="s">
+      <c r="AF36" s="10" t="s">
         <v>253</v>
       </c>
       <c r="AG36" t="s">
@@ -8796,7 +8786,7 @@
         <v>144</v>
       </c>
       <c r="AL36" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="AM36" t="s">
         <v>232</v>
@@ -8805,7 +8795,7 @@
         <v>161</v>
       </c>
       <c r="AO36" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AQ36" t="s">
         <v>164</v>
@@ -8817,7 +8807,7 @@
         <v>189</v>
       </c>
       <c r="AU36" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="AV36" t="s">
         <v>200</v>
@@ -8826,59 +8816,59 @@
         <v>207</v>
       </c>
       <c r="AX36" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
-    <row r="37" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A37" s="11" t="s">
+    <row r="37" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A37" s="10" t="s">
         <v>344</v>
       </c>
-      <c r="B37" s="11" t="s">
+      <c r="B37" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="C37" s="11" t="s">
+      <c r="C37" s="10" t="s">
         <v>345</v>
       </c>
-      <c r="D37" s="11" t="s">
+      <c r="D37" s="10" t="s">
         <v>346</v>
       </c>
-      <c r="E37" s="11">
+      <c r="E37" s="10">
         <v>2001</v>
       </c>
-      <c r="F37" s="11" t="s">
+      <c r="F37" s="10" t="s">
         <v>338</v>
       </c>
-      <c r="G37" s="11" t="s">
+      <c r="G37" s="10" t="s">
         <v>347</v>
       </c>
-      <c r="H37" s="11" t="s">
+      <c r="H37" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="I37" s="11" t="s">
+      <c r="I37" s="10" t="s">
         <v>348</v>
       </c>
-      <c r="J37" s="11" t="s">
+      <c r="J37" s="10" t="s">
         <v>349</v>
       </c>
-      <c r="K37" s="11" t="s">
+      <c r="K37" s="10" t="s">
         <v>350</v>
       </c>
-      <c r="L37" s="11" t="s">
+      <c r="L37" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="M37" s="11" t="s">
+      <c r="M37" s="10" t="s">
         <v>351</v>
       </c>
-      <c r="N37" s="11" t="s">
+      <c r="N37" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="O37" s="11" t="s">
+      <c r="O37" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="P37" s="11" t="s">
+      <c r="P37" s="10" t="s">
         <v>352</v>
       </c>
-      <c r="Q37" s="11" t="s">
+      <c r="Q37" s="10" t="s">
         <v>21</v>
       </c>
       <c r="S37" t="s">
@@ -8900,7 +8890,7 @@
         <v>216</v>
       </c>
       <c r="Z37" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AA37">
         <v>2</v>
@@ -8912,9 +8902,9 @@
         <v>3</v>
       </c>
       <c r="AD37" t="s">
-        <v>447</v>
-      </c>
-      <c r="AF37" s="12" t="s">
+        <v>446</v>
+      </c>
+      <c r="AF37" s="10" t="s">
         <v>253</v>
       </c>
       <c r="AG37" t="s">
@@ -8924,13 +8914,13 @@
         <v>116</v>
       </c>
       <c r="AL37" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="AM37" t="s">
         <v>159</v>
       </c>
       <c r="AO37" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="AQ37" t="s">
         <v>164</v>
@@ -8942,7 +8932,7 @@
         <v>175</v>
       </c>
       <c r="AU37" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="AV37" t="s">
         <v>212</v>
@@ -8951,56 +8941,56 @@
         <v>210</v>
       </c>
     </row>
-    <row r="38" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A38" s="11" t="s">
+    <row r="38" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A38" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="B38" s="11" t="s">
+      <c r="B38" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="C38" s="11" t="s">
+      <c r="C38" s="10" t="s">
         <v>354</v>
       </c>
-      <c r="D38" s="11" t="s">
+      <c r="D38" s="10" t="s">
         <v>355</v>
       </c>
-      <c r="E38" s="11">
+      <c r="E38" s="10">
         <v>1998</v>
       </c>
-      <c r="F38" s="11" t="s">
+      <c r="F38" s="10" t="s">
         <v>356</v>
       </c>
-      <c r="G38" s="11" t="s">
+      <c r="G38" s="10" t="s">
         <v>357</v>
       </c>
-      <c r="H38" s="11" t="s">
+      <c r="H38" s="10" t="s">
         <v>320</v>
       </c>
-      <c r="I38" s="11" t="s">
+      <c r="I38" s="10" t="s">
         <v>358</v>
       </c>
-      <c r="J38" s="11" t="s">
+      <c r="J38" s="10" t="s">
         <v>359</v>
       </c>
-      <c r="K38" s="11" t="s">
+      <c r="K38" s="10" t="s">
         <v>360</v>
       </c>
-      <c r="L38" s="11" t="s">
+      <c r="L38" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="M38" s="11" t="s">
+      <c r="M38" s="10" t="s">
         <v>361</v>
       </c>
-      <c r="N38" s="11" t="s">
+      <c r="N38" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="O38" s="11" t="s">
+      <c r="O38" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="P38" s="11" t="s">
+      <c r="P38" s="10" t="s">
         <v>275</v>
       </c>
-      <c r="Q38" s="11" t="s">
+      <c r="Q38" s="10" t="s">
         <v>21</v>
       </c>
       <c r="S38" t="s">
@@ -9022,7 +9012,7 @@
         <v>215</v>
       </c>
       <c r="Z38" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="AA38">
         <v>2</v>
@@ -9033,7 +9023,7 @@
       <c r="AC38">
         <v>3</v>
       </c>
-      <c r="AF38" s="12" t="s">
+      <c r="AF38" s="10" t="s">
         <v>253</v>
       </c>
       <c r="AG38" t="s">
@@ -9052,7 +9042,7 @@
         <v>160</v>
       </c>
       <c r="AO38" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AQ38" t="s">
         <v>164</v>
@@ -9064,7 +9054,7 @@
         <v>176</v>
       </c>
       <c r="AU38" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="AV38" t="s">
         <v>200</v>
@@ -9073,56 +9063,56 @@
         <v>208</v>
       </c>
     </row>
-    <row r="39" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A39" s="12" t="s">
+    <row r="39" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A39" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="B39" s="12" t="s">
+      <c r="B39" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="C39" s="12" t="s">
+      <c r="C39" s="10" t="s">
         <v>354</v>
       </c>
-      <c r="D39" s="12" t="s">
+      <c r="D39" s="10" t="s">
         <v>355</v>
       </c>
-      <c r="E39" s="12">
+      <c r="E39" s="10">
         <v>1998</v>
       </c>
-      <c r="F39" s="12" t="s">
+      <c r="F39" s="10" t="s">
         <v>356</v>
       </c>
-      <c r="G39" s="12" t="s">
+      <c r="G39" s="10" t="s">
         <v>357</v>
       </c>
-      <c r="H39" s="12" t="s">
+      <c r="H39" s="10" t="s">
         <v>320</v>
       </c>
-      <c r="I39" s="12" t="s">
+      <c r="I39" s="10" t="s">
         <v>358</v>
       </c>
-      <c r="J39" s="12" t="s">
+      <c r="J39" s="10" t="s">
         <v>359</v>
       </c>
-      <c r="K39" s="12" t="s">
+      <c r="K39" s="10" t="s">
         <v>360</v>
       </c>
-      <c r="L39" s="12" t="s">
+      <c r="L39" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="M39" s="12" t="s">
+      <c r="M39" s="10" t="s">
         <v>361</v>
       </c>
-      <c r="N39" s="12" t="s">
+      <c r="N39" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="O39" s="12" t="s">
+      <c r="O39" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="P39" s="12" t="s">
+      <c r="P39" s="10" t="s">
         <v>275</v>
       </c>
-      <c r="Q39" s="12" t="s">
+      <c r="Q39" s="10" t="s">
         <v>21</v>
       </c>
       <c r="S39" t="s">
@@ -9144,7 +9134,7 @@
         <v>215</v>
       </c>
       <c r="Z39" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="AA39">
         <v>2</v>
@@ -9155,7 +9145,7 @@
       <c r="AC39">
         <v>3</v>
       </c>
-      <c r="AF39" s="12" t="s">
+      <c r="AF39" s="10" t="s">
         <v>253</v>
       </c>
       <c r="AG39" t="s">
@@ -9174,7 +9164,7 @@
         <v>161</v>
       </c>
       <c r="AO39" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AQ39" t="s">
         <v>164</v>
@@ -9186,7 +9176,7 @@
         <v>176</v>
       </c>
       <c r="AU39" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AV39" t="s">
         <v>199</v>
@@ -9195,56 +9185,56 @@
         <v>208</v>
       </c>
     </row>
-    <row r="40" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A40" s="12" t="s">
+    <row r="40" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A40" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="B40" s="12" t="s">
+      <c r="B40" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="C40" s="12" t="s">
+      <c r="C40" s="10" t="s">
         <v>354</v>
       </c>
-      <c r="D40" s="12" t="s">
+      <c r="D40" s="10" t="s">
         <v>355</v>
       </c>
-      <c r="E40" s="12">
+      <c r="E40" s="10">
         <v>1998</v>
       </c>
-      <c r="F40" s="12" t="s">
+      <c r="F40" s="10" t="s">
         <v>356</v>
       </c>
-      <c r="G40" s="12" t="s">
+      <c r="G40" s="10" t="s">
         <v>357</v>
       </c>
-      <c r="H40" s="12" t="s">
+      <c r="H40" s="10" t="s">
         <v>320</v>
       </c>
-      <c r="I40" s="12" t="s">
+      <c r="I40" s="10" t="s">
         <v>358</v>
       </c>
-      <c r="J40" s="12" t="s">
+      <c r="J40" s="10" t="s">
         <v>359</v>
       </c>
-      <c r="K40" s="12" t="s">
+      <c r="K40" s="10" t="s">
         <v>360</v>
       </c>
-      <c r="L40" s="12" t="s">
+      <c r="L40" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="M40" s="12" t="s">
+      <c r="M40" s="10" t="s">
         <v>361</v>
       </c>
-      <c r="N40" s="12" t="s">
+      <c r="N40" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="O40" s="12" t="s">
+      <c r="O40" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="P40" s="12" t="s">
+      <c r="P40" s="10" t="s">
         <v>275</v>
       </c>
-      <c r="Q40" s="12" t="s">
+      <c r="Q40" s="10" t="s">
         <v>21</v>
       </c>
       <c r="S40" t="s">
@@ -9266,7 +9256,7 @@
         <v>215</v>
       </c>
       <c r="Z40" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="AA40">
         <v>2</v>
@@ -9277,7 +9267,7 @@
       <c r="AC40">
         <v>3</v>
       </c>
-      <c r="AF40" s="12" t="s">
+      <c r="AF40" s="10" t="s">
         <v>253</v>
       </c>
       <c r="AG40" t="s">
@@ -9296,7 +9286,7 @@
         <v>160</v>
       </c>
       <c r="AO40" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AQ40" t="s">
         <v>164</v>
@@ -9308,7 +9298,7 @@
         <v>176</v>
       </c>
       <c r="AU40" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AV40" t="s">
         <v>199</v>
@@ -9317,56 +9307,56 @@
         <v>208</v>
       </c>
     </row>
-    <row r="41" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A41" s="12" t="s">
+    <row r="41" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A41" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="B41" s="12" t="s">
+      <c r="B41" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="C41" s="12" t="s">
+      <c r="C41" s="10" t="s">
         <v>354</v>
       </c>
-      <c r="D41" s="12" t="s">
+      <c r="D41" s="10" t="s">
         <v>355</v>
       </c>
-      <c r="E41" s="12">
+      <c r="E41" s="10">
         <v>1998</v>
       </c>
-      <c r="F41" s="12" t="s">
+      <c r="F41" s="10" t="s">
         <v>356</v>
       </c>
-      <c r="G41" s="12" t="s">
+      <c r="G41" s="10" t="s">
         <v>357</v>
       </c>
-      <c r="H41" s="12" t="s">
+      <c r="H41" s="10" t="s">
         <v>320</v>
       </c>
-      <c r="I41" s="12" t="s">
+      <c r="I41" s="10" t="s">
         <v>358</v>
       </c>
-      <c r="J41" s="12" t="s">
+      <c r="J41" s="10" t="s">
         <v>359</v>
       </c>
-      <c r="K41" s="12" t="s">
+      <c r="K41" s="10" t="s">
         <v>360</v>
       </c>
-      <c r="L41" s="12" t="s">
+      <c r="L41" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="M41" s="12" t="s">
+      <c r="M41" s="10" t="s">
         <v>361</v>
       </c>
-      <c r="N41" s="12" t="s">
+      <c r="N41" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="O41" s="12" t="s">
+      <c r="O41" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="P41" s="12" t="s">
+      <c r="P41" s="10" t="s">
         <v>275</v>
       </c>
-      <c r="Q41" s="12" t="s">
+      <c r="Q41" s="10" t="s">
         <v>21</v>
       </c>
       <c r="S41" t="s">
@@ -9388,7 +9378,7 @@
         <v>215</v>
       </c>
       <c r="Z41" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="AA41">
         <v>2</v>
@@ -9399,7 +9389,7 @@
       <c r="AC41">
         <v>3</v>
       </c>
-      <c r="AF41" s="12" t="s">
+      <c r="AF41" s="10" t="s">
         <v>253</v>
       </c>
       <c r="AG41" t="s">
@@ -9415,7 +9405,7 @@
         <v>160</v>
       </c>
       <c r="AO41" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AQ41" t="s">
         <v>164</v>
@@ -9427,7 +9417,7 @@
         <v>176</v>
       </c>
       <c r="AU41" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="AV41" t="s">
         <v>206</v>
@@ -9436,56 +9426,56 @@
         <v>209</v>
       </c>
     </row>
-    <row r="42" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A42" s="11" t="s">
+    <row r="42" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A42" s="10" t="s">
         <v>362</v>
       </c>
-      <c r="B42" s="11" t="s">
+      <c r="B42" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="C42" s="11" t="s">
+      <c r="C42" s="10" t="s">
         <v>363</v>
       </c>
-      <c r="D42" s="11" t="s">
+      <c r="D42" s="10" t="s">
         <v>364</v>
       </c>
-      <c r="E42" s="11">
+      <c r="E42" s="10">
         <v>1998</v>
       </c>
-      <c r="F42" s="11" t="s">
+      <c r="F42" s="10" t="s">
         <v>365</v>
       </c>
-      <c r="G42" s="11" t="s">
+      <c r="G42" s="10" t="s">
         <v>366</v>
       </c>
-      <c r="H42" s="11" t="s">
+      <c r="H42" s="10" t="s">
         <v>300</v>
       </c>
-      <c r="I42" s="11" t="s">
+      <c r="I42" s="10" t="s">
         <v>367</v>
       </c>
-      <c r="J42" s="11" t="s">
+      <c r="J42" s="10" t="s">
         <v>368</v>
       </c>
-      <c r="K42" s="11" t="s">
+      <c r="K42" s="10" t="s">
         <v>369</v>
       </c>
-      <c r="L42" s="11" t="s">
+      <c r="L42" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="M42" s="11" t="s">
+      <c r="M42" s="10" t="s">
         <v>370</v>
       </c>
-      <c r="N42" s="11" t="s">
+      <c r="N42" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="O42" s="11" t="s">
+      <c r="O42" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="P42" s="11" t="s">
+      <c r="P42" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="Q42" s="11" t="s">
+      <c r="Q42" s="10" t="s">
         <v>21</v>
       </c>
       <c r="S42" t="s">
@@ -9507,7 +9497,7 @@
         <v>216</v>
       </c>
       <c r="Z42" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="AA42">
         <v>2</v>
@@ -9519,9 +9509,9 @@
         <v>3</v>
       </c>
       <c r="AD42" t="s">
-        <v>454</v>
-      </c>
-      <c r="AF42" s="12" t="s">
+        <v>453</v>
+      </c>
+      <c r="AF42" s="10" t="s">
         <v>253</v>
       </c>
       <c r="AG42" t="s">
@@ -9537,13 +9527,13 @@
         <v>113</v>
       </c>
       <c r="AL42" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="AM42" t="s">
         <v>159</v>
       </c>
       <c r="AO42" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="AQ42" t="s">
         <v>164</v>
@@ -9555,7 +9545,7 @@
         <v>176</v>
       </c>
       <c r="AU42" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AV42" t="s">
         <v>199</v>
@@ -9564,56 +9554,56 @@
         <v>207</v>
       </c>
     </row>
-    <row r="43" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A43" s="12" t="s">
+    <row r="43" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A43" s="10" t="s">
         <v>362</v>
       </c>
-      <c r="B43" s="12" t="s">
+      <c r="B43" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="C43" s="12" t="s">
+      <c r="C43" s="10" t="s">
         <v>363</v>
       </c>
-      <c r="D43" s="12" t="s">
+      <c r="D43" s="10" t="s">
         <v>364</v>
       </c>
-      <c r="E43" s="12">
+      <c r="E43" s="10">
         <v>1998</v>
       </c>
-      <c r="F43" s="12" t="s">
+      <c r="F43" s="10" t="s">
         <v>365</v>
       </c>
-      <c r="G43" s="12" t="s">
+      <c r="G43" s="10" t="s">
         <v>366</v>
       </c>
-      <c r="H43" s="12" t="s">
+      <c r="H43" s="10" t="s">
         <v>300</v>
       </c>
-      <c r="I43" s="12" t="s">
+      <c r="I43" s="10" t="s">
         <v>367</v>
       </c>
-      <c r="J43" s="12" t="s">
+      <c r="J43" s="10" t="s">
         <v>368</v>
       </c>
-      <c r="K43" s="12" t="s">
+      <c r="K43" s="10" t="s">
         <v>369</v>
       </c>
-      <c r="L43" s="12" t="s">
+      <c r="L43" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="M43" s="12" t="s">
+      <c r="M43" s="10" t="s">
         <v>370</v>
       </c>
-      <c r="N43" s="12" t="s">
+      <c r="N43" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="O43" s="12" t="s">
+      <c r="O43" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="P43" s="12" t="s">
+      <c r="P43" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="Q43" s="12" t="s">
+      <c r="Q43" s="10" t="s">
         <v>21</v>
       </c>
       <c r="S43" t="s">
@@ -9635,7 +9625,7 @@
         <v>216</v>
       </c>
       <c r="Z43" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="AA43">
         <v>2</v>
@@ -9647,9 +9637,9 @@
         <v>3</v>
       </c>
       <c r="AD43" t="s">
-        <v>454</v>
-      </c>
-      <c r="AF43" s="12" t="s">
+        <v>453</v>
+      </c>
+      <c r="AF43" s="10" t="s">
         <v>253</v>
       </c>
       <c r="AG43" t="s">
@@ -9665,7 +9655,7 @@
         <v>113</v>
       </c>
       <c r="AL43" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="AM43" t="s">
         <v>232</v>
@@ -9674,7 +9664,7 @@
         <v>161</v>
       </c>
       <c r="AO43" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="AQ43" t="s">
         <v>164</v>
@@ -9686,7 +9676,7 @@
         <v>176</v>
       </c>
       <c r="AU43" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="AV43" t="s">
         <v>238</v>
@@ -9695,56 +9685,56 @@
         <v>207</v>
       </c>
     </row>
-    <row r="44" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A44" s="11" t="s">
+    <row r="44" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A44" s="10" t="s">
         <v>371</v>
       </c>
-      <c r="B44" s="11" t="s">
+      <c r="B44" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="C44" s="11" t="s">
+      <c r="C44" s="10" t="s">
         <v>372</v>
       </c>
-      <c r="D44" s="11" t="s">
+      <c r="D44" s="10" t="s">
         <v>373</v>
       </c>
-      <c r="E44" s="11">
+      <c r="E44" s="10">
         <v>1997</v>
       </c>
-      <c r="F44" s="11" t="s">
+      <c r="F44" s="10" t="s">
         <v>374</v>
       </c>
-      <c r="G44" s="11" t="s">
+      <c r="G44" s="10" t="s">
         <v>340</v>
       </c>
-      <c r="H44" s="11" t="s">
+      <c r="H44" s="10" t="s">
         <v>300</v>
       </c>
-      <c r="I44" s="11" t="s">
+      <c r="I44" s="10" t="s">
         <v>301</v>
       </c>
-      <c r="J44" s="11" t="s">
+      <c r="J44" s="10" t="s">
         <v>375</v>
       </c>
-      <c r="K44" s="11" t="s">
+      <c r="K44" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="L44" s="11" t="s">
+      <c r="L44" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="M44" s="11" t="s">
+      <c r="M44" s="10" t="s">
         <v>376</v>
       </c>
-      <c r="N44" s="11" t="s">
+      <c r="N44" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="O44" s="11" t="s">
+      <c r="O44" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="P44" s="11" t="s">
+      <c r="P44" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="Q44" s="11" t="s">
+      <c r="Q44" s="10" t="s">
         <v>21</v>
       </c>
       <c r="S44" t="s">
@@ -9766,7 +9756,7 @@
         <v>69</v>
       </c>
       <c r="Z44" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="AA44">
         <v>2</v>
@@ -9777,8 +9767,8 @@
       <c r="AC44">
         <v>2</v>
       </c>
-      <c r="AF44" s="12" t="s">
-        <v>458</v>
+      <c r="AF44" s="10" t="s">
+        <v>457</v>
       </c>
       <c r="AG44" t="s">
         <v>109</v>
@@ -9790,7 +9780,7 @@
         <v>145</v>
       </c>
       <c r="AL44" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AM44" t="s">
         <v>232</v>
@@ -9799,7 +9789,7 @@
         <v>162</v>
       </c>
       <c r="AO44" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="AQ44" t="s">
         <v>164</v>
@@ -9811,7 +9801,7 @@
         <v>175</v>
       </c>
       <c r="AU44" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AV44" t="s">
         <v>199</v>
@@ -9820,56 +9810,56 @@
         <v>208</v>
       </c>
     </row>
-    <row r="45" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A45" s="12" t="s">
+    <row r="45" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A45" s="10" t="s">
         <v>371</v>
       </c>
-      <c r="B45" s="12" t="s">
+      <c r="B45" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="C45" s="12" t="s">
+      <c r="C45" s="10" t="s">
         <v>372</v>
       </c>
-      <c r="D45" s="12" t="s">
+      <c r="D45" s="10" t="s">
         <v>373</v>
       </c>
-      <c r="E45" s="12">
+      <c r="E45" s="10">
         <v>1997</v>
       </c>
-      <c r="F45" s="12" t="s">
+      <c r="F45" s="10" t="s">
         <v>374</v>
       </c>
-      <c r="G45" s="12" t="s">
+      <c r="G45" s="10" t="s">
         <v>340</v>
       </c>
-      <c r="H45" s="12" t="s">
+      <c r="H45" s="10" t="s">
         <v>300</v>
       </c>
-      <c r="I45" s="12" t="s">
+      <c r="I45" s="10" t="s">
         <v>301</v>
       </c>
-      <c r="J45" s="12" t="s">
+      <c r="J45" s="10" t="s">
         <v>375</v>
       </c>
-      <c r="K45" s="12" t="s">
+      <c r="K45" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="L45" s="12" t="s">
+      <c r="L45" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="M45" s="12" t="s">
+      <c r="M45" s="10" t="s">
         <v>376</v>
       </c>
-      <c r="N45" s="12" t="s">
+      <c r="N45" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="O45" s="12" t="s">
+      <c r="O45" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="P45" s="12" t="s">
+      <c r="P45" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="Q45" s="12" t="s">
+      <c r="Q45" s="10" t="s">
         <v>21</v>
       </c>
       <c r="S45" t="s">
@@ -9891,7 +9881,7 @@
         <v>69</v>
       </c>
       <c r="Z45" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="AA45">
         <v>2</v>
@@ -9902,8 +9892,8 @@
       <c r="AC45">
         <v>2</v>
       </c>
-      <c r="AF45" s="12" t="s">
-        <v>458</v>
+      <c r="AF45" s="10" t="s">
+        <v>457</v>
       </c>
       <c r="AG45" t="s">
         <v>109</v>
@@ -9915,7 +9905,7 @@
         <v>145</v>
       </c>
       <c r="AL45" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="AM45" t="s">
         <v>232</v>
@@ -9924,7 +9914,7 @@
         <v>162</v>
       </c>
       <c r="AO45" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="AQ45" t="s">
         <v>164</v>
@@ -9936,7 +9926,7 @@
         <v>175</v>
       </c>
       <c r="AU45" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AV45" t="s">
         <v>199</v>
@@ -9945,56 +9935,56 @@
         <v>210</v>
       </c>
     </row>
-    <row r="46" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A46" s="12" t="s">
+    <row r="46" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A46" s="10" t="s">
         <v>371</v>
       </c>
-      <c r="B46" s="12" t="s">
+      <c r="B46" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="C46" s="12" t="s">
+      <c r="C46" s="10" t="s">
         <v>372</v>
       </c>
-      <c r="D46" s="12" t="s">
+      <c r="D46" s="10" t="s">
         <v>373</v>
       </c>
-      <c r="E46" s="12">
+      <c r="E46" s="10">
         <v>1997</v>
       </c>
-      <c r="F46" s="12" t="s">
+      <c r="F46" s="10" t="s">
         <v>374</v>
       </c>
-      <c r="G46" s="12" t="s">
+      <c r="G46" s="10" t="s">
         <v>340</v>
       </c>
-      <c r="H46" s="12" t="s">
+      <c r="H46" s="10" t="s">
         <v>300</v>
       </c>
-      <c r="I46" s="12" t="s">
+      <c r="I46" s="10" t="s">
         <v>301</v>
       </c>
-      <c r="J46" s="12" t="s">
+      <c r="J46" s="10" t="s">
         <v>375</v>
       </c>
-      <c r="K46" s="12" t="s">
+      <c r="K46" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="L46" s="12" t="s">
+      <c r="L46" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="M46" s="12" t="s">
+      <c r="M46" s="10" t="s">
         <v>376</v>
       </c>
-      <c r="N46" s="12" t="s">
+      <c r="N46" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="O46" s="12" t="s">
+      <c r="O46" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="P46" s="12" t="s">
+      <c r="P46" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="Q46" s="12" t="s">
+      <c r="Q46" s="10" t="s">
         <v>21</v>
       </c>
       <c r="S46" t="s">
@@ -10016,7 +10006,7 @@
         <v>69</v>
       </c>
       <c r="Z46" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="AA46">
         <v>2</v>
@@ -10027,8 +10017,8 @@
       <c r="AC46">
         <v>2</v>
       </c>
-      <c r="AF46" s="12" t="s">
-        <v>458</v>
+      <c r="AF46" s="10" t="s">
+        <v>457</v>
       </c>
       <c r="AG46" t="s">
         <v>109</v>
@@ -10040,7 +10030,7 @@
         <v>139</v>
       </c>
       <c r="AL46" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="AM46" t="s">
         <v>232</v>
@@ -10049,7 +10039,7 @@
         <v>162</v>
       </c>
       <c r="AO46" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="AQ46" t="s">
         <v>164</v>
@@ -10061,7 +10051,7 @@
         <v>175</v>
       </c>
       <c r="AU46" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AV46" t="s">
         <v>199</v>
@@ -10070,56 +10060,56 @@
         <v>210</v>
       </c>
     </row>
-    <row r="47" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A47" s="12" t="s">
+    <row r="47" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A47" s="10" t="s">
         <v>371</v>
       </c>
-      <c r="B47" s="12" t="s">
+      <c r="B47" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="C47" s="12" t="s">
+      <c r="C47" s="10" t="s">
         <v>372</v>
       </c>
-      <c r="D47" s="12" t="s">
+      <c r="D47" s="10" t="s">
         <v>373</v>
       </c>
-      <c r="E47" s="12">
+      <c r="E47" s="10">
         <v>1997</v>
       </c>
-      <c r="F47" s="12" t="s">
+      <c r="F47" s="10" t="s">
         <v>374</v>
       </c>
-      <c r="G47" s="12" t="s">
+      <c r="G47" s="10" t="s">
         <v>340</v>
       </c>
-      <c r="H47" s="12" t="s">
+      <c r="H47" s="10" t="s">
         <v>300</v>
       </c>
-      <c r="I47" s="12" t="s">
+      <c r="I47" s="10" t="s">
         <v>301</v>
       </c>
-      <c r="J47" s="12" t="s">
+      <c r="J47" s="10" t="s">
         <v>375</v>
       </c>
-      <c r="K47" s="12" t="s">
+      <c r="K47" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="L47" s="12" t="s">
+      <c r="L47" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="M47" s="12" t="s">
+      <c r="M47" s="10" t="s">
         <v>376</v>
       </c>
-      <c r="N47" s="12" t="s">
+      <c r="N47" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="O47" s="12" t="s">
+      <c r="O47" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="P47" s="12" t="s">
+      <c r="P47" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="Q47" s="12" t="s">
+      <c r="Q47" s="10" t="s">
         <v>21</v>
       </c>
       <c r="S47" t="s">
@@ -10141,7 +10131,7 @@
         <v>69</v>
       </c>
       <c r="Z47" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="AA47">
         <v>2</v>
@@ -10152,8 +10142,8 @@
       <c r="AC47">
         <v>2</v>
       </c>
-      <c r="AF47" s="12" t="s">
-        <v>458</v>
+      <c r="AF47" s="10" t="s">
+        <v>457</v>
       </c>
       <c r="AG47" t="s">
         <v>109</v>
@@ -10165,7 +10155,7 @@
         <v>139</v>
       </c>
       <c r="AL47" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="AM47" t="s">
         <v>232</v>
@@ -10174,7 +10164,7 @@
         <v>162</v>
       </c>
       <c r="AO47" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="AQ47" t="s">
         <v>164</v>
@@ -10186,7 +10176,7 @@
         <v>175</v>
       </c>
       <c r="AU47" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AV47" t="s">
         <v>199</v>
@@ -10195,56 +10185,56 @@
         <v>208</v>
       </c>
     </row>
-    <row r="48" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A48" s="12" t="s">
+    <row r="48" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A48" s="10" t="s">
         <v>371</v>
       </c>
-      <c r="B48" s="12" t="s">
+      <c r="B48" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="C48" s="12" t="s">
+      <c r="C48" s="10" t="s">
         <v>372</v>
       </c>
-      <c r="D48" s="12" t="s">
+      <c r="D48" s="10" t="s">
         <v>373</v>
       </c>
-      <c r="E48" s="12">
+      <c r="E48" s="10">
         <v>1997</v>
       </c>
-      <c r="F48" s="12" t="s">
+      <c r="F48" s="10" t="s">
         <v>374</v>
       </c>
-      <c r="G48" s="12" t="s">
+      <c r="G48" s="10" t="s">
         <v>340</v>
       </c>
-      <c r="H48" s="12" t="s">
+      <c r="H48" s="10" t="s">
         <v>300</v>
       </c>
-      <c r="I48" s="12" t="s">
+      <c r="I48" s="10" t="s">
         <v>301</v>
       </c>
-      <c r="J48" s="12" t="s">
+      <c r="J48" s="10" t="s">
         <v>375</v>
       </c>
-      <c r="K48" s="12" t="s">
+      <c r="K48" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="L48" s="12" t="s">
+      <c r="L48" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="M48" s="12" t="s">
+      <c r="M48" s="10" t="s">
         <v>376</v>
       </c>
-      <c r="N48" s="12" t="s">
+      <c r="N48" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="O48" s="12" t="s">
+      <c r="O48" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="P48" s="12" t="s">
+      <c r="P48" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="Q48" s="12" t="s">
+      <c r="Q48" s="10" t="s">
         <v>21</v>
       </c>
       <c r="S48" t="s">
@@ -10266,7 +10256,7 @@
         <v>69</v>
       </c>
       <c r="Z48" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="AA48">
         <v>2</v>
@@ -10277,8 +10267,8 @@
       <c r="AC48">
         <v>2</v>
       </c>
-      <c r="AF48" s="12" t="s">
-        <v>458</v>
+      <c r="AF48" s="10" t="s">
+        <v>457</v>
       </c>
       <c r="AG48" t="s">
         <v>109</v>
@@ -10290,7 +10280,7 @@
         <v>131</v>
       </c>
       <c r="AL48" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="AM48" t="s">
         <v>232</v>
@@ -10299,7 +10289,7 @@
         <v>162</v>
       </c>
       <c r="AO48" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="AQ48" t="s">
         <v>164</v>
@@ -10311,7 +10301,7 @@
         <v>175</v>
       </c>
       <c r="AU48" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AV48" t="s">
         <v>199</v>
@@ -10320,56 +10310,56 @@
         <v>208</v>
       </c>
     </row>
-    <row r="49" spans="1:49" x14ac:dyDescent="0.3">
-      <c r="A49" s="12" t="s">
+    <row r="49" spans="1:49" x14ac:dyDescent="0.35">
+      <c r="A49" s="10" t="s">
         <v>371</v>
       </c>
-      <c r="B49" s="12" t="s">
+      <c r="B49" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="C49" s="12" t="s">
+      <c r="C49" s="10" t="s">
         <v>372</v>
       </c>
-      <c r="D49" s="12" t="s">
+      <c r="D49" s="10" t="s">
         <v>373</v>
       </c>
-      <c r="E49" s="12">
+      <c r="E49" s="10">
         <v>1997</v>
       </c>
-      <c r="F49" s="12" t="s">
+      <c r="F49" s="10" t="s">
         <v>374</v>
       </c>
-      <c r="G49" s="12" t="s">
+      <c r="G49" s="10" t="s">
         <v>340</v>
       </c>
-      <c r="H49" s="12" t="s">
+      <c r="H49" s="10" t="s">
         <v>300</v>
       </c>
-      <c r="I49" s="12" t="s">
+      <c r="I49" s="10" t="s">
         <v>301</v>
       </c>
-      <c r="J49" s="12" t="s">
+      <c r="J49" s="10" t="s">
         <v>375</v>
       </c>
-      <c r="K49" s="12" t="s">
+      <c r="K49" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="L49" s="12" t="s">
+      <c r="L49" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="M49" s="12" t="s">
+      <c r="M49" s="10" t="s">
         <v>376</v>
       </c>
-      <c r="N49" s="12" t="s">
+      <c r="N49" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="O49" s="12" t="s">
+      <c r="O49" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="P49" s="12" t="s">
+      <c r="P49" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="Q49" s="12" t="s">
+      <c r="Q49" s="10" t="s">
         <v>21</v>
       </c>
       <c r="S49" t="s">
@@ -10391,7 +10381,7 @@
         <v>69</v>
       </c>
       <c r="Z49" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="AA49">
         <v>2</v>
@@ -10402,8 +10392,8 @@
       <c r="AC49">
         <v>2</v>
       </c>
-      <c r="AF49" s="12" t="s">
-        <v>458</v>
+      <c r="AF49" s="10" t="s">
+        <v>457</v>
       </c>
       <c r="AG49" t="s">
         <v>109</v>
@@ -10415,7 +10405,7 @@
         <v>144</v>
       </c>
       <c r="AL49" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="AM49" t="s">
         <v>232</v>
@@ -10424,7 +10414,7 @@
         <v>160</v>
       </c>
       <c r="AO49" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="AQ49" t="s">
         <v>164</v>
@@ -10436,7 +10426,7 @@
         <v>175</v>
       </c>
       <c r="AU49" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AV49" t="s">
         <v>199</v>
@@ -10456,14 +10446,14 @@
     <mergeCell ref="AM1:AP1"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="P20:P1048576 Q3:Q19" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="Q3:Q19 P20:P1048576" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH3:AH1048576" xr:uid="{AF359FC3-11D6-40D8-822F-0719E91CF390}">
       <formula1>Ecosystem_component</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AQ3:AQ1048576" xr:uid="{5FFD7ACF-9A7A-47E4-8F02-C092CA18B67C}">
       <formula1>Fishery_type</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AN3:AN1048576 AR3:AS1048576 AI3:AJ1048576" xr:uid="{E3465DE4-B915-4C62-9316-EABEC40DC1E6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI3:AJ1048576 AR3:AS1048576 AN3:AN1048576" xr:uid="{E3465DE4-B915-4C62-9316-EABEC40DC1E6}">
       <formula1>INDIRECT(AH3)</formula1>
     </dataValidation>
   </dataValidations>
@@ -10571,89 +10561,89 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AY38"/>
+  <dimension ref="A1:AX38"/>
   <sheetViews>
     <sheetView topLeftCell="AB2" workbookViewId="0">
       <selection activeCell="AO2" sqref="AO2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="19" max="19" width="32.21875" customWidth="1"/>
-    <col min="23" max="23" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="32.1796875" customWidth="1"/>
+    <col min="23" max="23" width="11.453125" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="25" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="25" customWidth="1"/>
-    <col min="32" max="32" width="14.77734375" customWidth="1"/>
-    <col min="33" max="33" width="26.21875" customWidth="1"/>
+    <col min="32" max="32" width="14.81640625" customWidth="1"/>
+    <col min="33" max="33" width="26.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="21" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="S1" s="21"/>
-      <c r="T1" s="21"/>
-      <c r="U1" s="21"/>
-      <c r="V1" s="21"/>
-      <c r="W1" s="21"/>
-      <c r="X1" s="21"/>
-      <c r="Y1" s="21"/>
-      <c r="Z1" s="21"/>
-      <c r="AA1" s="21"/>
-      <c r="AB1" s="21"/>
-      <c r="AC1" s="21"/>
-      <c r="AD1" s="21"/>
-      <c r="AE1" s="21"/>
-      <c r="AF1" s="19" t="s">
+      <c r="S1" s="16"/>
+      <c r="T1" s="16"/>
+      <c r="U1" s="16"/>
+      <c r="V1" s="16"/>
+      <c r="W1" s="16"/>
+      <c r="X1" s="16"/>
+      <c r="Y1" s="16"/>
+      <c r="Z1" s="16"/>
+      <c r="AA1" s="16"/>
+      <c r="AB1" s="16"/>
+      <c r="AC1" s="16"/>
+      <c r="AD1" s="16"/>
+      <c r="AE1" s="16"/>
+      <c r="AF1" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="AG1" s="19"/>
-      <c r="AH1" s="20" t="s">
+      <c r="AG1" s="14"/>
+      <c r="AH1" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="AI1" s="20"/>
-      <c r="AJ1" s="20"/>
-      <c r="AK1" s="20"/>
-      <c r="AL1" s="20"/>
-      <c r="AM1" s="10" t="s">
+      <c r="AI1" s="15"/>
+      <c r="AJ1" s="15"/>
+      <c r="AK1" s="15"/>
+      <c r="AL1" s="15"/>
+      <c r="AM1" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="AN1" s="10"/>
-      <c r="AO1" s="10"/>
-      <c r="AP1" s="10"/>
-      <c r="AQ1" s="16" t="s">
+      <c r="AN1" s="9"/>
+      <c r="AO1" s="9"/>
+      <c r="AP1" s="9"/>
+      <c r="AQ1" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="AR1" s="16"/>
-      <c r="AS1" s="16"/>
-      <c r="AT1" s="16"/>
-      <c r="AU1" s="9" t="s">
+      <c r="AR1" s="11"/>
+      <c r="AS1" s="11"/>
+      <c r="AT1" s="11"/>
+      <c r="AU1" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="AV1" s="9"/>
-      <c r="AW1" s="9"/>
-      <c r="AX1" s="9"/>
+      <c r="AV1" s="8"/>
+      <c r="AW1" s="8"/>
+      <c r="AX1" s="8"/>
     </row>
-    <row r="2" spans="1:50" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:50" ht="87" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>68</v>
       </c>
@@ -10805,7 +10795,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:50" x14ac:dyDescent="0.35">
       <c r="Q3" t="s">
         <v>21</v>
       </c>
@@ -10862,7 +10852,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="4" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:50" x14ac:dyDescent="0.35">
       <c r="Q4" t="s">
         <v>22</v>
       </c>
@@ -10919,7 +10909,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="5" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:50" x14ac:dyDescent="0.35">
       <c r="R5" t="s">
         <v>83</v>
       </c>
@@ -10973,9 +10963,9 @@
       <c r="AW5" t="s">
         <v>210</v>
       </c>
-      <c r="AX5" s="8"/>
+      <c r="AX5" s="7"/>
     </row>
-    <row r="6" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:50" x14ac:dyDescent="0.35">
       <c r="R6" t="s">
         <v>84</v>
       </c>
@@ -11020,7 +11010,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="7" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:50" x14ac:dyDescent="0.35">
       <c r="R7" t="s">
         <v>85</v>
       </c>
@@ -11062,7 +11052,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="8" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:50" x14ac:dyDescent="0.35">
       <c r="R8" t="s">
         <v>86</v>
       </c>
@@ -11100,7 +11090,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="9" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:50" x14ac:dyDescent="0.35">
       <c r="R9" t="s">
         <v>87</v>
       </c>
@@ -11135,7 +11125,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="10" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:50" x14ac:dyDescent="0.35">
       <c r="S10" t="s">
         <v>33</v>
       </c>
@@ -11167,7 +11157,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="11" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:50" x14ac:dyDescent="0.35">
       <c r="S11" t="s">
         <v>32</v>
       </c>
@@ -11202,7 +11192,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="12" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:50" x14ac:dyDescent="0.35">
       <c r="S12" t="s">
         <v>30</v>
       </c>
@@ -11234,7 +11224,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="13" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:50" x14ac:dyDescent="0.35">
       <c r="S13" t="s">
         <v>79</v>
       </c>
@@ -11269,7 +11259,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="14" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:50" x14ac:dyDescent="0.35">
       <c r="S14" t="s">
         <v>31</v>
       </c>
@@ -11298,7 +11288,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="15" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:50" x14ac:dyDescent="0.35">
       <c r="S15" t="s">
         <v>35</v>
       </c>
@@ -11327,7 +11317,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="16" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:50" x14ac:dyDescent="0.35">
       <c r="S16" t="s">
         <v>34</v>
       </c>
@@ -11347,7 +11337,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="17" spans="34:48" x14ac:dyDescent="0.3">
+    <row r="17" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AM17" t="s">
         <v>162</v>
       </c>
@@ -11355,22 +11345,22 @@
         <v>171</v>
       </c>
     </row>
-    <row r="18" spans="34:48" x14ac:dyDescent="0.3">
+    <row r="18" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AQ18" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="19" spans="34:48" x14ac:dyDescent="0.3">
-      <c r="AQ19" s="7" t="s">
+    <row r="19" spans="34:48" x14ac:dyDescent="0.35">
+      <c r="AQ19" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="22" spans="34:48" x14ac:dyDescent="0.3">
+    <row r="22" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AH22" s="5" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="23" spans="34:48" x14ac:dyDescent="0.3">
+    <row r="23" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AH23" s="6" t="s">
         <v>115</v>
       </c>
@@ -11405,7 +11395,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="24" spans="34:48" x14ac:dyDescent="0.3">
+    <row r="24" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AH24" t="s">
         <v>129</v>
       </c>
@@ -11431,7 +11421,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="25" spans="34:48" x14ac:dyDescent="0.3">
+    <row r="25" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AH25" t="s">
         <v>137</v>
       </c>
@@ -11454,7 +11444,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="26" spans="34:48" x14ac:dyDescent="0.3">
+    <row r="26" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AJ26" t="s">
         <v>144</v>
       </c>
@@ -11465,7 +11455,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="27" spans="34:48" x14ac:dyDescent="0.3">
+    <row r="27" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AJ27" t="s">
         <v>147</v>
       </c>
@@ -11476,7 +11466,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="28" spans="34:48" x14ac:dyDescent="0.3">
+    <row r="28" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AJ28" t="s">
         <v>149</v>
       </c>
@@ -11484,12 +11474,12 @@
         <v>150</v>
       </c>
     </row>
-    <row r="29" spans="34:48" x14ac:dyDescent="0.3">
+    <row r="29" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AQ29" s="5" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="30" spans="34:48" x14ac:dyDescent="0.3">
+    <row r="30" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AH30" s="5" t="s">
         <v>151</v>
       </c>
@@ -11512,7 +11502,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="31" spans="34:48" x14ac:dyDescent="0.3">
+    <row r="31" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AH31" s="6" t="s">
         <v>129</v>
       </c>
@@ -11538,7 +11528,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="32" spans="34:48" x14ac:dyDescent="0.3">
+    <row r="32" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AH32" t="s">
         <v>153</v>
       </c>
@@ -11564,7 +11554,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="33" spans="34:51" x14ac:dyDescent="0.3">
+    <row r="33" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AH33" t="s">
         <v>155</v>
       </c>
@@ -11584,7 +11574,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="34" spans="34:51" x14ac:dyDescent="0.3">
+    <row r="34" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AI34" t="s">
         <v>157</v>
       </c>
@@ -11597,9 +11587,8 @@
       <c r="AV34" t="s">
         <v>194</v>
       </c>
-      <c r="AY34" s="7"/>
     </row>
-    <row r="35" spans="34:51" x14ac:dyDescent="0.3">
+    <row r="35" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AI35" t="s">
         <v>113</v>
       </c>
@@ -11613,7 +11602,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="36" spans="34:51" x14ac:dyDescent="0.3">
+    <row r="36" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AU36" t="s">
         <v>211</v>
       </c>
@@ -11621,10 +11610,10 @@
         <v>196</v>
       </c>
     </row>
-    <row r="37" spans="34:51" x14ac:dyDescent="0.3">
+    <row r="37" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AL37" s="5"/>
     </row>
-    <row r="38" spans="34:51" x14ac:dyDescent="0.3">
+    <row r="38" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AL38" s="6"/>
       <c r="AM38" s="6"/>
       <c r="AN38" s="6"/>
@@ -11652,85 +11641,85 @@
       <selection activeCell="X7" sqref="X7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="35.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.5546875" customWidth="1"/>
-    <col min="9" max="9" width="17.21875" customWidth="1"/>
-    <col min="10" max="10" width="14.77734375" customWidth="1"/>
-    <col min="13" max="13" width="14.44140625" customWidth="1"/>
+    <col min="1" max="1" width="25.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.54296875" customWidth="1"/>
+    <col min="9" max="9" width="17.1796875" customWidth="1"/>
+    <col min="10" max="10" width="14.81640625" customWidth="1"/>
+    <col min="13" max="13" width="14.453125" customWidth="1"/>
     <col min="15" max="15" width="25" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="26.5546875" customWidth="1"/>
-    <col min="17" max="17" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.77734375" customWidth="1"/>
-    <col min="19" max="19" width="17.77734375" customWidth="1"/>
-    <col min="20" max="20" width="19.21875" customWidth="1"/>
-    <col min="21" max="21" width="17.77734375" customWidth="1"/>
-    <col min="22" max="22" width="18.77734375" customWidth="1"/>
-    <col min="26" max="26" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="26.54296875" customWidth="1"/>
+    <col min="17" max="17" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.81640625" customWidth="1"/>
+    <col min="19" max="19" width="17.81640625" customWidth="1"/>
+    <col min="20" max="20" width="19.1796875" customWidth="1"/>
+    <col min="21" max="21" width="17.81640625" customWidth="1"/>
+    <col min="22" max="22" width="18.81640625" customWidth="1"/>
+    <col min="26" max="26" width="11.81640625" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="15" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="28.5546875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.44140625" customWidth="1"/>
-    <col min="30" max="30" width="15.21875" customWidth="1"/>
-    <col min="31" max="31" width="26.21875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="14.77734375" customWidth="1"/>
-    <col min="33" max="33" width="12.5546875" customWidth="1"/>
+    <col min="28" max="28" width="28.54296875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.453125" customWidth="1"/>
+    <col min="30" max="30" width="15.1796875" customWidth="1"/>
+    <col min="31" max="31" width="26.1796875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="14.81640625" customWidth="1"/>
+    <col min="33" max="33" width="12.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A1" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="19" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="20" t="s">
+      <c r="P1" s="14"/>
+      <c r="Q1" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="R1" s="20"/>
-      <c r="S1" s="20"/>
-      <c r="T1" s="20"/>
-      <c r="U1" s="20"/>
-      <c r="V1" s="10" t="s">
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="W1" s="10"/>
-      <c r="X1" s="10"/>
-      <c r="Y1" s="10"/>
-      <c r="Z1" s="16" t="s">
+      <c r="W1" s="9"/>
+      <c r="X1" s="9"/>
+      <c r="Y1" s="9"/>
+      <c r="Z1" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="AA1" s="16"/>
-      <c r="AB1" s="16"/>
-      <c r="AC1" s="16"/>
-      <c r="AD1" s="17" t="s">
+      <c r="AA1" s="11"/>
+      <c r="AB1" s="11"/>
+      <c r="AC1" s="11"/>
+      <c r="AD1" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="AE1" s="17"/>
-      <c r="AF1" s="17"/>
-      <c r="AG1" s="17"/>
+      <c r="AE1" s="12"/>
+      <c r="AF1" s="12"/>
+      <c r="AG1" s="12"/>
     </row>
-    <row r="2" spans="1:33" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:33" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>66</v>
       </c>
@@ -11831,7 +11820,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>81</v>
       </c>
@@ -11897,7 +11886,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>82</v>
       </c>
@@ -11948,7 +11937,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>83</v>
       </c>
@@ -12002,7 +11991,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>84</v>
       </c>
@@ -12044,7 +12033,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>85</v>
       </c>
@@ -12089,7 +12078,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>86</v>
       </c>
@@ -12127,7 +12116,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>87</v>
       </c>
@@ -12165,7 +12154,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>33</v>
       </c>
@@ -12200,7 +12189,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>32</v>
       </c>
@@ -12232,7 +12221,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>30</v>
       </c>
@@ -12251,7 +12240,7 @@
       <c r="G12" t="s">
         <v>76</v>
       </c>
-      <c r="Q12" s="7" t="s">
+      <c r="Q12" t="s">
         <v>221</v>
       </c>
       <c r="R12" t="s">
@@ -12264,7 +12253,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>79</v>
       </c>
@@ -12293,7 +12282,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>31</v>
       </c>
@@ -12316,7 +12305,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>35</v>
       </c>
@@ -12342,7 +12331,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>34</v>
       </c>
@@ -12359,7 +12348,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="17" spans="17:28" x14ac:dyDescent="0.3">
+    <row r="17" spans="17:28" x14ac:dyDescent="0.35">
       <c r="Q17" t="s">
         <v>119</v>
       </c>
@@ -12370,7 +12359,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="18" spans="17:28" x14ac:dyDescent="0.3">
+    <row r="18" spans="17:28" x14ac:dyDescent="0.35">
       <c r="Q18" t="s">
         <v>120</v>
       </c>
@@ -12384,7 +12373,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="19" spans="17:28" x14ac:dyDescent="0.3">
+    <row r="19" spans="17:28" x14ac:dyDescent="0.35">
       <c r="R19" t="s">
         <v>152</v>
       </c>
@@ -12398,7 +12387,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="20" spans="17:28" x14ac:dyDescent="0.3">
+    <row r="20" spans="17:28" x14ac:dyDescent="0.35">
       <c r="S20" t="s">
         <v>156</v>
       </c>
@@ -12409,7 +12398,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="21" spans="17:28" x14ac:dyDescent="0.3">
+    <row r="21" spans="17:28" x14ac:dyDescent="0.35">
       <c r="S21" t="s">
         <v>228</v>
       </c>
@@ -12423,7 +12412,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="22" spans="17:28" x14ac:dyDescent="0.3">
+    <row r="22" spans="17:28" x14ac:dyDescent="0.35">
       <c r="S22" t="s">
         <v>113</v>
       </c>
@@ -12434,7 +12423,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="23" spans="17:28" x14ac:dyDescent="0.3">
+    <row r="23" spans="17:28" x14ac:dyDescent="0.35">
       <c r="Q23" t="s">
         <v>127</v>
       </c>
@@ -12445,7 +12434,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="24" spans="17:28" x14ac:dyDescent="0.3">
+    <row r="24" spans="17:28" x14ac:dyDescent="0.35">
       <c r="R24" t="s">
         <v>141</v>
       </c>
@@ -12453,7 +12442,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="25" spans="17:28" x14ac:dyDescent="0.3">
+    <row r="25" spans="17:28" x14ac:dyDescent="0.35">
       <c r="R25" t="s">
         <v>146</v>
       </c>
@@ -12461,7 +12450,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="26" spans="17:28" x14ac:dyDescent="0.3">
+    <row r="26" spans="17:28" x14ac:dyDescent="0.35">
       <c r="R26" t="s">
         <v>148</v>
       </c>
@@ -12469,7 +12458,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="27" spans="17:28" x14ac:dyDescent="0.3">
+    <row r="27" spans="17:28" x14ac:dyDescent="0.35">
       <c r="R27" t="s">
         <v>150</v>
       </c>
@@ -12483,7 +12472,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="28" spans="17:28" x14ac:dyDescent="0.3">
+    <row r="28" spans="17:28" x14ac:dyDescent="0.35">
       <c r="Q28" t="s">
         <v>122</v>
       </c>
@@ -12494,7 +12483,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="29" spans="17:28" x14ac:dyDescent="0.3">
+    <row r="29" spans="17:28" x14ac:dyDescent="0.35">
       <c r="R29" t="s">
         <v>142</v>
       </c>
@@ -12505,7 +12494,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="30" spans="17:28" x14ac:dyDescent="0.3">
+    <row r="30" spans="17:28" x14ac:dyDescent="0.35">
       <c r="Q30" t="s">
         <v>123</v>
       </c>
@@ -12516,7 +12505,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="31" spans="17:28" x14ac:dyDescent="0.3">
+    <row r="31" spans="17:28" x14ac:dyDescent="0.35">
       <c r="R31" t="s">
         <v>143</v>
       </c>
@@ -12524,7 +12513,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="32" spans="17:28" x14ac:dyDescent="0.3">
+    <row r="32" spans="17:28" x14ac:dyDescent="0.35">
       <c r="Q32" t="s">
         <v>128</v>
       </c>
@@ -12532,12 +12521,12 @@
         <v>113</v>
       </c>
     </row>
-    <row r="33" spans="26:26" x14ac:dyDescent="0.3">
+    <row r="33" spans="26:26" x14ac:dyDescent="0.35">
       <c r="Z33" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="34" spans="26:26" x14ac:dyDescent="0.3">
+    <row r="34" spans="26:26" x14ac:dyDescent="0.35">
       <c r="Z34" t="s">
         <v>150</v>
       </c>
@@ -12563,17 +12552,8 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006AB0F5ECCA53DA47AEBDEAEE6167985F" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="abe771af6212f3f785694fa6f4ad1686">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1b05d82d297216baf5b26c55225140df">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006AB0F5ECCA53DA47AEBDEAEE6167985F" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="125e2131eddd38cce17ebc9527d7a9d7">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="553f2d8843fd2aa64b81f9e8c63a6619">
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
@@ -12685,31 +12665,32 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D459FE-C8DA-484C-BC8E-5EB6A351EBC9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{296C6747-B437-4BFD-90D3-AF1F913D3FA0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{98689EFB-AA54-4F0A-BFA2-D0FFA1F84EE0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
@@ -12722,4 +12703,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D459FE-C8DA-484C-BC8E-5EB6A351EBC9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Tsagarakis.xlsx
+++ b/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Tsagarakis.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://share.dtu.dk/sites/SEAwise_517900/Shared Documents/WP4 Ecological effects of fisheries/Task 4.1/Data extraction/Data extraction files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F69FD343-41D8-4306-BEB5-054058983120}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{150CF4F4-0FE0-42CF-9AC8-577EBBCF87CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Drop-down overview" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DataExtraction!$A$2:$AX$49</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DataExtraction!$A$2:$AX$51</definedName>
     <definedName name="Benthic_epifauna">Validation!$AI$32:$AI$35</definedName>
     <definedName name="Benthos">Validation!$AN$24:$AN$25</definedName>
     <definedName name="Catch_and_bycatch">Validation!$AM$15:$AM$17</definedName>
@@ -2395,7 +2395,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2353" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2427" uniqueCount="470">
   <si>
     <t>SearchID</t>
   </si>
@@ -3711,9 +3711,6 @@
     <t>fishing presence</t>
   </si>
   <si>
-    <t>abundance _ abundance</t>
-  </si>
-  <si>
     <t>fish size</t>
   </si>
   <si>
@@ -3793,6 +3790,21 @@
   </si>
   <si>
     <t>The light of purse-seine plays an important role to attract, aggregate and concentrate food items which the pelagic fishes, particularly round herring E. teres aggregate to feed on.</t>
+  </si>
+  <si>
+    <t>Marine protected area</t>
+  </si>
+  <si>
+    <t>Species richness (Margalef’s d) and evenness (Simpson’s 1 – λ) had lowest values inside the CIMR and highest at the border zone, with a subsequent weak decline with increasing distance from the CIMR (Fig. 4). In contrast, average taxonomic distinctness measures Δ* and Δ+ were highest in the CIMR and declined progressively from the BOR, to both the ADJ and FAR zones (Fig. 4).</t>
+  </si>
+  <si>
+    <t>species richness _ species evenness _ taxonomic distinctness</t>
+  </si>
+  <si>
+    <t>mean trophic level</t>
+  </si>
+  <si>
+    <t>there was no difference in mean trophic level between the CIMR and the exploited areas</t>
   </si>
 </sst>
 </file>
@@ -4266,10 +4278,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AX49"/>
+  <dimension ref="A1:AX51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AP1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AX20" sqref="AX20"/>
+    <sheetView tabSelected="1" topLeftCell="AO2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AX54" sqref="AX54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6786,7 +6798,7 @@
         <v>207</v>
       </c>
       <c r="AX20" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="21" spans="1:50" x14ac:dyDescent="0.35">
@@ -8420,7 +8432,7 @@
         <v>161</v>
       </c>
       <c r="AO33" t="s">
-        <v>437</v>
+        <v>465</v>
       </c>
       <c r="AQ33" t="s">
         <v>164</v>
@@ -8432,13 +8444,13 @@
         <v>189</v>
       </c>
       <c r="AU33" t="s">
-        <v>438</v>
+        <v>417</v>
       </c>
       <c r="AV33" t="s">
         <v>199</v>
       </c>
       <c r="AW33" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="34" spans="1:50" x14ac:dyDescent="0.35">
@@ -8542,7 +8554,7 @@
         <v>161</v>
       </c>
       <c r="AO34" t="s">
-        <v>437</v>
+        <v>465</v>
       </c>
       <c r="AQ34" t="s">
         <v>164</v>
@@ -8554,13 +8566,13 @@
         <v>189</v>
       </c>
       <c r="AU34" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="AV34" t="s">
         <v>200</v>
       </c>
       <c r="AW34" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="35" spans="1:50" x14ac:dyDescent="0.35">
@@ -8643,7 +8655,7 @@
         <v>3</v>
       </c>
       <c r="AC35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF35" s="10" t="s">
         <v>253</v>
@@ -8658,7 +8670,7 @@
         <v>144</v>
       </c>
       <c r="AL35" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AM35" t="s">
         <v>232</v>
@@ -8667,7 +8679,7 @@
         <v>161</v>
       </c>
       <c r="AO35" t="s">
-        <v>437</v>
+        <v>465</v>
       </c>
       <c r="AQ35" t="s">
         <v>164</v>
@@ -8679,16 +8691,16 @@
         <v>189</v>
       </c>
       <c r="AU35" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="AV35" t="s">
         <v>200</v>
       </c>
       <c r="AW35" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AX35" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="36" spans="1:50" x14ac:dyDescent="0.35">
@@ -8771,7 +8783,7 @@
         <v>3</v>
       </c>
       <c r="AC36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF36" s="10" t="s">
         <v>253</v>
@@ -8786,7 +8798,7 @@
         <v>144</v>
       </c>
       <c r="AL36" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="AM36" t="s">
         <v>232</v>
@@ -8795,7 +8807,7 @@
         <v>161</v>
       </c>
       <c r="AO36" t="s">
-        <v>437</v>
+        <v>465</v>
       </c>
       <c r="AQ36" t="s">
         <v>164</v>
@@ -8807,57 +8819,57 @@
         <v>189</v>
       </c>
       <c r="AU36" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="AV36" t="s">
         <v>200</v>
       </c>
       <c r="AW36" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AX36" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="37" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A37" s="10" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="B37" s="10" t="s">
         <v>243</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="E37" s="10">
-        <v>2001</v>
+        <v>2009</v>
       </c>
       <c r="F37" s="10" t="s">
         <v>338</v>
       </c>
       <c r="G37" s="10" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="H37" s="10" t="s">
         <v>248</v>
       </c>
       <c r="I37" s="10" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="J37" s="10" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="K37" s="10" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="L37" s="10" t="s">
         <v>248</v>
       </c>
       <c r="M37" s="10" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="N37" s="10" t="s">
         <v>251</v>
@@ -8866,44 +8878,41 @@
         <v>252</v>
       </c>
       <c r="P37" s="10" t="s">
-        <v>352</v>
+        <v>294</v>
       </c>
       <c r="Q37" s="10" t="s">
         <v>21</v>
       </c>
       <c r="S37" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T37" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="U37" t="s">
         <v>57</v>
       </c>
       <c r="V37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W37" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="X37" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Z37" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="AA37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC37">
         <v>3</v>
       </c>
-      <c r="AD37" t="s">
-        <v>446</v>
-      </c>
       <c r="AF37" s="10" t="s">
         <v>253</v>
       </c>
@@ -8911,75 +8920,81 @@
         <v>110</v>
       </c>
       <c r="AH37" t="s">
-        <v>116</v>
-      </c>
-      <c r="AL37" t="s">
-        <v>447</v>
+        <v>117</v>
+      </c>
+      <c r="AI37" t="s">
+        <v>144</v>
       </c>
       <c r="AM37" t="s">
-        <v>159</v>
+        <v>232</v>
+      </c>
+      <c r="AN37" t="s">
+        <v>161</v>
       </c>
       <c r="AO37" t="s">
-        <v>444</v>
+        <v>465</v>
       </c>
       <c r="AQ37" t="s">
         <v>164</v>
       </c>
       <c r="AR37" t="s">
-        <v>239</v>
+        <v>170</v>
       </c>
       <c r="AS37" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="AU37" t="s">
-        <v>445</v>
+        <v>467</v>
       </c>
       <c r="AV37" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="AW37" t="s">
-        <v>210</v>
+        <v>209</v>
+      </c>
+      <c r="AX37" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="38" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A38" s="10" t="s">
-        <v>353</v>
+        <v>335</v>
       </c>
       <c r="B38" s="10" t="s">
         <v>243</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>354</v>
+        <v>336</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>355</v>
+        <v>337</v>
       </c>
       <c r="E38" s="10">
-        <v>1998</v>
+        <v>2009</v>
       </c>
       <c r="F38" s="10" t="s">
-        <v>356</v>
+        <v>338</v>
       </c>
       <c r="G38" s="10" t="s">
-        <v>357</v>
+        <v>339</v>
       </c>
       <c r="H38" s="10" t="s">
-        <v>320</v>
+        <v>248</v>
       </c>
       <c r="I38" s="10" t="s">
-        <v>358</v>
+        <v>340</v>
       </c>
       <c r="J38" s="10" t="s">
-        <v>359</v>
+        <v>341</v>
       </c>
       <c r="K38" s="10" t="s">
-        <v>360</v>
+        <v>342</v>
       </c>
       <c r="L38" s="10" t="s">
         <v>248</v>
       </c>
       <c r="M38" s="10" t="s">
-        <v>361</v>
+        <v>343</v>
       </c>
       <c r="N38" s="10" t="s">
         <v>251</v>
@@ -8988,37 +9003,37 @@
         <v>252</v>
       </c>
       <c r="P38" s="10" t="s">
-        <v>275</v>
+        <v>294</v>
       </c>
       <c r="Q38" s="10" t="s">
         <v>21</v>
       </c>
       <c r="S38" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="T38" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="U38" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="V38" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W38" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="X38" t="s">
         <v>215</v>
       </c>
       <c r="Z38" t="s">
-        <v>448</v>
+        <v>418</v>
       </c>
       <c r="AA38">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB38">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC38">
         <v>3</v>
@@ -9039,69 +9054,72 @@
         <v>232</v>
       </c>
       <c r="AN38" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AO38" t="s">
-        <v>437</v>
+        <v>465</v>
       </c>
       <c r="AQ38" t="s">
         <v>164</v>
       </c>
       <c r="AR38" t="s">
-        <v>239</v>
+        <v>170</v>
       </c>
       <c r="AS38" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="AU38" t="s">
-        <v>449</v>
+        <v>468</v>
       </c>
       <c r="AV38" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="AW38" t="s">
-        <v>208</v>
+        <v>210</v>
+      </c>
+      <c r="AX38" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="39" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A39" s="10" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="B39" s="10" t="s">
         <v>243</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="E39" s="10">
-        <v>1998</v>
+        <v>2001</v>
       </c>
       <c r="F39" s="10" t="s">
-        <v>356</v>
+        <v>338</v>
       </c>
       <c r="G39" s="10" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="H39" s="10" t="s">
-        <v>320</v>
+        <v>248</v>
       </c>
       <c r="I39" s="10" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="J39" s="10" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="K39" s="10" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="L39" s="10" t="s">
         <v>248</v>
       </c>
       <c r="M39" s="10" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="N39" s="10" t="s">
         <v>251</v>
@@ -9110,19 +9128,19 @@
         <v>252</v>
       </c>
       <c r="P39" s="10" t="s">
-        <v>275</v>
+        <v>352</v>
       </c>
       <c r="Q39" s="10" t="s">
         <v>21</v>
       </c>
       <c r="S39" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="T39" t="s">
         <v>46</v>
       </c>
       <c r="U39" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="V39" t="s">
         <v>44</v>
@@ -9131,10 +9149,10 @@
         <v>55</v>
       </c>
       <c r="X39" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Z39" t="s">
-        <v>448</v>
+        <v>428</v>
       </c>
       <c r="AA39">
         <v>2</v>
@@ -9145,6 +9163,9 @@
       <c r="AC39">
         <v>3</v>
       </c>
+      <c r="AD39" t="s">
+        <v>445</v>
+      </c>
       <c r="AF39" s="10" t="s">
         <v>253</v>
       </c>
@@ -9152,19 +9173,16 @@
         <v>110</v>
       </c>
       <c r="AH39" t="s">
-        <v>117</v>
-      </c>
-      <c r="AI39" t="s">
-        <v>144</v>
+        <v>116</v>
+      </c>
+      <c r="AL39" t="s">
+        <v>446</v>
       </c>
       <c r="AM39" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN39" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="AO39" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="AQ39" t="s">
         <v>164</v>
@@ -9173,16 +9191,16 @@
         <v>239</v>
       </c>
       <c r="AS39" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AU39" t="s">
-        <v>429</v>
+        <v>444</v>
       </c>
       <c r="AV39" t="s">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="AW39" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="40" spans="1:50" x14ac:dyDescent="0.35">
@@ -9256,7 +9274,7 @@
         <v>215</v>
       </c>
       <c r="Z40" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="AA40">
         <v>2</v>
@@ -9298,10 +9316,10 @@
         <v>176</v>
       </c>
       <c r="AU40" t="s">
-        <v>429</v>
+        <v>448</v>
       </c>
       <c r="AV40" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AW40" t="s">
         <v>208</v>
@@ -9378,7 +9396,7 @@
         <v>215</v>
       </c>
       <c r="Z41" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="AA41">
         <v>2</v>
@@ -9396,13 +9414,16 @@
         <v>110</v>
       </c>
       <c r="AH41" t="s">
-        <v>124</v>
+        <v>117</v>
+      </c>
+      <c r="AI41" t="s">
+        <v>144</v>
       </c>
       <c r="AM41" t="s">
         <v>232</v>
       </c>
       <c r="AN41" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AO41" t="s">
         <v>437</v>
@@ -9417,54 +9438,54 @@
         <v>176</v>
       </c>
       <c r="AU41" t="s">
-        <v>450</v>
+        <v>429</v>
       </c>
       <c r="AV41" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="AW41" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="42" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A42" s="10" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="B42" s="10" t="s">
         <v>243</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="E42" s="10">
         <v>1998</v>
       </c>
       <c r="F42" s="10" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="G42" s="10" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="H42" s="10" t="s">
-        <v>300</v>
+        <v>320</v>
       </c>
       <c r="I42" s="10" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="J42" s="10" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="K42" s="10" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="L42" s="10" t="s">
         <v>248</v>
       </c>
       <c r="M42" s="10" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="N42" s="10" t="s">
         <v>251</v>
@@ -9473,31 +9494,31 @@
         <v>252</v>
       </c>
       <c r="P42" s="10" t="s">
-        <v>248</v>
+        <v>275</v>
       </c>
       <c r="Q42" s="10" t="s">
         <v>21</v>
       </c>
       <c r="S42" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T42" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="U42" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="V42" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="W42" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="X42" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Z42" t="s">
-        <v>405</v>
+        <v>447</v>
       </c>
       <c r="AA42">
         <v>2</v>
@@ -9508,32 +9529,26 @@
       <c r="AC42">
         <v>3</v>
       </c>
-      <c r="AD42" t="s">
-        <v>453</v>
-      </c>
       <c r="AF42" s="10" t="s">
         <v>253</v>
       </c>
       <c r="AG42" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="AH42" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="AI42" t="s">
-        <v>140</v>
-      </c>
-      <c r="AJ42" t="s">
-        <v>113</v>
-      </c>
-      <c r="AL42" t="s">
-        <v>451</v>
+        <v>144</v>
       </c>
       <c r="AM42" t="s">
-        <v>159</v>
+        <v>232</v>
+      </c>
+      <c r="AN42" t="s">
+        <v>160</v>
       </c>
       <c r="AO42" t="s">
-        <v>452</v>
+        <v>437</v>
       </c>
       <c r="AQ42" t="s">
         <v>164</v>
@@ -9545,54 +9560,54 @@
         <v>176</v>
       </c>
       <c r="AU42" t="s">
-        <v>417</v>
+        <v>429</v>
       </c>
       <c r="AV42" t="s">
         <v>199</v>
       </c>
       <c r="AW42" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="43" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A43" s="10" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="B43" s="10" t="s">
         <v>243</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="E43" s="10">
         <v>1998</v>
       </c>
       <c r="F43" s="10" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="G43" s="10" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="H43" s="10" t="s">
-        <v>300</v>
+        <v>320</v>
       </c>
       <c r="I43" s="10" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="J43" s="10" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="K43" s="10" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="L43" s="10" t="s">
         <v>248</v>
       </c>
       <c r="M43" s="10" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="N43" s="10" t="s">
         <v>251</v>
@@ -9601,31 +9616,31 @@
         <v>252</v>
       </c>
       <c r="P43" s="10" t="s">
-        <v>248</v>
+        <v>275</v>
       </c>
       <c r="Q43" s="10" t="s">
         <v>21</v>
       </c>
       <c r="S43" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T43" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="U43" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="V43" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="W43" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="X43" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Z43" t="s">
-        <v>405</v>
+        <v>447</v>
       </c>
       <c r="AA43">
         <v>2</v>
@@ -9636,35 +9651,23 @@
       <c r="AC43">
         <v>3</v>
       </c>
-      <c r="AD43" t="s">
-        <v>453</v>
-      </c>
       <c r="AF43" s="10" t="s">
         <v>253</v>
       </c>
       <c r="AG43" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="AH43" t="s">
-        <v>120</v>
-      </c>
-      <c r="AI43" t="s">
-        <v>140</v>
-      </c>
-      <c r="AJ43" t="s">
-        <v>113</v>
-      </c>
-      <c r="AL43" t="s">
-        <v>454</v>
+        <v>124</v>
       </c>
       <c r="AM43" t="s">
         <v>232</v>
       </c>
       <c r="AN43" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AO43" t="s">
-        <v>452</v>
+        <v>437</v>
       </c>
       <c r="AQ43" t="s">
         <v>164</v>
@@ -9676,54 +9679,54 @@
         <v>176</v>
       </c>
       <c r="AU43" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="AV43" t="s">
-        <v>238</v>
+        <v>206</v>
       </c>
       <c r="AW43" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="44" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A44" s="10" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="B44" s="10" t="s">
         <v>243</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="E44" s="10">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="F44" s="10" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>340</v>
+        <v>366</v>
       </c>
       <c r="H44" s="10" t="s">
         <v>300</v>
       </c>
       <c r="I44" s="10" t="s">
-        <v>301</v>
+        <v>367</v>
       </c>
       <c r="J44" s="10" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="K44" s="10" t="s">
-        <v>248</v>
+        <v>369</v>
       </c>
       <c r="L44" s="10" t="s">
         <v>248</v>
       </c>
       <c r="M44" s="10" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="N44" s="10" t="s">
         <v>251</v>
@@ -9738,25 +9741,25 @@
         <v>21</v>
       </c>
       <c r="S44" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="T44" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="U44" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="V44" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="W44" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="X44" t="s">
-        <v>69</v>
+        <v>216</v>
       </c>
       <c r="Z44" t="s">
-        <v>456</v>
+        <v>405</v>
       </c>
       <c r="AA44">
         <v>2</v>
@@ -9765,31 +9768,34 @@
         <v>2</v>
       </c>
       <c r="AC44">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="AD44" t="s">
+        <v>452</v>
       </c>
       <c r="AF44" s="10" t="s">
-        <v>457</v>
+        <v>253</v>
       </c>
       <c r="AG44" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="AH44" t="s">
-        <v>220</v>
+        <v>120</v>
       </c>
       <c r="AI44" t="s">
-        <v>145</v>
+        <v>140</v>
+      </c>
+      <c r="AJ44" t="s">
+        <v>113</v>
       </c>
       <c r="AL44" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="AM44" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN44" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="AO44" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="AQ44" t="s">
         <v>164</v>
@@ -9798,7 +9804,7 @@
         <v>239</v>
       </c>
       <c r="AS44" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AU44" t="s">
         <v>417</v>
@@ -9807,48 +9813,48 @@
         <v>199</v>
       </c>
       <c r="AW44" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="45" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A45" s="10" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="B45" s="10" t="s">
         <v>243</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="E45" s="10">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="F45" s="10" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="G45" s="10" t="s">
-        <v>340</v>
+        <v>366</v>
       </c>
       <c r="H45" s="10" t="s">
         <v>300</v>
       </c>
       <c r="I45" s="10" t="s">
-        <v>301</v>
+        <v>367</v>
       </c>
       <c r="J45" s="10" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="K45" s="10" t="s">
-        <v>248</v>
+        <v>369</v>
       </c>
       <c r="L45" s="10" t="s">
         <v>248</v>
       </c>
       <c r="M45" s="10" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="N45" s="10" t="s">
         <v>251</v>
@@ -9863,25 +9869,25 @@
         <v>21</v>
       </c>
       <c r="S45" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="T45" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="U45" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="V45" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="W45" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="X45" t="s">
-        <v>69</v>
+        <v>216</v>
       </c>
       <c r="Z45" t="s">
-        <v>456</v>
+        <v>405</v>
       </c>
       <c r="AA45">
         <v>2</v>
@@ -9890,31 +9896,37 @@
         <v>2</v>
       </c>
       <c r="AC45">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="AD45" t="s">
+        <v>452</v>
       </c>
       <c r="AF45" s="10" t="s">
-        <v>457</v>
+        <v>253</v>
       </c>
       <c r="AG45" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="AH45" t="s">
-        <v>220</v>
+        <v>120</v>
       </c>
       <c r="AI45" t="s">
-        <v>145</v>
+        <v>140</v>
+      </c>
+      <c r="AJ45" t="s">
+        <v>113</v>
       </c>
       <c r="AL45" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="AM45" t="s">
         <v>232</v>
       </c>
       <c r="AN45" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AO45" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="AQ45" t="s">
         <v>164</v>
@@ -9923,16 +9935,16 @@
         <v>239</v>
       </c>
       <c r="AS45" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AU45" t="s">
-        <v>417</v>
+        <v>454</v>
       </c>
       <c r="AV45" t="s">
-        <v>199</v>
+        <v>238</v>
       </c>
       <c r="AW45" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="46" spans="1:50" x14ac:dyDescent="0.35">
@@ -10006,7 +10018,7 @@
         <v>69</v>
       </c>
       <c r="Z46" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="AA46">
         <v>2</v>
@@ -10018,7 +10030,7 @@
         <v>2</v>
       </c>
       <c r="AF46" s="10" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="AG46" t="s">
         <v>109</v>
@@ -10027,10 +10039,10 @@
         <v>220</v>
       </c>
       <c r="AI46" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="AL46" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AM46" t="s">
         <v>232</v>
@@ -10039,7 +10051,7 @@
         <v>162</v>
       </c>
       <c r="AO46" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AQ46" t="s">
         <v>164</v>
@@ -10057,7 +10069,7 @@
         <v>199</v>
       </c>
       <c r="AW46" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="47" spans="1:50" x14ac:dyDescent="0.35">
@@ -10131,7 +10143,7 @@
         <v>69</v>
       </c>
       <c r="Z47" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="AA47">
         <v>2</v>
@@ -10143,7 +10155,7 @@
         <v>2</v>
       </c>
       <c r="AF47" s="10" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="AG47" t="s">
         <v>109</v>
@@ -10152,10 +10164,10 @@
         <v>220</v>
       </c>
       <c r="AI47" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="AL47" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="AM47" t="s">
         <v>232</v>
@@ -10164,7 +10176,7 @@
         <v>162</v>
       </c>
       <c r="AO47" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AQ47" t="s">
         <v>164</v>
@@ -10182,7 +10194,7 @@
         <v>199</v>
       </c>
       <c r="AW47" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="48" spans="1:50" x14ac:dyDescent="0.35">
@@ -10256,7 +10268,7 @@
         <v>69</v>
       </c>
       <c r="Z48" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="AA48">
         <v>2</v>
@@ -10268,7 +10280,7 @@
         <v>2</v>
       </c>
       <c r="AF48" s="10" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="AG48" t="s">
         <v>109</v>
@@ -10277,10 +10289,10 @@
         <v>220</v>
       </c>
       <c r="AI48" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="AL48" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="AM48" t="s">
         <v>232</v>
@@ -10289,7 +10301,7 @@
         <v>162</v>
       </c>
       <c r="AO48" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AQ48" t="s">
         <v>164</v>
@@ -10307,7 +10319,7 @@
         <v>199</v>
       </c>
       <c r="AW48" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="49" spans="1:49" x14ac:dyDescent="0.35">
@@ -10381,7 +10393,7 @@
         <v>69</v>
       </c>
       <c r="Z49" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="AA49">
         <v>2</v>
@@ -10393,28 +10405,28 @@
         <v>2</v>
       </c>
       <c r="AF49" s="10" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="AG49" t="s">
         <v>109</v>
       </c>
       <c r="AH49" t="s">
-        <v>117</v>
+        <v>220</v>
       </c>
       <c r="AI49" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="AL49" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="AM49" t="s">
         <v>232</v>
       </c>
       <c r="AN49" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AO49" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AQ49" t="s">
         <v>164</v>
@@ -10432,6 +10444,256 @@
         <v>199</v>
       </c>
       <c r="AW49" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="50" spans="1:49" x14ac:dyDescent="0.35">
+      <c r="A50" s="10" t="s">
+        <v>371</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>372</v>
+      </c>
+      <c r="D50" s="10" t="s">
+        <v>373</v>
+      </c>
+      <c r="E50" s="10">
+        <v>1997</v>
+      </c>
+      <c r="F50" s="10" t="s">
+        <v>374</v>
+      </c>
+      <c r="G50" s="10" t="s">
+        <v>340</v>
+      </c>
+      <c r="H50" s="10" t="s">
+        <v>300</v>
+      </c>
+      <c r="I50" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="J50" s="10" t="s">
+        <v>375</v>
+      </c>
+      <c r="K50" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="L50" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="M50" s="10" t="s">
+        <v>376</v>
+      </c>
+      <c r="N50" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="O50" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="P50" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q50" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="S50" t="s">
+        <v>31</v>
+      </c>
+      <c r="T50" t="s">
+        <v>46</v>
+      </c>
+      <c r="U50" t="s">
+        <v>59</v>
+      </c>
+      <c r="V50" t="s">
+        <v>46</v>
+      </c>
+      <c r="W50" t="s">
+        <v>55</v>
+      </c>
+      <c r="X50" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z50" t="s">
+        <v>455</v>
+      </c>
+      <c r="AA50">
+        <v>2</v>
+      </c>
+      <c r="AB50">
+        <v>2</v>
+      </c>
+      <c r="AC50">
+        <v>2</v>
+      </c>
+      <c r="AF50" s="10" t="s">
+        <v>456</v>
+      </c>
+      <c r="AG50" t="s">
+        <v>109</v>
+      </c>
+      <c r="AH50" t="s">
+        <v>220</v>
+      </c>
+      <c r="AI50" t="s">
+        <v>131</v>
+      </c>
+      <c r="AL50" t="s">
+        <v>462</v>
+      </c>
+      <c r="AM50" t="s">
+        <v>232</v>
+      </c>
+      <c r="AN50" t="s">
+        <v>162</v>
+      </c>
+      <c r="AO50" t="s">
+        <v>458</v>
+      </c>
+      <c r="AQ50" t="s">
+        <v>164</v>
+      </c>
+      <c r="AR50" t="s">
+        <v>239</v>
+      </c>
+      <c r="AS50" t="s">
+        <v>175</v>
+      </c>
+      <c r="AU50" t="s">
+        <v>417</v>
+      </c>
+      <c r="AV50" t="s">
+        <v>199</v>
+      </c>
+      <c r="AW50" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="51" spans="1:49" x14ac:dyDescent="0.35">
+      <c r="A51" s="10" t="s">
+        <v>371</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>372</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>373</v>
+      </c>
+      <c r="E51" s="10">
+        <v>1997</v>
+      </c>
+      <c r="F51" s="10" t="s">
+        <v>374</v>
+      </c>
+      <c r="G51" s="10" t="s">
+        <v>340</v>
+      </c>
+      <c r="H51" s="10" t="s">
+        <v>300</v>
+      </c>
+      <c r="I51" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="J51" s="10" t="s">
+        <v>375</v>
+      </c>
+      <c r="K51" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="L51" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="M51" s="10" t="s">
+        <v>376</v>
+      </c>
+      <c r="N51" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="O51" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="P51" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q51" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="S51" t="s">
+        <v>31</v>
+      </c>
+      <c r="T51" t="s">
+        <v>46</v>
+      </c>
+      <c r="U51" t="s">
+        <v>59</v>
+      </c>
+      <c r="V51" t="s">
+        <v>46</v>
+      </c>
+      <c r="W51" t="s">
+        <v>55</v>
+      </c>
+      <c r="X51" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z51" t="s">
+        <v>455</v>
+      </c>
+      <c r="AA51">
+        <v>2</v>
+      </c>
+      <c r="AB51">
+        <v>2</v>
+      </c>
+      <c r="AC51">
+        <v>2</v>
+      </c>
+      <c r="AF51" s="10" t="s">
+        <v>456</v>
+      </c>
+      <c r="AG51" t="s">
+        <v>109</v>
+      </c>
+      <c r="AH51" t="s">
+        <v>117</v>
+      </c>
+      <c r="AI51" t="s">
+        <v>144</v>
+      </c>
+      <c r="AL51" t="s">
+        <v>463</v>
+      </c>
+      <c r="AM51" t="s">
+        <v>232</v>
+      </c>
+      <c r="AN51" t="s">
+        <v>160</v>
+      </c>
+      <c r="AO51" t="s">
+        <v>458</v>
+      </c>
+      <c r="AQ51" t="s">
+        <v>164</v>
+      </c>
+      <c r="AR51" t="s">
+        <v>239</v>
+      </c>
+      <c r="AS51" t="s">
+        <v>175</v>
+      </c>
+      <c r="AU51" t="s">
+        <v>417</v>
+      </c>
+      <c r="AV51" t="s">
+        <v>199</v>
+      </c>
+      <c r="AW51" t="s">
         <v>209</v>
       </c>
     </row>
@@ -12546,9 +12808,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -12666,25 +12931,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D459FE-C8DA-484C-BC8E-5EB6A351EBC9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -12706,9 +12961,16 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D459FE-C8DA-484C-BC8E-5EB6A351EBC9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Tsagarakis.xlsx
+++ b/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Tsagarakis.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://share.dtu.dk/sites/SEAwise_517900/Shared Documents/WP4 Ecological effects of fisheries/Task 4.1/Data extraction/Data extraction files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{150CF4F4-0FE0-42CF-9AC8-577EBBCF87CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C64EF7D7-ADE5-4ACD-A4C3-35460CFA7B17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Drop-down overview" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DataExtraction!$A$2:$AX$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DataExtraction!$A$2:$AX$56</definedName>
     <definedName name="Benthic_epifauna">Validation!$AI$32:$AI$35</definedName>
     <definedName name="Benthos">Validation!$AN$24:$AN$25</definedName>
     <definedName name="Catch_and_bycatch">Validation!$AM$15:$AM$17</definedName>
@@ -2395,7 +2395,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2427" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2605" uniqueCount="470">
   <si>
     <t>SearchID</t>
   </si>
@@ -3708,9 +3708,6 @@
     <t>Spearman = −0.711;p &lt; 0.01</t>
   </si>
   <si>
-    <t>fishing presence</t>
-  </si>
-  <si>
     <t>fish size</t>
   </si>
   <si>
@@ -3805,6 +3802,9 @@
   </si>
   <si>
     <t>there was no difference in mean trophic level between the CIMR and the exploited areas</t>
+  </si>
+  <si>
+    <t>protected area</t>
   </si>
 </sst>
 </file>
@@ -3951,7 +3951,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3992,6 +3992,8 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4278,10 +4280,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AX51"/>
+  <dimension ref="A1:AX56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AO2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AX54" sqref="AX54"/>
+    <sheetView tabSelected="1" topLeftCell="AG1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="AU62" sqref="AU62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6798,7 +6800,7 @@
         <v>207</v>
       </c>
       <c r="AX20" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="21" spans="1:50" x14ac:dyDescent="0.35">
@@ -8432,7 +8434,7 @@
         <v>161</v>
       </c>
       <c r="AO33" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="AQ33" t="s">
         <v>164</v>
@@ -8554,7 +8556,7 @@
         <v>161</v>
       </c>
       <c r="AO34" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="AQ34" t="s">
         <v>164</v>
@@ -8566,7 +8568,7 @@
         <v>189</v>
       </c>
       <c r="AU34" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AV34" t="s">
         <v>200</v>
@@ -8670,7 +8672,7 @@
         <v>144</v>
       </c>
       <c r="AL35" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="AM35" t="s">
         <v>232</v>
@@ -8679,7 +8681,7 @@
         <v>161</v>
       </c>
       <c r="AO35" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="AQ35" t="s">
         <v>164</v>
@@ -8691,7 +8693,7 @@
         <v>189</v>
       </c>
       <c r="AU35" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AV35" t="s">
         <v>200</v>
@@ -8700,7 +8702,7 @@
         <v>207</v>
       </c>
       <c r="AX35" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="36" spans="1:50" x14ac:dyDescent="0.35">
@@ -8798,7 +8800,7 @@
         <v>144</v>
       </c>
       <c r="AL36" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AM36" t="s">
         <v>232</v>
@@ -8807,7 +8809,7 @@
         <v>161</v>
       </c>
       <c r="AO36" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="AQ36" t="s">
         <v>164</v>
@@ -8819,7 +8821,7 @@
         <v>189</v>
       </c>
       <c r="AU36" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AV36" t="s">
         <v>200</v>
@@ -8828,7 +8830,7 @@
         <v>208</v>
       </c>
       <c r="AX36" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="37" spans="1:50" x14ac:dyDescent="0.35">
@@ -8932,7 +8934,7 @@
         <v>161</v>
       </c>
       <c r="AO37" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="AQ37" t="s">
         <v>164</v>
@@ -8944,7 +8946,7 @@
         <v>189</v>
       </c>
       <c r="AU37" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="AV37" t="s">
         <v>205</v>
@@ -8953,7 +8955,7 @@
         <v>209</v>
       </c>
       <c r="AX37" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="38" spans="1:50" x14ac:dyDescent="0.35">
@@ -9057,7 +9059,7 @@
         <v>161</v>
       </c>
       <c r="AO38" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="AQ38" t="s">
         <v>164</v>
@@ -9069,7 +9071,7 @@
         <v>189</v>
       </c>
       <c r="AU38" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="AV38" t="s">
         <v>203</v>
@@ -9078,7 +9080,7 @@
         <v>210</v>
       </c>
       <c r="AX38" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="39" spans="1:50" x14ac:dyDescent="0.35">
@@ -9164,7 +9166,7 @@
         <v>3</v>
       </c>
       <c r="AD39" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="AF39" s="10" t="s">
         <v>253</v>
@@ -9176,13 +9178,13 @@
         <v>116</v>
       </c>
       <c r="AL39" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="AM39" t="s">
         <v>159</v>
       </c>
       <c r="AO39" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="AQ39" t="s">
         <v>164</v>
@@ -9194,7 +9196,7 @@
         <v>175</v>
       </c>
       <c r="AU39" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="AV39" t="s">
         <v>212</v>
@@ -9203,370 +9205,367 @@
         <v>210</v>
       </c>
     </row>
-    <row r="40" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A40" s="10" t="s">
+    <row r="40" spans="1:50" s="19" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="18" t="s">
         <v>353</v>
       </c>
-      <c r="B40" s="10" t="s">
+      <c r="B40" s="18" t="s">
         <v>243</v>
       </c>
-      <c r="C40" s="10" t="s">
+      <c r="C40" s="18" t="s">
         <v>354</v>
       </c>
-      <c r="D40" s="10" t="s">
+      <c r="D40" s="18" t="s">
         <v>355</v>
       </c>
-      <c r="E40" s="10">
+      <c r="E40" s="18">
         <v>1998</v>
       </c>
-      <c r="F40" s="10" t="s">
+      <c r="F40" s="18" t="s">
         <v>356</v>
       </c>
-      <c r="G40" s="10" t="s">
+      <c r="G40" s="18" t="s">
         <v>357</v>
       </c>
-      <c r="H40" s="10" t="s">
+      <c r="H40" s="18" t="s">
         <v>320</v>
       </c>
-      <c r="I40" s="10" t="s">
+      <c r="I40" s="18" t="s">
         <v>358</v>
       </c>
-      <c r="J40" s="10" t="s">
+      <c r="J40" s="18" t="s">
         <v>359</v>
       </c>
-      <c r="K40" s="10" t="s">
+      <c r="K40" s="18" t="s">
         <v>360</v>
       </c>
-      <c r="L40" s="10" t="s">
+      <c r="L40" s="18" t="s">
         <v>248</v>
       </c>
-      <c r="M40" s="10" t="s">
+      <c r="M40" s="18" t="s">
         <v>361</v>
       </c>
-      <c r="N40" s="10" t="s">
+      <c r="N40" s="18" t="s">
         <v>251</v>
       </c>
-      <c r="O40" s="10" t="s">
+      <c r="O40" s="18" t="s">
         <v>252</v>
       </c>
-      <c r="P40" s="10" t="s">
+      <c r="P40" s="18" t="s">
         <v>275</v>
       </c>
-      <c r="Q40" s="10" t="s">
+      <c r="Q40" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="S40" t="s">
+      <c r="S40" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="T40" t="s">
+      <c r="T40" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="U40" t="s">
+      <c r="U40" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="V40" t="s">
+      <c r="V40" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="W40" t="s">
+      <c r="W40" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="X40" t="s">
+      <c r="X40" s="19" t="s">
         <v>215</v>
       </c>
-      <c r="Z40" t="s">
+      <c r="Z40" s="19" t="s">
+        <v>446</v>
+      </c>
+      <c r="AA40" s="19">
+        <v>2</v>
+      </c>
+      <c r="AB40" s="19">
+        <v>2</v>
+      </c>
+      <c r="AC40" s="19">
+        <v>3</v>
+      </c>
+      <c r="AF40" s="18" t="s">
+        <v>253</v>
+      </c>
+      <c r="AG40" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="AH40" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="AI40" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="AM40" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="AN40" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="AO40" s="19" t="s">
+        <v>469</v>
+      </c>
+      <c r="AQ40" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="AR40" s="19" t="s">
+        <v>239</v>
+      </c>
+      <c r="AS40" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="AU40" s="19" t="s">
         <v>447</v>
       </c>
-      <c r="AA40">
+      <c r="AV40" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="AW40" s="19" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="41" spans="1:50" s="19" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="18" t="s">
+        <v>353</v>
+      </c>
+      <c r="B41" s="18" t="s">
+        <v>243</v>
+      </c>
+      <c r="C41" s="18" t="s">
+        <v>354</v>
+      </c>
+      <c r="D41" s="18" t="s">
+        <v>355</v>
+      </c>
+      <c r="E41" s="18">
+        <v>1998</v>
+      </c>
+      <c r="F41" s="18" t="s">
+        <v>356</v>
+      </c>
+      <c r="G41" s="18" t="s">
+        <v>357</v>
+      </c>
+      <c r="H41" s="18" t="s">
+        <v>320</v>
+      </c>
+      <c r="I41" s="18" t="s">
+        <v>358</v>
+      </c>
+      <c r="J41" s="18" t="s">
+        <v>359</v>
+      </c>
+      <c r="K41" s="18" t="s">
+        <v>360</v>
+      </c>
+      <c r="L41" s="18" t="s">
+        <v>248</v>
+      </c>
+      <c r="M41" s="18" t="s">
+        <v>361</v>
+      </c>
+      <c r="N41" s="18" t="s">
+        <v>251</v>
+      </c>
+      <c r="O41" s="18" t="s">
+        <v>252</v>
+      </c>
+      <c r="P41" s="18" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q41" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="S41" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="T41" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="U41" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="V41" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="W41" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="X41" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="Z41" s="19" t="s">
+        <v>446</v>
+      </c>
+      <c r="AA41" s="19">
         <v>2</v>
       </c>
-      <c r="AB40">
+      <c r="AB41" s="19">
         <v>2</v>
       </c>
-      <c r="AC40">
+      <c r="AC41" s="19">
         <v>3</v>
       </c>
-      <c r="AF40" s="10" t="s">
+      <c r="AF41" s="18" t="s">
         <v>253</v>
       </c>
-      <c r="AG40" t="s">
+      <c r="AG41" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="AH40" t="s">
+      <c r="AH41" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="AI40" t="s">
+      <c r="AI41" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="AM40" t="s">
+      <c r="AM41" s="19" t="s">
         <v>232</v>
       </c>
-      <c r="AN40" t="s">
-        <v>160</v>
-      </c>
-      <c r="AO40" t="s">
-        <v>437</v>
-      </c>
-      <c r="AQ40" t="s">
+      <c r="AN41" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="AO41" s="19" t="s">
+        <v>469</v>
+      </c>
+      <c r="AQ41" s="19" t="s">
         <v>164</v>
       </c>
-      <c r="AR40" t="s">
+      <c r="AR41" s="19" t="s">
         <v>239</v>
       </c>
-      <c r="AS40" t="s">
+      <c r="AS41" s="19" t="s">
         <v>176</v>
       </c>
-      <c r="AU40" t="s">
-        <v>448</v>
-      </c>
-      <c r="AV40" t="s">
+      <c r="AU41" s="19" t="s">
+        <v>447</v>
+      </c>
+      <c r="AV41" s="19" t="s">
         <v>200</v>
       </c>
-      <c r="AW40" t="s">
-        <v>208</v>
+      <c r="AW41" s="19" t="s">
+        <v>210</v>
       </c>
     </row>
-    <row r="41" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A41" s="10" t="s">
+    <row r="42" spans="1:50" s="19" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="18" t="s">
         <v>353</v>
       </c>
-      <c r="B41" s="10" t="s">
+      <c r="B42" s="18" t="s">
         <v>243</v>
       </c>
-      <c r="C41" s="10" t="s">
+      <c r="C42" s="18" t="s">
         <v>354</v>
       </c>
-      <c r="D41" s="10" t="s">
+      <c r="D42" s="18" t="s">
         <v>355</v>
       </c>
-      <c r="E41" s="10">
+      <c r="E42" s="18">
         <v>1998</v>
       </c>
-      <c r="F41" s="10" t="s">
+      <c r="F42" s="18" t="s">
         <v>356</v>
       </c>
-      <c r="G41" s="10" t="s">
+      <c r="G42" s="18" t="s">
         <v>357</v>
       </c>
-      <c r="H41" s="10" t="s">
+      <c r="H42" s="18" t="s">
         <v>320</v>
       </c>
-      <c r="I41" s="10" t="s">
+      <c r="I42" s="18" t="s">
         <v>358</v>
       </c>
-      <c r="J41" s="10" t="s">
+      <c r="J42" s="18" t="s">
         <v>359</v>
       </c>
-      <c r="K41" s="10" t="s">
+      <c r="K42" s="18" t="s">
         <v>360</v>
       </c>
-      <c r="L41" s="10" t="s">
+      <c r="L42" s="18" t="s">
         <v>248</v>
       </c>
-      <c r="M41" s="10" t="s">
+      <c r="M42" s="18" t="s">
         <v>361</v>
       </c>
-      <c r="N41" s="10" t="s">
+      <c r="N42" s="18" t="s">
         <v>251</v>
       </c>
-      <c r="O41" s="10" t="s">
+      <c r="O42" s="18" t="s">
         <v>252</v>
       </c>
-      <c r="P41" s="10" t="s">
+      <c r="P42" s="18" t="s">
         <v>275</v>
       </c>
-      <c r="Q41" s="10" t="s">
+      <c r="Q42" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="S41" t="s">
+      <c r="S42" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="T41" t="s">
+      <c r="T42" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="U41" t="s">
+      <c r="U42" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="V41" t="s">
+      <c r="V42" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="W41" t="s">
+      <c r="W42" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="X41" t="s">
+      <c r="X42" s="19" t="s">
         <v>215</v>
       </c>
-      <c r="Z41" t="s">
+      <c r="Z42" s="19" t="s">
+        <v>446</v>
+      </c>
+      <c r="AA42" s="19">
+        <v>2</v>
+      </c>
+      <c r="AB42" s="19">
+        <v>2</v>
+      </c>
+      <c r="AC42" s="19">
+        <v>3</v>
+      </c>
+      <c r="AF42" s="18" t="s">
+        <v>253</v>
+      </c>
+      <c r="AG42" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="AH42" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="AM42" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="AN42" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="AO42" s="19" t="s">
+        <v>469</v>
+      </c>
+      <c r="AQ42" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="AR42" s="19" t="s">
+        <v>239</v>
+      </c>
+      <c r="AS42" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="AU42" s="19" t="s">
         <v>447</v>
       </c>
-      <c r="AA41">
-        <v>2</v>
-      </c>
-      <c r="AB41">
-        <v>2</v>
-      </c>
-      <c r="AC41">
-        <v>3</v>
-      </c>
-      <c r="AF41" s="10" t="s">
-        <v>253</v>
-      </c>
-      <c r="AG41" t="s">
-        <v>110</v>
-      </c>
-      <c r="AH41" t="s">
-        <v>117</v>
-      </c>
-      <c r="AI41" t="s">
-        <v>144</v>
-      </c>
-      <c r="AM41" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN41" t="s">
-        <v>161</v>
-      </c>
-      <c r="AO41" t="s">
-        <v>437</v>
-      </c>
-      <c r="AQ41" t="s">
-        <v>164</v>
-      </c>
-      <c r="AR41" t="s">
-        <v>239</v>
-      </c>
-      <c r="AS41" t="s">
-        <v>176</v>
-      </c>
-      <c r="AU41" t="s">
-        <v>429</v>
-      </c>
-      <c r="AV41" t="s">
-        <v>199</v>
-      </c>
-      <c r="AW41" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="42" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A42" s="10" t="s">
-        <v>353</v>
-      </c>
-      <c r="B42" s="10" t="s">
-        <v>243</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>354</v>
-      </c>
-      <c r="D42" s="10" t="s">
-        <v>355</v>
-      </c>
-      <c r="E42" s="10">
-        <v>1998</v>
-      </c>
-      <c r="F42" s="10" t="s">
-        <v>356</v>
-      </c>
-      <c r="G42" s="10" t="s">
-        <v>357</v>
-      </c>
-      <c r="H42" s="10" t="s">
-        <v>320</v>
-      </c>
-      <c r="I42" s="10" t="s">
-        <v>358</v>
-      </c>
-      <c r="J42" s="10" t="s">
-        <v>359</v>
-      </c>
-      <c r="K42" s="10" t="s">
-        <v>360</v>
-      </c>
-      <c r="L42" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="M42" s="10" t="s">
-        <v>361</v>
-      </c>
-      <c r="N42" s="10" t="s">
-        <v>251</v>
-      </c>
-      <c r="O42" s="10" t="s">
-        <v>252</v>
-      </c>
-      <c r="P42" s="10" t="s">
-        <v>275</v>
-      </c>
-      <c r="Q42" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="S42" t="s">
-        <v>24</v>
-      </c>
-      <c r="T42" t="s">
-        <v>46</v>
-      </c>
-      <c r="U42" t="s">
-        <v>58</v>
-      </c>
-      <c r="V42" t="s">
-        <v>44</v>
-      </c>
-      <c r="W42" t="s">
-        <v>55</v>
-      </c>
-      <c r="X42" t="s">
-        <v>215</v>
-      </c>
-      <c r="Z42" t="s">
-        <v>447</v>
-      </c>
-      <c r="AA42">
-        <v>2</v>
-      </c>
-      <c r="AB42">
-        <v>2</v>
-      </c>
-      <c r="AC42">
-        <v>3</v>
-      </c>
-      <c r="AF42" s="10" t="s">
-        <v>253</v>
-      </c>
-      <c r="AG42" t="s">
-        <v>110</v>
-      </c>
-      <c r="AH42" t="s">
-        <v>117</v>
-      </c>
-      <c r="AI42" t="s">
-        <v>144</v>
-      </c>
-      <c r="AM42" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN42" t="s">
-        <v>160</v>
-      </c>
-      <c r="AO42" t="s">
-        <v>437</v>
-      </c>
-      <c r="AQ42" t="s">
-        <v>164</v>
-      </c>
-      <c r="AR42" t="s">
-        <v>239</v>
-      </c>
-      <c r="AS42" t="s">
-        <v>176</v>
-      </c>
-      <c r="AU42" t="s">
-        <v>429</v>
-      </c>
-      <c r="AV42" t="s">
-        <v>199</v>
-      </c>
-      <c r="AW42" t="s">
-        <v>208</v>
+      <c r="AV42" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="AW42" s="19" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="43" spans="1:50" x14ac:dyDescent="0.35">
@@ -9640,7 +9639,7 @@
         <v>215</v>
       </c>
       <c r="Z43" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="AA43">
         <v>2</v>
@@ -9658,16 +9657,19 @@
         <v>110</v>
       </c>
       <c r="AH43" t="s">
-        <v>124</v>
+        <v>117</v>
+      </c>
+      <c r="AI43" t="s">
+        <v>144</v>
       </c>
       <c r="AM43" t="s">
         <v>232</v>
       </c>
       <c r="AN43" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AO43" t="s">
-        <v>437</v>
+        <v>469</v>
       </c>
       <c r="AQ43" t="s">
         <v>164</v>
@@ -9679,54 +9681,54 @@
         <v>176</v>
       </c>
       <c r="AU43" t="s">
-        <v>449</v>
+        <v>429</v>
       </c>
       <c r="AV43" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="AW43" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="44" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A44" s="10" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="B44" s="10" t="s">
         <v>243</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="E44" s="10">
         <v>1998</v>
       </c>
       <c r="F44" s="10" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="H44" s="10" t="s">
-        <v>300</v>
+        <v>320</v>
       </c>
       <c r="I44" s="10" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="J44" s="10" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="K44" s="10" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="L44" s="10" t="s">
         <v>248</v>
       </c>
       <c r="M44" s="10" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="N44" s="10" t="s">
         <v>251</v>
@@ -9735,31 +9737,31 @@
         <v>252</v>
       </c>
       <c r="P44" s="10" t="s">
-        <v>248</v>
+        <v>275</v>
       </c>
       <c r="Q44" s="10" t="s">
         <v>21</v>
       </c>
       <c r="S44" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T44" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="U44" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="V44" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="W44" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="X44" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Z44" t="s">
-        <v>405</v>
+        <v>446</v>
       </c>
       <c r="AA44">
         <v>2</v>
@@ -9770,32 +9772,23 @@
       <c r="AC44">
         <v>3</v>
       </c>
-      <c r="AD44" t="s">
-        <v>452</v>
-      </c>
       <c r="AF44" s="10" t="s">
         <v>253</v>
       </c>
       <c r="AG44" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="AH44" t="s">
-        <v>120</v>
-      </c>
-      <c r="AI44" t="s">
-        <v>140</v>
-      </c>
-      <c r="AJ44" t="s">
-        <v>113</v>
-      </c>
-      <c r="AL44" t="s">
-        <v>450</v>
+        <v>220</v>
       </c>
       <c r="AM44" t="s">
-        <v>159</v>
+        <v>232</v>
+      </c>
+      <c r="AN44" t="s">
+        <v>161</v>
       </c>
       <c r="AO44" t="s">
-        <v>451</v>
+        <v>469</v>
       </c>
       <c r="AQ44" t="s">
         <v>164</v>
@@ -9807,7 +9800,7 @@
         <v>176</v>
       </c>
       <c r="AU44" t="s">
-        <v>417</v>
+        <v>429</v>
       </c>
       <c r="AV44" t="s">
         <v>199</v>
@@ -9818,43 +9811,43 @@
     </row>
     <row r="45" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A45" s="10" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="B45" s="10" t="s">
         <v>243</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="E45" s="10">
         <v>1998</v>
       </c>
       <c r="F45" s="10" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="G45" s="10" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="H45" s="10" t="s">
-        <v>300</v>
+        <v>320</v>
       </c>
       <c r="I45" s="10" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="J45" s="10" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="K45" s="10" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="L45" s="10" t="s">
         <v>248</v>
       </c>
       <c r="M45" s="10" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="N45" s="10" t="s">
         <v>251</v>
@@ -9863,31 +9856,31 @@
         <v>252</v>
       </c>
       <c r="P45" s="10" t="s">
-        <v>248</v>
+        <v>275</v>
       </c>
       <c r="Q45" s="10" t="s">
         <v>21</v>
       </c>
       <c r="S45" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T45" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="U45" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="V45" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="W45" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="X45" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Z45" t="s">
-        <v>405</v>
+        <v>446</v>
       </c>
       <c r="AA45">
         <v>2</v>
@@ -9898,35 +9891,26 @@
       <c r="AC45">
         <v>3</v>
       </c>
-      <c r="AD45" t="s">
-        <v>452</v>
-      </c>
       <c r="AF45" s="10" t="s">
         <v>253</v>
       </c>
       <c r="AG45" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="AH45" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="AI45" t="s">
-        <v>140</v>
-      </c>
-      <c r="AJ45" t="s">
-        <v>113</v>
-      </c>
-      <c r="AL45" t="s">
-        <v>453</v>
+        <v>144</v>
       </c>
       <c r="AM45" t="s">
         <v>232</v>
       </c>
       <c r="AN45" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AO45" t="s">
-        <v>451</v>
+        <v>469</v>
       </c>
       <c r="AQ45" t="s">
         <v>164</v>
@@ -9938,54 +9922,54 @@
         <v>176</v>
       </c>
       <c r="AU45" t="s">
-        <v>454</v>
+        <v>429</v>
       </c>
       <c r="AV45" t="s">
-        <v>238</v>
+        <v>199</v>
       </c>
       <c r="AW45" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="46" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A46" s="10" t="s">
-        <v>371</v>
+        <v>353</v>
       </c>
       <c r="B46" s="10" t="s">
         <v>243</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>372</v>
+        <v>354</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>373</v>
+        <v>355</v>
       </c>
       <c r="E46" s="10">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="F46" s="10" t="s">
-        <v>374</v>
+        <v>356</v>
       </c>
       <c r="G46" s="10" t="s">
-        <v>340</v>
+        <v>357</v>
       </c>
       <c r="H46" s="10" t="s">
-        <v>300</v>
+        <v>320</v>
       </c>
       <c r="I46" s="10" t="s">
-        <v>301</v>
+        <v>358</v>
       </c>
       <c r="J46" s="10" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="K46" s="10" t="s">
-        <v>248</v>
+        <v>360</v>
       </c>
       <c r="L46" s="10" t="s">
         <v>248</v>
       </c>
       <c r="M46" s="10" t="s">
-        <v>376</v>
+        <v>361</v>
       </c>
       <c r="N46" s="10" t="s">
         <v>251</v>
@@ -9994,31 +9978,31 @@
         <v>252</v>
       </c>
       <c r="P46" s="10" t="s">
-        <v>248</v>
+        <v>275</v>
       </c>
       <c r="Q46" s="10" t="s">
         <v>21</v>
       </c>
       <c r="S46" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="T46" t="s">
         <v>46</v>
       </c>
       <c r="U46" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="V46" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="W46" t="s">
         <v>55</v>
       </c>
       <c r="X46" t="s">
-        <v>69</v>
+        <v>215</v>
       </c>
       <c r="Z46" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="AA46">
         <v>2</v>
@@ -10027,31 +10011,28 @@
         <v>2</v>
       </c>
       <c r="AC46">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF46" s="10" t="s">
-        <v>456</v>
+        <v>253</v>
       </c>
       <c r="AG46" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AH46" t="s">
-        <v>220</v>
+        <v>117</v>
       </c>
       <c r="AI46" t="s">
-        <v>145</v>
-      </c>
-      <c r="AL46" t="s">
-        <v>457</v>
+        <v>144</v>
       </c>
       <c r="AM46" t="s">
         <v>232</v>
       </c>
       <c r="AN46" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="AO46" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
       <c r="AQ46" t="s">
         <v>164</v>
@@ -10060,57 +10041,57 @@
         <v>239</v>
       </c>
       <c r="AS46" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AU46" t="s">
-        <v>417</v>
+        <v>448</v>
       </c>
       <c r="AV46" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="AW46" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="47" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A47" s="10" t="s">
-        <v>371</v>
+        <v>353</v>
       </c>
       <c r="B47" s="10" t="s">
         <v>243</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>372</v>
+        <v>354</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>373</v>
+        <v>355</v>
       </c>
       <c r="E47" s="10">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="F47" s="10" t="s">
-        <v>374</v>
+        <v>356</v>
       </c>
       <c r="G47" s="10" t="s">
-        <v>340</v>
+        <v>357</v>
       </c>
       <c r="H47" s="10" t="s">
-        <v>300</v>
+        <v>320</v>
       </c>
       <c r="I47" s="10" t="s">
-        <v>301</v>
+        <v>358</v>
       </c>
       <c r="J47" s="10" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="K47" s="10" t="s">
-        <v>248</v>
+        <v>360</v>
       </c>
       <c r="L47" s="10" t="s">
         <v>248</v>
       </c>
       <c r="M47" s="10" t="s">
-        <v>376</v>
+        <v>361</v>
       </c>
       <c r="N47" s="10" t="s">
         <v>251</v>
@@ -10119,31 +10100,31 @@
         <v>252</v>
       </c>
       <c r="P47" s="10" t="s">
-        <v>248</v>
+        <v>275</v>
       </c>
       <c r="Q47" s="10" t="s">
         <v>21</v>
       </c>
       <c r="S47" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="T47" t="s">
         <v>46</v>
       </c>
       <c r="U47" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="V47" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="W47" t="s">
         <v>55</v>
       </c>
       <c r="X47" t="s">
-        <v>69</v>
+        <v>215</v>
       </c>
       <c r="Z47" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="AA47">
         <v>2</v>
@@ -10152,31 +10133,28 @@
         <v>2</v>
       </c>
       <c r="AC47">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF47" s="10" t="s">
-        <v>456</v>
+        <v>253</v>
       </c>
       <c r="AG47" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AH47" t="s">
-        <v>220</v>
+        <v>117</v>
       </c>
       <c r="AI47" t="s">
-        <v>145</v>
-      </c>
-      <c r="AL47" t="s">
-        <v>459</v>
+        <v>144</v>
       </c>
       <c r="AM47" t="s">
         <v>232</v>
       </c>
       <c r="AN47" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AO47" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
       <c r="AQ47" t="s">
         <v>164</v>
@@ -10185,13 +10163,13 @@
         <v>239</v>
       </c>
       <c r="AS47" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AU47" t="s">
-        <v>417</v>
+        <v>448</v>
       </c>
       <c r="AV47" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="AW47" t="s">
         <v>210</v>
@@ -10199,43 +10177,43 @@
     </row>
     <row r="48" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A48" s="10" t="s">
-        <v>371</v>
+        <v>353</v>
       </c>
       <c r="B48" s="10" t="s">
         <v>243</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>372</v>
+        <v>354</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>373</v>
+        <v>355</v>
       </c>
       <c r="E48" s="10">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="F48" s="10" t="s">
-        <v>374</v>
+        <v>356</v>
       </c>
       <c r="G48" s="10" t="s">
-        <v>340</v>
+        <v>357</v>
       </c>
       <c r="H48" s="10" t="s">
-        <v>300</v>
+        <v>320</v>
       </c>
       <c r="I48" s="10" t="s">
-        <v>301</v>
+        <v>358</v>
       </c>
       <c r="J48" s="10" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="K48" s="10" t="s">
-        <v>248</v>
+        <v>360</v>
       </c>
       <c r="L48" s="10" t="s">
         <v>248</v>
       </c>
       <c r="M48" s="10" t="s">
-        <v>376</v>
+        <v>361</v>
       </c>
       <c r="N48" s="10" t="s">
         <v>251</v>
@@ -10244,31 +10222,31 @@
         <v>252</v>
       </c>
       <c r="P48" s="10" t="s">
-        <v>248</v>
+        <v>275</v>
       </c>
       <c r="Q48" s="10" t="s">
         <v>21</v>
       </c>
       <c r="S48" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="T48" t="s">
         <v>46</v>
       </c>
       <c r="U48" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="V48" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="W48" t="s">
         <v>55</v>
       </c>
       <c r="X48" t="s">
-        <v>69</v>
+        <v>215</v>
       </c>
       <c r="Z48" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="AA48">
         <v>2</v>
@@ -10277,31 +10255,25 @@
         <v>2</v>
       </c>
       <c r="AC48">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF48" s="10" t="s">
-        <v>456</v>
+        <v>253</v>
       </c>
       <c r="AG48" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AH48" t="s">
         <v>220</v>
       </c>
-      <c r="AI48" t="s">
-        <v>139</v>
-      </c>
-      <c r="AL48" t="s">
-        <v>460</v>
-      </c>
       <c r="AM48" t="s">
         <v>232</v>
       </c>
       <c r="AN48" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AO48" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
       <c r="AQ48" t="s">
         <v>164</v>
@@ -10310,13 +10282,13 @@
         <v>239</v>
       </c>
       <c r="AS48" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AU48" t="s">
-        <v>417</v>
+        <v>448</v>
       </c>
       <c r="AV48" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="AW48" t="s">
         <v>210</v>
@@ -10324,43 +10296,43 @@
     </row>
     <row r="49" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A49" s="10" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="B49" s="10" t="s">
         <v>243</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="E49" s="10">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="F49" s="10" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="G49" s="10" t="s">
-        <v>340</v>
+        <v>366</v>
       </c>
       <c r="H49" s="10" t="s">
         <v>300</v>
       </c>
       <c r="I49" s="10" t="s">
-        <v>301</v>
+        <v>367</v>
       </c>
       <c r="J49" s="10" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="K49" s="10" t="s">
-        <v>248</v>
+        <v>369</v>
       </c>
       <c r="L49" s="10" t="s">
         <v>248</v>
       </c>
       <c r="M49" s="10" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="N49" s="10" t="s">
         <v>251</v>
@@ -10375,25 +10347,25 @@
         <v>21</v>
       </c>
       <c r="S49" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="T49" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="U49" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="V49" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="W49" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="X49" t="s">
-        <v>69</v>
+        <v>216</v>
       </c>
       <c r="Z49" t="s">
-        <v>455</v>
+        <v>405</v>
       </c>
       <c r="AA49">
         <v>2</v>
@@ -10402,31 +10374,34 @@
         <v>2</v>
       </c>
       <c r="AC49">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="AD49" t="s">
+        <v>451</v>
       </c>
       <c r="AF49" s="10" t="s">
-        <v>456</v>
+        <v>253</v>
       </c>
       <c r="AG49" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="AH49" t="s">
-        <v>220</v>
+        <v>120</v>
       </c>
       <c r="AI49" t="s">
-        <v>139</v>
+        <v>140</v>
+      </c>
+      <c r="AJ49" t="s">
+        <v>113</v>
       </c>
       <c r="AL49" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="AM49" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN49" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="AO49" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="AQ49" t="s">
         <v>164</v>
@@ -10435,7 +10410,7 @@
         <v>239</v>
       </c>
       <c r="AS49" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AU49" t="s">
         <v>417</v>
@@ -10444,48 +10419,48 @@
         <v>199</v>
       </c>
       <c r="AW49" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="50" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A50" s="10" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="B50" s="10" t="s">
         <v>243</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="E50" s="10">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="F50" s="10" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="G50" s="10" t="s">
-        <v>340</v>
+        <v>366</v>
       </c>
       <c r="H50" s="10" t="s">
         <v>300</v>
       </c>
       <c r="I50" s="10" t="s">
-        <v>301</v>
+        <v>367</v>
       </c>
       <c r="J50" s="10" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="K50" s="10" t="s">
-        <v>248</v>
+        <v>369</v>
       </c>
       <c r="L50" s="10" t="s">
         <v>248</v>
       </c>
       <c r="M50" s="10" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="N50" s="10" t="s">
         <v>251</v>
@@ -10500,25 +10475,25 @@
         <v>21</v>
       </c>
       <c r="S50" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="T50" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="U50" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="V50" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="W50" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="X50" t="s">
-        <v>69</v>
+        <v>216</v>
       </c>
       <c r="Z50" t="s">
-        <v>455</v>
+        <v>405</v>
       </c>
       <c r="AA50">
         <v>2</v>
@@ -10527,31 +10502,37 @@
         <v>2</v>
       </c>
       <c r="AC50">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="AD50" t="s">
+        <v>451</v>
       </c>
       <c r="AF50" s="10" t="s">
-        <v>456</v>
+        <v>253</v>
       </c>
       <c r="AG50" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="AH50" t="s">
-        <v>220</v>
+        <v>120</v>
       </c>
       <c r="AI50" t="s">
-        <v>131</v>
+        <v>140</v>
+      </c>
+      <c r="AJ50" t="s">
+        <v>113</v>
       </c>
       <c r="AL50" t="s">
-        <v>462</v>
+        <v>452</v>
       </c>
       <c r="AM50" t="s">
         <v>232</v>
       </c>
       <c r="AN50" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AO50" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="AQ50" t="s">
         <v>164</v>
@@ -10560,16 +10541,16 @@
         <v>239</v>
       </c>
       <c r="AS50" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AU50" t="s">
-        <v>417</v>
+        <v>453</v>
       </c>
       <c r="AV50" t="s">
-        <v>199</v>
+        <v>238</v>
       </c>
       <c r="AW50" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="51" spans="1:49" x14ac:dyDescent="0.35">
@@ -10643,7 +10624,7 @@
         <v>69</v>
       </c>
       <c r="Z51" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="AA51">
         <v>2</v>
@@ -10655,28 +10636,28 @@
         <v>2</v>
       </c>
       <c r="AF51" s="10" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="AG51" t="s">
         <v>109</v>
       </c>
       <c r="AH51" t="s">
-        <v>117</v>
+        <v>220</v>
       </c>
       <c r="AI51" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AL51" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="AM51" t="s">
         <v>232</v>
       </c>
       <c r="AN51" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AO51" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AQ51" t="s">
         <v>164</v>
@@ -10694,6 +10675,631 @@
         <v>199</v>
       </c>
       <c r="AW51" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="52" spans="1:49" x14ac:dyDescent="0.35">
+      <c r="A52" s="10" t="s">
+        <v>371</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>372</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>373</v>
+      </c>
+      <c r="E52" s="10">
+        <v>1997</v>
+      </c>
+      <c r="F52" s="10" t="s">
+        <v>374</v>
+      </c>
+      <c r="G52" s="10" t="s">
+        <v>340</v>
+      </c>
+      <c r="H52" s="10" t="s">
+        <v>300</v>
+      </c>
+      <c r="I52" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="J52" s="10" t="s">
+        <v>375</v>
+      </c>
+      <c r="K52" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="L52" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="M52" s="10" t="s">
+        <v>376</v>
+      </c>
+      <c r="N52" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="O52" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="P52" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q52" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="S52" t="s">
+        <v>31</v>
+      </c>
+      <c r="T52" t="s">
+        <v>46</v>
+      </c>
+      <c r="U52" t="s">
+        <v>59</v>
+      </c>
+      <c r="V52" t="s">
+        <v>46</v>
+      </c>
+      <c r="W52" t="s">
+        <v>55</v>
+      </c>
+      <c r="X52" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z52" t="s">
+        <v>454</v>
+      </c>
+      <c r="AA52">
+        <v>2</v>
+      </c>
+      <c r="AB52">
+        <v>2</v>
+      </c>
+      <c r="AC52">
+        <v>2</v>
+      </c>
+      <c r="AF52" s="10" t="s">
+        <v>455</v>
+      </c>
+      <c r="AG52" t="s">
+        <v>109</v>
+      </c>
+      <c r="AH52" t="s">
+        <v>220</v>
+      </c>
+      <c r="AI52" t="s">
+        <v>145</v>
+      </c>
+      <c r="AL52" t="s">
+        <v>458</v>
+      </c>
+      <c r="AM52" t="s">
+        <v>232</v>
+      </c>
+      <c r="AN52" t="s">
+        <v>162</v>
+      </c>
+      <c r="AO52" t="s">
+        <v>457</v>
+      </c>
+      <c r="AQ52" t="s">
+        <v>164</v>
+      </c>
+      <c r="AR52" t="s">
+        <v>239</v>
+      </c>
+      <c r="AS52" t="s">
+        <v>175</v>
+      </c>
+      <c r="AU52" t="s">
+        <v>417</v>
+      </c>
+      <c r="AV52" t="s">
+        <v>199</v>
+      </c>
+      <c r="AW52" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="53" spans="1:49" x14ac:dyDescent="0.35">
+      <c r="A53" s="10" t="s">
+        <v>371</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>372</v>
+      </c>
+      <c r="D53" s="10" t="s">
+        <v>373</v>
+      </c>
+      <c r="E53" s="10">
+        <v>1997</v>
+      </c>
+      <c r="F53" s="10" t="s">
+        <v>374</v>
+      </c>
+      <c r="G53" s="10" t="s">
+        <v>340</v>
+      </c>
+      <c r="H53" s="10" t="s">
+        <v>300</v>
+      </c>
+      <c r="I53" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="J53" s="10" t="s">
+        <v>375</v>
+      </c>
+      <c r="K53" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="L53" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="M53" s="10" t="s">
+        <v>376</v>
+      </c>
+      <c r="N53" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="O53" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="P53" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q53" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="S53" t="s">
+        <v>31</v>
+      </c>
+      <c r="T53" t="s">
+        <v>46</v>
+      </c>
+      <c r="U53" t="s">
+        <v>59</v>
+      </c>
+      <c r="V53" t="s">
+        <v>46</v>
+      </c>
+      <c r="W53" t="s">
+        <v>55</v>
+      </c>
+      <c r="X53" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z53" t="s">
+        <v>454</v>
+      </c>
+      <c r="AA53">
+        <v>2</v>
+      </c>
+      <c r="AB53">
+        <v>2</v>
+      </c>
+      <c r="AC53">
+        <v>2</v>
+      </c>
+      <c r="AF53" s="10" t="s">
+        <v>455</v>
+      </c>
+      <c r="AG53" t="s">
+        <v>109</v>
+      </c>
+      <c r="AH53" t="s">
+        <v>220</v>
+      </c>
+      <c r="AI53" t="s">
+        <v>139</v>
+      </c>
+      <c r="AL53" t="s">
+        <v>459</v>
+      </c>
+      <c r="AM53" t="s">
+        <v>232</v>
+      </c>
+      <c r="AN53" t="s">
+        <v>162</v>
+      </c>
+      <c r="AO53" t="s">
+        <v>457</v>
+      </c>
+      <c r="AQ53" t="s">
+        <v>164</v>
+      </c>
+      <c r="AR53" t="s">
+        <v>239</v>
+      </c>
+      <c r="AS53" t="s">
+        <v>175</v>
+      </c>
+      <c r="AU53" t="s">
+        <v>417</v>
+      </c>
+      <c r="AV53" t="s">
+        <v>199</v>
+      </c>
+      <c r="AW53" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="54" spans="1:49" x14ac:dyDescent="0.35">
+      <c r="A54" s="10" t="s">
+        <v>371</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>372</v>
+      </c>
+      <c r="D54" s="10" t="s">
+        <v>373</v>
+      </c>
+      <c r="E54" s="10">
+        <v>1997</v>
+      </c>
+      <c r="F54" s="10" t="s">
+        <v>374</v>
+      </c>
+      <c r="G54" s="10" t="s">
+        <v>340</v>
+      </c>
+      <c r="H54" s="10" t="s">
+        <v>300</v>
+      </c>
+      <c r="I54" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="J54" s="10" t="s">
+        <v>375</v>
+      </c>
+      <c r="K54" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="L54" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="M54" s="10" t="s">
+        <v>376</v>
+      </c>
+      <c r="N54" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="O54" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="P54" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q54" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="S54" t="s">
+        <v>31</v>
+      </c>
+      <c r="T54" t="s">
+        <v>46</v>
+      </c>
+      <c r="U54" t="s">
+        <v>59</v>
+      </c>
+      <c r="V54" t="s">
+        <v>46</v>
+      </c>
+      <c r="W54" t="s">
+        <v>55</v>
+      </c>
+      <c r="X54" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z54" t="s">
+        <v>454</v>
+      </c>
+      <c r="AA54">
+        <v>2</v>
+      </c>
+      <c r="AB54">
+        <v>2</v>
+      </c>
+      <c r="AC54">
+        <v>2</v>
+      </c>
+      <c r="AF54" s="10" t="s">
+        <v>455</v>
+      </c>
+      <c r="AG54" t="s">
+        <v>109</v>
+      </c>
+      <c r="AH54" t="s">
+        <v>220</v>
+      </c>
+      <c r="AI54" t="s">
+        <v>139</v>
+      </c>
+      <c r="AL54" t="s">
+        <v>460</v>
+      </c>
+      <c r="AM54" t="s">
+        <v>232</v>
+      </c>
+      <c r="AN54" t="s">
+        <v>162</v>
+      </c>
+      <c r="AO54" t="s">
+        <v>457</v>
+      </c>
+      <c r="AQ54" t="s">
+        <v>164</v>
+      </c>
+      <c r="AR54" t="s">
+        <v>239</v>
+      </c>
+      <c r="AS54" t="s">
+        <v>175</v>
+      </c>
+      <c r="AU54" t="s">
+        <v>417</v>
+      </c>
+      <c r="AV54" t="s">
+        <v>199</v>
+      </c>
+      <c r="AW54" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="55" spans="1:49" x14ac:dyDescent="0.35">
+      <c r="A55" s="10" t="s">
+        <v>371</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="C55" s="10" t="s">
+        <v>372</v>
+      </c>
+      <c r="D55" s="10" t="s">
+        <v>373</v>
+      </c>
+      <c r="E55" s="10">
+        <v>1997</v>
+      </c>
+      <c r="F55" s="10" t="s">
+        <v>374</v>
+      </c>
+      <c r="G55" s="10" t="s">
+        <v>340</v>
+      </c>
+      <c r="H55" s="10" t="s">
+        <v>300</v>
+      </c>
+      <c r="I55" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="J55" s="10" t="s">
+        <v>375</v>
+      </c>
+      <c r="K55" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="L55" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="M55" s="10" t="s">
+        <v>376</v>
+      </c>
+      <c r="N55" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="O55" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="P55" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q55" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="S55" t="s">
+        <v>31</v>
+      </c>
+      <c r="T55" t="s">
+        <v>46</v>
+      </c>
+      <c r="U55" t="s">
+        <v>59</v>
+      </c>
+      <c r="V55" t="s">
+        <v>46</v>
+      </c>
+      <c r="W55" t="s">
+        <v>55</v>
+      </c>
+      <c r="X55" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z55" t="s">
+        <v>454</v>
+      </c>
+      <c r="AA55">
+        <v>2</v>
+      </c>
+      <c r="AB55">
+        <v>2</v>
+      </c>
+      <c r="AC55">
+        <v>2</v>
+      </c>
+      <c r="AF55" s="10" t="s">
+        <v>455</v>
+      </c>
+      <c r="AG55" t="s">
+        <v>109</v>
+      </c>
+      <c r="AH55" t="s">
+        <v>220</v>
+      </c>
+      <c r="AI55" t="s">
+        <v>131</v>
+      </c>
+      <c r="AL55" t="s">
+        <v>461</v>
+      </c>
+      <c r="AM55" t="s">
+        <v>232</v>
+      </c>
+      <c r="AN55" t="s">
+        <v>162</v>
+      </c>
+      <c r="AO55" t="s">
+        <v>457</v>
+      </c>
+      <c r="AQ55" t="s">
+        <v>164</v>
+      </c>
+      <c r="AR55" t="s">
+        <v>239</v>
+      </c>
+      <c r="AS55" t="s">
+        <v>175</v>
+      </c>
+      <c r="AU55" t="s">
+        <v>417</v>
+      </c>
+      <c r="AV55" t="s">
+        <v>199</v>
+      </c>
+      <c r="AW55" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="56" spans="1:49" x14ac:dyDescent="0.35">
+      <c r="A56" s="10" t="s">
+        <v>371</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>372</v>
+      </c>
+      <c r="D56" s="10" t="s">
+        <v>373</v>
+      </c>
+      <c r="E56" s="10">
+        <v>1997</v>
+      </c>
+      <c r="F56" s="10" t="s">
+        <v>374</v>
+      </c>
+      <c r="G56" s="10" t="s">
+        <v>340</v>
+      </c>
+      <c r="H56" s="10" t="s">
+        <v>300</v>
+      </c>
+      <c r="I56" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="J56" s="10" t="s">
+        <v>375</v>
+      </c>
+      <c r="K56" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="L56" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="M56" s="10" t="s">
+        <v>376</v>
+      </c>
+      <c r="N56" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="O56" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="P56" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q56" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="S56" t="s">
+        <v>31</v>
+      </c>
+      <c r="T56" t="s">
+        <v>46</v>
+      </c>
+      <c r="U56" t="s">
+        <v>59</v>
+      </c>
+      <c r="V56" t="s">
+        <v>46</v>
+      </c>
+      <c r="W56" t="s">
+        <v>55</v>
+      </c>
+      <c r="X56" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z56" t="s">
+        <v>454</v>
+      </c>
+      <c r="AA56">
+        <v>2</v>
+      </c>
+      <c r="AB56">
+        <v>2</v>
+      </c>
+      <c r="AC56">
+        <v>2</v>
+      </c>
+      <c r="AF56" s="10" t="s">
+        <v>455</v>
+      </c>
+      <c r="AG56" t="s">
+        <v>109</v>
+      </c>
+      <c r="AH56" t="s">
+        <v>117</v>
+      </c>
+      <c r="AI56" t="s">
+        <v>144</v>
+      </c>
+      <c r="AL56" t="s">
+        <v>462</v>
+      </c>
+      <c r="AM56" t="s">
+        <v>232</v>
+      </c>
+      <c r="AN56" t="s">
+        <v>160</v>
+      </c>
+      <c r="AO56" t="s">
+        <v>457</v>
+      </c>
+      <c r="AQ56" t="s">
+        <v>164</v>
+      </c>
+      <c r="AR56" t="s">
+        <v>239</v>
+      </c>
+      <c r="AS56" t="s">
+        <v>175</v>
+      </c>
+      <c r="AU56" t="s">
+        <v>417</v>
+      </c>
+      <c r="AV56" t="s">
+        <v>199</v>
+      </c>
+      <c r="AW56" t="s">
         <v>209</v>
       </c>
     </row>
@@ -10715,7 +11321,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AQ3:AQ1048576" xr:uid="{5FFD7ACF-9A7A-47E4-8F02-C092CA18B67C}">
       <formula1>Fishery_type</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI3:AJ1048576 AR3:AS1048576 AN3:AN1048576" xr:uid="{E3465DE4-B915-4C62-9316-EABEC40DC1E6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AN3:AN1048576 AR3:AS1048576 AI3:AJ1048576" xr:uid="{E3465DE4-B915-4C62-9316-EABEC40DC1E6}">
       <formula1>INDIRECT(AH3)</formula1>
     </dataValidation>
   </dataValidations>
@@ -12808,12 +13414,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -12931,15 +13534,25 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D459FE-C8DA-484C-BC8E-5EB6A351EBC9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -12961,16 +13574,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D459FE-C8DA-484C-BC8E-5EB6A351EBC9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>